--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -52,10 +53,13 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>0-1-0</t>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -76,37 +80,112 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>10.2-3.8</t>
+  </si>
+  <si>
+    <t>9.8-4.2</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>8.4-5.6</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>3.6-10.4</t>
+  </si>
+  <si>
+    <t>3.1-10.9</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>3-11</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -115,7 +194,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -540,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -555,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -575,28 +678,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -607,31 +710,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -642,31 +745,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -730,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -747,34 +850,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -785,13 +888,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -800,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -820,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -835,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -852,34 +955,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -897,13 +1000,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -911,13 +1014,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -925,13 +1028,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -939,13 +1042,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -953,13 +1056,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -967,10 +1070,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -981,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -995,10 +1098,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1009,13 +1112,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1023,10 +1126,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1037,13 +1140,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1061,16 +1164,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1078,16 +1181,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1095,13 +1198,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="D3">
-        <v>-0.09999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1112,16 +1215,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="D4">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1129,16 +1232,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1149,13 +1252,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1163,13 +1266,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1180,16 +1283,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D8">
-        <v>-0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1197,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1214,13 +1317,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1234,13 +1337,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1258,66 +1361,66 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>74.48999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="C2">
-        <v>24.9</v>
+        <v>31.7</v>
       </c>
       <c r="D2">
-        <v>0.61</v>
+        <v>21.1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1329,36 +1432,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.99999999999999</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>20.97</v>
+        <v>36.9</v>
       </c>
       <c r="C3">
-        <v>40.79</v>
+        <v>28.4</v>
       </c>
       <c r="D3">
-        <v>27.88</v>
+        <v>17.8</v>
       </c>
       <c r="E3">
-        <v>8.219999999999999</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>1.91</v>
+        <v>5.3</v>
       </c>
       <c r="G3">
-        <v>0.23</v>
+        <v>1.8</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1367,121 +1470,121 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4.04</v>
+        <v>11.7</v>
       </c>
       <c r="C4">
-        <v>23.21</v>
+        <v>16.5</v>
       </c>
       <c r="D4">
-        <v>35.27</v>
+        <v>17.5</v>
       </c>
       <c r="E4">
-        <v>24.32</v>
+        <v>21.3</v>
       </c>
       <c r="F4">
-        <v>9.859999999999999</v>
+        <v>15.6</v>
       </c>
       <c r="G4">
-        <v>2.82</v>
+        <v>7.2</v>
       </c>
       <c r="H4">
-        <v>0.45</v>
+        <v>5.7</v>
       </c>
       <c r="I4">
-        <v>0.03</v>
+        <v>3.5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
-        <v>99.52</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.47</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>8.51</v>
+        <v>12.2</v>
       </c>
       <c r="D5">
-        <v>22.8</v>
+        <v>17.9</v>
       </c>
       <c r="E5">
-        <v>30.1</v>
+        <v>21.2</v>
       </c>
       <c r="F5">
-        <v>23.04</v>
+        <v>16.9</v>
       </c>
       <c r="G5">
-        <v>11.59</v>
+        <v>10.9</v>
       </c>
       <c r="H5">
-        <v>3.01</v>
+        <v>5.8</v>
       </c>
       <c r="I5">
-        <v>0.44</v>
+        <v>5.8</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>1.1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>96.50999999999999</v>
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C6">
-        <v>2.21</v>
+        <v>8.9</v>
       </c>
       <c r="D6">
-        <v>10.06</v>
+        <v>15.9</v>
       </c>
       <c r="E6">
-        <v>22.63</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>28.68</v>
+        <v>16.4</v>
       </c>
       <c r="G6">
-        <v>22.18</v>
+        <v>13.2</v>
       </c>
       <c r="H6">
-        <v>11.31</v>
+        <v>8.5</v>
       </c>
       <c r="I6">
-        <v>2.59</v>
+        <v>5.1</v>
       </c>
       <c r="J6">
-        <v>0.31</v>
+        <v>1.4</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>85.78999999999999</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1489,118 +1592,118 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0.37</v>
+        <v>0.9</v>
       </c>
       <c r="D7">
-        <v>2.83</v>
+        <v>3.6</v>
       </c>
       <c r="E7">
-        <v>11.35</v>
+        <v>6.9</v>
       </c>
       <c r="F7">
-        <v>22.78</v>
+        <v>14.4</v>
       </c>
       <c r="G7">
-        <v>28.68</v>
+        <v>21.4</v>
       </c>
       <c r="H7">
-        <v>21.87</v>
+        <v>27.7</v>
       </c>
       <c r="I7">
-        <v>9.58</v>
+        <v>19.2</v>
       </c>
       <c r="J7">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
       <c r="L7">
-        <v>66.00999999999999</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
-        <v>0.54</v>
+        <v>3.9</v>
       </c>
       <c r="E8">
-        <v>3.07</v>
+        <v>6.5</v>
       </c>
       <c r="F8">
-        <v>10.74</v>
+        <v>14.9</v>
       </c>
       <c r="G8">
-        <v>23.13</v>
+        <v>19.8</v>
       </c>
       <c r="H8">
-        <v>30.17</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>22.85</v>
+        <v>21.2</v>
       </c>
       <c r="J8">
-        <v>8.959999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="K8">
-        <v>0.53</v>
+        <v>2.8</v>
       </c>
       <c r="L8">
-        <v>37.48999999999999</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>2.2</v>
       </c>
       <c r="E9">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="F9">
-        <v>2.78</v>
+        <v>12.1</v>
       </c>
       <c r="G9">
-        <v>9.779999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="H9">
-        <v>24.51</v>
+        <v>22.6</v>
       </c>
       <c r="I9">
-        <v>35.62</v>
+        <v>23.3</v>
       </c>
       <c r="J9">
-        <v>23.24</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K9">
-        <v>3.76</v>
+        <v>1.9</v>
       </c>
       <c r="L9">
-        <v>12.87</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1612,28 +1715,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="H10">
-        <v>8.68</v>
+        <v>3.4</v>
       </c>
       <c r="I10">
-        <v>28.24</v>
+        <v>12.5</v>
       </c>
       <c r="J10">
-        <v>39.73</v>
+        <v>45.5</v>
       </c>
       <c r="K10">
-        <v>21.54</v>
+        <v>36.7</v>
       </c>
       <c r="L10">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1647,31 +1750,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I11">
-        <v>0.65</v>
+        <v>8.9</v>
       </c>
       <c r="J11">
-        <v>25.27</v>
+        <v>29.9</v>
       </c>
       <c r="K11">
-        <v>74.08</v>
+        <v>56.7</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -1680,6 +1783,305 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>107.64</v>
+      </c>
+      <c r="E2">
+        <v>215.28</v>
+      </c>
+      <c r="F2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>118.06</v>
+      </c>
+      <c r="E3">
+        <v>236.12</v>
+      </c>
+      <c r="F3">
+        <v>99.2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>115.28</v>
+      </c>
+      <c r="E4">
+        <v>230.56</v>
+      </c>
+      <c r="F4">
+        <v>89.8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>100.26</v>
+      </c>
+      <c r="E5">
+        <v>200.52</v>
+      </c>
+      <c r="F5">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>108.49</v>
+      </c>
+      <c r="E6">
+        <v>216.98</v>
+      </c>
+      <c r="F6">
+        <v>84.2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>94.75</v>
+      </c>
+      <c r="E7">
+        <v>189.5</v>
+      </c>
+      <c r="F7">
+        <v>47.4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>93.28</v>
+      </c>
+      <c r="E8">
+        <v>186.56</v>
+      </c>
+      <c r="F8">
+        <v>46.40000000000001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>95.72</v>
+      </c>
+      <c r="E9">
+        <v>191.44</v>
+      </c>
+      <c r="F9">
+        <v>43.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>83.28</v>
+      </c>
+      <c r="E10">
+        <v>166.56</v>
+      </c>
+      <c r="F10">
+        <v>1.9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>82.86000000000001</v>
+      </c>
+      <c r="E11">
+        <v>165.72</v>
+      </c>
+      <c r="F11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1689,16 +2091,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1706,16 +2108,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1723,16 +2125,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1740,16 +2142,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1757,16 +2159,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1774,16 +2176,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1791,16 +2193,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1808,16 +2210,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1825,16 +2227,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1842,16 +2244,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1859,147 +2261,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-5</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-7</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>-8</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2009,33 +2280,223 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-8</v>
+      </c>
+      <c r="C9">
+        <v>-5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>-7</v>
+      </c>
+      <c r="C11">
+        <v>-7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="F2">
+        <v>-4</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="84">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -155,10 +155,7 @@
     <t>8.4-5.6</t>
   </si>
   <si>
-    <t>7.9-6.1</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
+    <t>7.8-6.2</t>
   </si>
   <si>
     <t>6.3-7.7</t>
@@ -167,31 +164,67 @@
     <t>6.0-8.0</t>
   </si>
   <si>
-    <t>3.6-10.4</t>
-  </si>
-  <si>
-    <t>3.1-10.9</t>
+    <t>3.7-10.3</t>
+  </si>
+  <si>
+    <t>3.2-10.8</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>3-11</t>
   </si>
   <si>
+    <t>Owners</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Jessica McNally</t>
+  </si>
+  <si>
+    <t>Morgan Herber</t>
+  </si>
+  <si>
+    <t>Julie Williston</t>
+  </si>
+  <si>
+    <t>Lauren  Ettlinger</t>
+  </si>
+  <si>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
+    <t>Ava Patterson</t>
+  </si>
+  <si>
+    <t>Rachel Hall</t>
+  </si>
+  <si>
+    <t>Casey Reid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie  Kush </t>
+  </si>
+  <si>
+    <t>Carly Foster</t>
   </si>
   <si>
     <t>↑5</t>
@@ -1402,28 +1435,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.8</v>
+        <v>34.8</v>
       </c>
       <c r="C2">
-        <v>31.7</v>
+        <v>30.6</v>
       </c>
       <c r="D2">
-        <v>21.1</v>
+        <v>18.1</v>
       </c>
       <c r="E2">
-        <v>9.300000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="F2">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="G2">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H2">
         <v>0.4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1432,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1440,28 +1473,28 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="C3">
-        <v>28.4</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>17.8</v>
+        <v>18.2</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="F3">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1470,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.2</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1478,31 +1511,31 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11.7</v>
+        <v>13.1</v>
       </c>
       <c r="C4">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>17.5</v>
+        <v>19.9</v>
       </c>
       <c r="E4">
-        <v>21.3</v>
+        <v>17.7</v>
       </c>
       <c r="F4">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="H4">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K4">
         <v>0.2</v>
@@ -1516,37 +1549,37 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="C5">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="D5">
-        <v>17.9</v>
+        <v>19.1</v>
       </c>
       <c r="E5">
-        <v>21.2</v>
+        <v>19.5</v>
       </c>
       <c r="F5">
-        <v>16.9</v>
+        <v>19.2</v>
       </c>
       <c r="G5">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="H5">
         <v>5.8</v>
       </c>
       <c r="I5">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="J5">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>87.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1554,37 +1587,37 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>9.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C6">
-        <v>8.9</v>
+        <v>11.1</v>
       </c>
       <c r="D6">
-        <v>15.9</v>
+        <v>14.7</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>19.3</v>
       </c>
       <c r="F6">
-        <v>16.4</v>
+        <v>18.2</v>
       </c>
       <c r="G6">
-        <v>13.2</v>
+        <v>14.3</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="I6">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="J6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>84.2</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1592,37 +1625,37 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="E7">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="F7">
-        <v>14.4</v>
+        <v>13.6</v>
       </c>
       <c r="G7">
-        <v>21.4</v>
+        <v>22.4</v>
       </c>
       <c r="H7">
-        <v>27.7</v>
+        <v>22.6</v>
       </c>
       <c r="I7">
-        <v>19.2</v>
+        <v>23.5</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="K7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>47.4</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1630,37 +1663,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D8">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="E8">
-        <v>6.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F8">
-        <v>14.9</v>
+        <v>13.5</v>
       </c>
       <c r="G8">
-        <v>19.8</v>
+        <v>17.9</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="I8">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="J8">
-        <v>7.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K8">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
-        <v>46.4</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1671,34 +1704,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="E9">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="F9">
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
       <c r="G9">
-        <v>22.8</v>
+        <v>20.9</v>
       </c>
       <c r="H9">
-        <v>22.6</v>
+        <v>25.9</v>
       </c>
       <c r="I9">
-        <v>23.3</v>
+        <v>21.1</v>
       </c>
       <c r="J9">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K9">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1718,25 +1751,25 @@
         <v>0.1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="I10">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="J10">
-        <v>45.5</v>
+        <v>41.9</v>
       </c>
       <c r="K10">
-        <v>36.7</v>
+        <v>39.2</v>
       </c>
       <c r="L10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1747,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <v>0.1</v>
@@ -1756,25 +1789,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>29.9</v>
+        <v>31.3</v>
       </c>
       <c r="K11">
-        <v>56.7</v>
+        <v>54.3</v>
       </c>
       <c r="L11">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -1833,13 +1866,13 @@
         <v>215.28</v>
       </c>
       <c r="F2">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1859,13 +1892,13 @@
         <v>236.12</v>
       </c>
       <c r="F3">
-        <v>99.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1891,7 +1924,7 @@
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1911,7 +1944,7 @@
         <v>200.52</v>
       </c>
       <c r="F5">
-        <v>87.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
@@ -1937,7 +1970,7 @@
         <v>216.98</v>
       </c>
       <c r="F6">
-        <v>84.2</v>
+        <v>85.7</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -1963,7 +1996,7 @@
         <v>189.5</v>
       </c>
       <c r="F7">
-        <v>47.4</v>
+        <v>46.3</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1989,10 +2022,10 @@
         <v>186.56</v>
       </c>
       <c r="F8">
-        <v>46.40000000000001</v>
+        <v>45.5</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -2015,13 +2048,13 @@
         <v>191.44</v>
       </c>
       <c r="F9">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2041,10 +2074,10 @@
         <v>166.56</v>
       </c>
       <c r="F10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
         <v>54</v>
@@ -2067,10 +2100,10 @@
         <v>165.72</v>
       </c>
       <c r="F11">
-        <v>0.8999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
@@ -2083,13 +2116,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2097,180 +2130,213 @@
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
         <v>-4</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8">
         <v>-5</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9">
         <v>-5</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
       <c r="E9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
         <v>-6</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
         <v>-7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>63</v>
+      <c r="F11" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2288,13 +2354,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2308,7 +2374,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2322,7 +2388,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2336,7 +2402,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2350,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2364,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2378,7 +2444,7 @@
         <v>-4</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2392,7 +2458,7 @@
         <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2406,7 +2472,7 @@
         <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2420,7 +2486,7 @@
         <v>-6</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2434,7 +2500,7 @@
         <v>-7</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2452,25 +2518,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="90">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -53,13 +53,16 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -134,48 +137,51 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>10.2-3.8</t>
-  </si>
-  <si>
-    <t>9.8-4.2</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>8.4-5.6</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>3.7-10.3</t>
-  </si>
-  <si>
-    <t>3.2-10.8</t>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>10.3-3.7</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>9.6-4.4</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>5.1-8.9</t>
+  </si>
+  <si>
+    <t>3.3-10.7</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -185,6 +191,9 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>3-11</t>
   </si>
   <si>
@@ -203,55 +212,64 @@
     <t>Morgan Herber</t>
   </si>
   <si>
+    <t>Lauren  Ettlinger</t>
+  </si>
+  <si>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
     <t>Julie Williston</t>
   </si>
   <si>
-    <t>Lauren  Ettlinger</t>
-  </si>
-  <si>
-    <t>Haley Toadvine</t>
+    <t>Rachel Hall</t>
+  </si>
+  <si>
+    <t>Casey Reid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie  Kush </t>
   </si>
   <si>
     <t>Ava Patterson</t>
   </si>
   <si>
-    <t>Rachel Hall</t>
-  </si>
-  <si>
-    <t>Casey Reid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katie  Kush </t>
-  </si>
-  <si>
     <t>Carly Foster</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -682,16 +700,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -700,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -711,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -726,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -735,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -805,7 +823,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -822,25 +840,25 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -866,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -889,7 +907,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -901,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -918,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -933,19 +951,19 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -953,7 +971,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -962,25 +980,25 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1003,10 +1021,10 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -1015,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1033,13 +1051,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1047,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1061,13 +1079,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1075,13 +1093,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1089,13 +1107,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1103,13 +1121,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1117,13 +1135,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1131,13 +1149,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1148,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1162,10 +1180,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1173,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1197,16 +1215,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1217,10 +1235,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1231,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1248,16 +1266,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1265,16 +1283,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D5">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1282,16 +1300,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1299,16 +1317,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1316,16 +1334,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="D8">
-        <v>0.9</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1333,16 +1351,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="D9">
-        <v>-0.2</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1350,16 +1368,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>-0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1367,16 +1385,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1394,69 +1412,69 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>39.3</v>
+      </c>
+      <c r="C2">
+        <v>31.7</v>
+      </c>
+      <c r="D2">
+        <v>16.7</v>
+      </c>
+      <c r="E2">
+        <v>8.4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
         <v>0</v>
-      </c>
-      <c r="B2">
-        <v>34.8</v>
-      </c>
-      <c r="C2">
-        <v>30.6</v>
-      </c>
-      <c r="D2">
-        <v>18.1</v>
-      </c>
-      <c r="E2">
-        <v>10.2</v>
-      </c>
-      <c r="F2">
-        <v>4.4</v>
-      </c>
-      <c r="G2">
-        <v>1.4</v>
-      </c>
-      <c r="H2">
-        <v>0.4</v>
-      </c>
-      <c r="I2">
-        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1465,36 +1483,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>36.6</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>26</v>
       </c>
       <c r="D3">
-        <v>18.2</v>
+        <v>24.5</v>
       </c>
       <c r="E3">
-        <v>11.5</v>
+        <v>17.7</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1503,83 +1521,83 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>98.59999999999999</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24.9</v>
+      </c>
+      <c r="C4">
+        <v>20.6</v>
+      </c>
+      <c r="D4">
+        <v>21.4</v>
+      </c>
+      <c r="E4">
+        <v>15.6</v>
+      </c>
+      <c r="F4">
+        <v>10.9</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>13.1</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>19.9</v>
-      </c>
-      <c r="E4">
-        <v>17.7</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>8.1</v>
-      </c>
       <c r="H4">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="I4">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>89.8</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>6.6</v>
+        <v>9.1</v>
       </c>
       <c r="C5">
-        <v>13.6</v>
+        <v>12.6</v>
       </c>
       <c r="D5">
-        <v>19.1</v>
+        <v>18.4</v>
       </c>
       <c r="E5">
-        <v>19.5</v>
+        <v>22.9</v>
       </c>
       <c r="F5">
-        <v>19.2</v>
+        <v>19.8</v>
       </c>
       <c r="G5">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="H5">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="I5">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>88.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1587,75 +1605,75 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>8.1</v>
+        <v>3.3</v>
       </c>
       <c r="C6">
-        <v>11.1</v>
+        <v>6.9</v>
       </c>
       <c r="D6">
-        <v>14.7</v>
+        <v>13.1</v>
       </c>
       <c r="E6">
-        <v>19.3</v>
+        <v>20.1</v>
       </c>
       <c r="F6">
-        <v>18.2</v>
+        <v>22.8</v>
       </c>
       <c r="G6">
-        <v>14.3</v>
+        <v>16.3</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I6">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="J6">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="L6">
-        <v>85.7</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D7">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>5.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F7">
-        <v>13.6</v>
+        <v>23.2</v>
       </c>
       <c r="G7">
-        <v>22.4</v>
+        <v>30.1</v>
       </c>
       <c r="H7">
-        <v>22.6</v>
+        <v>20.4</v>
       </c>
       <c r="I7">
-        <v>23.5</v>
+        <v>9.5</v>
       </c>
       <c r="J7">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L7">
-        <v>46.3</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1663,80 +1681,80 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
+        <v>0.9</v>
+      </c>
+      <c r="D8">
         <v>1.2</v>
       </c>
-      <c r="D8">
-        <v>4.1</v>
-      </c>
       <c r="E8">
-        <v>8.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="F8">
-        <v>13.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G8">
-        <v>17.9</v>
+        <v>21.7</v>
       </c>
       <c r="H8">
-        <v>22.2</v>
+        <v>30.9</v>
       </c>
       <c r="I8">
-        <v>21.4</v>
+        <v>23.1</v>
       </c>
       <c r="J8">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="K8">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>45.5</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="F9">
-        <v>11.1</v>
+        <v>3.7</v>
       </c>
       <c r="G9">
-        <v>20.9</v>
+        <v>12.4</v>
       </c>
       <c r="H9">
-        <v>25.9</v>
+        <v>23.5</v>
       </c>
       <c r="I9">
-        <v>21.1</v>
+        <v>41.7</v>
       </c>
       <c r="J9">
-        <v>8.300000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>42.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1751,63 +1769,63 @@
         <v>0.1</v>
       </c>
       <c r="F10">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="G10">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H10">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="I10">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="J10">
-        <v>41.9</v>
+        <v>44.3</v>
       </c>
       <c r="K10">
-        <v>39.2</v>
+        <v>35.1</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="J11">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>54.3</v>
+        <v>59.9</v>
       </c>
       <c r="L11">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1825,132 +1843,132 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>107.64</v>
+        <v>118.9466666666667</v>
       </c>
       <c r="E2">
-        <v>215.28</v>
+        <v>356.84</v>
       </c>
       <c r="F2">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>118.06</v>
+        <v>109.3066666666667</v>
       </c>
       <c r="E3">
-        <v>236.12</v>
+        <v>327.92</v>
       </c>
       <c r="F3">
-        <v>98.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>115.28</v>
+        <v>114.6466666666667</v>
       </c>
       <c r="E4">
-        <v>230.56</v>
+        <v>343.94</v>
       </c>
       <c r="F4">
-        <v>89.8</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>100.26</v>
+        <v>113.22</v>
       </c>
       <c r="E5">
-        <v>200.52</v>
+        <v>339.66</v>
       </c>
       <c r="F5">
-        <v>88.59999999999999</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1958,51 +1976,51 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6">
-        <v>108.49</v>
+        <v>110.8666666666667</v>
       </c>
       <c r="E6">
-        <v>216.98</v>
+        <v>332.6</v>
       </c>
       <c r="F6">
-        <v>85.7</v>
+        <v>82.5</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>94.75</v>
+        <v>101.5933333333333</v>
       </c>
       <c r="E7">
-        <v>189.5</v>
+        <v>304.78</v>
       </c>
       <c r="F7">
-        <v>46.3</v>
+        <v>68.5</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2010,103 +2028,103 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>93.28</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="E8">
-        <v>186.56</v>
+        <v>286.38</v>
       </c>
       <c r="F8">
-        <v>45.5</v>
+        <v>37.3</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>95.72</v>
+        <v>92.45333333333333</v>
       </c>
       <c r="E9">
-        <v>191.44</v>
+        <v>277.36</v>
       </c>
       <c r="F9">
-        <v>42.6</v>
+        <v>18.7</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>83.28</v>
+        <v>87.52000000000002</v>
       </c>
       <c r="E10">
-        <v>166.56</v>
+        <v>262.5600000000001</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>82.86000000000001</v>
+        <v>81.24666666666667</v>
       </c>
       <c r="E11">
-        <v>165.72</v>
+        <v>243.74</v>
       </c>
       <c r="F11">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2124,19 +2142,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2147,16 +2165,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2167,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -2176,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2184,19 +2202,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2204,19 +2222,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2224,19 +2242,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2244,19 +2262,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2264,19 +2282,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2284,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2304,19 +2322,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2327,16 +2345,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2346,24 +2364,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2373,11 +2394,14 @@
       <c r="C2">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2387,109 +2411,133 @@
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="C8">
         <v>-5</v>
       </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>-5</v>
       </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
       <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2499,8 +2547,11 @@
       <c r="C11">
         <v>-7</v>
       </c>
-      <c r="D11" t="s">
-        <v>74</v>
+      <c r="D11">
+        <v>-10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2518,25 +2569,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="93">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -53,16 +53,19 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -137,43 +140,46 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>10.3-3.7</t>
-  </si>
-  <si>
-    <t>10.0-4.0</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>5.1-8.9</t>
-  </si>
-  <si>
-    <t>3.3-10.7</t>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>10.2-3.8</t>
+  </si>
+  <si>
+    <t>9.9-4.1</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>5.2-8.8</t>
+  </si>
+  <si>
+    <t>4.5-9.5</t>
   </si>
   <si>
     <t>3.0-11.0</t>
@@ -188,12 +194,12 @@
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>3-11</t>
   </si>
   <si>
@@ -209,60 +215,60 @@
     <t>Jessica McNally</t>
   </si>
   <si>
+    <t>Lauren  Ettlinger</t>
+  </si>
+  <si>
+    <t>Rachel Hall</t>
+  </si>
+  <si>
     <t>Morgan Herber</t>
   </si>
   <si>
-    <t>Lauren  Ettlinger</t>
-  </si>
-  <si>
     <t>Haley Toadvine</t>
   </si>
   <si>
+    <t xml:space="preserve">Katie  Kush </t>
+  </si>
+  <si>
+    <t>Casey Reid</t>
+  </si>
+  <si>
     <t>Julie Williston</t>
   </si>
   <si>
-    <t>Rachel Hall</t>
-  </si>
-  <si>
-    <t>Casey Reid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katie  Kush </t>
+    <t>Carly Foster</t>
   </si>
   <si>
     <t>Ava Patterson</t>
   </si>
   <si>
-    <t>Carly Foster</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -270,6 +276,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -697,10 +706,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -709,16 +718,16 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -764,31 +773,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -799,31 +808,31 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -831,34 +840,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -887,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
@@ -910,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -919,16 +928,16 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -939,31 +948,31 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -980,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -989,16 +998,16 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1015,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1027,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -1051,13 +1060,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1065,13 +1074,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1079,13 +1088,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1093,13 +1102,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1107,10 +1116,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1121,13 +1130,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1138,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1152,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1163,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1177,13 +1186,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1191,13 +1200,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1215,16 +1224,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1235,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1249,13 +1258,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D3">
-        <v>-0.7999999999999998</v>
+        <v>-1.4</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1266,16 +1275,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D4">
-        <v>-0.8999999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1283,16 +1292,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1300,16 +1309,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1317,13 +1326,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D7">
-        <v>0.6000000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1334,13 +1343,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="D8">
-        <v>0.1000000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1351,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1368,13 +1377,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1385,16 +1394,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D11">
-        <v>-0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1412,40 +1421,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1453,28 +1462,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>39.3</v>
+        <v>52.6</v>
       </c>
       <c r="C2">
-        <v>31.7</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>16.7</v>
+        <v>12.3</v>
       </c>
       <c r="E2">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="G2">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1491,28 +1500,28 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>31.8</v>
       </c>
       <c r="D3">
-        <v>24.5</v>
+        <v>20.8</v>
       </c>
       <c r="E3">
-        <v>17.7</v>
+        <v>12.9</v>
       </c>
       <c r="F3">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1521,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1529,270 +1538,270 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.9</v>
+        <v>9.5</v>
       </c>
       <c r="C4">
-        <v>20.6</v>
+        <v>13.1</v>
       </c>
       <c r="D4">
-        <v>21.4</v>
+        <v>18.6</v>
       </c>
       <c r="E4">
-        <v>15.6</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>10.9</v>
+        <v>18.8</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>10.6</v>
       </c>
       <c r="H4">
-        <v>1.7</v>
+        <v>7.2</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="J4">
+        <v>0.6</v>
+      </c>
+      <c r="K4">
         <v>0.1</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
-        <v>97.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="C5">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="D5">
         <v>18.4</v>
       </c>
       <c r="E5">
-        <v>22.9</v>
+        <v>19.3</v>
       </c>
       <c r="F5">
-        <v>19.8</v>
+        <v>16.7</v>
       </c>
       <c r="G5">
-        <v>10.3</v>
+        <v>13.2</v>
       </c>
       <c r="H5">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="J5">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>93.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="C6">
-        <v>6.9</v>
+        <v>11.9</v>
       </c>
       <c r="D6">
-        <v>13.1</v>
+        <v>17.2</v>
       </c>
       <c r="E6">
-        <v>20.1</v>
+        <v>19.5</v>
       </c>
       <c r="F6">
-        <v>22.8</v>
+        <v>18.4</v>
       </c>
       <c r="G6">
-        <v>16.3</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>9.699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I6">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L6">
-        <v>82.5</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="C7">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="E7">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>23.2</v>
+        <v>15.4</v>
       </c>
       <c r="G7">
-        <v>30.1</v>
+        <v>20.5</v>
       </c>
       <c r="H7">
-        <v>20.4</v>
+        <v>16.1</v>
       </c>
       <c r="I7">
-        <v>9.5</v>
+        <v>12.8</v>
       </c>
       <c r="J7">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="K7">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>68.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
         <v>0.9</v>
       </c>
       <c r="D8">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="E8">
-        <v>3.7</v>
+        <v>8.1</v>
       </c>
       <c r="F8">
-        <v>9.699999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="G8">
-        <v>21.7</v>
+        <v>19.7</v>
       </c>
       <c r="H8">
-        <v>30.9</v>
+        <v>26.6</v>
       </c>
       <c r="I8">
-        <v>23.1</v>
+        <v>16.5</v>
       </c>
       <c r="J8">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>37.3</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="F9">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="G9">
-        <v>12.4</v>
+        <v>10.7</v>
       </c>
       <c r="H9">
-        <v>23.5</v>
+        <v>20.8</v>
       </c>
       <c r="I9">
-        <v>41.7</v>
+        <v>31.2</v>
       </c>
       <c r="J9">
-        <v>13.1</v>
+        <v>20.7</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="L9">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="F10">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="G10">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="H10">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="I10">
-        <v>11.8</v>
+        <v>19.6</v>
       </c>
       <c r="J10">
-        <v>44.3</v>
+        <v>36.7</v>
       </c>
       <c r="K10">
-        <v>35.1</v>
+        <v>22.9</v>
       </c>
       <c r="L10">
-        <v>2.6</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1807,25 +1816,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="I11">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="J11">
-        <v>31</v>
+        <v>23.7</v>
       </c>
       <c r="K11">
-        <v>59.9</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -1843,28 +1852,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1872,25 +1881,25 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>118.9466666666667</v>
+        <v>125.665</v>
       </c>
       <c r="E2">
-        <v>356.84</v>
+        <v>502.66</v>
       </c>
       <c r="F2">
         <v>99.8</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1898,25 +1907,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>109.3066666666667</v>
+        <v>110.24</v>
       </c>
       <c r="E3">
-        <v>327.92</v>
+        <v>440.96</v>
       </c>
       <c r="F3">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1927,204 +1936,204 @@
         <v>39</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>114.6466666666667</v>
+        <v>108.93</v>
       </c>
       <c r="E4">
-        <v>343.94</v>
+        <v>435.72</v>
       </c>
       <c r="F4">
-        <v>97.39999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>113.22</v>
+        <v>115.64</v>
       </c>
       <c r="E5">
-        <v>339.66</v>
+        <v>462.5600000000001</v>
       </c>
       <c r="F5">
-        <v>93.10000000000001</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>110.8666666666667</v>
+        <v>113.77</v>
       </c>
       <c r="E6">
-        <v>332.6</v>
+        <v>455.08</v>
       </c>
       <c r="F6">
-        <v>82.5</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>101.5933333333333</v>
+        <v>103.77</v>
       </c>
       <c r="E7">
-        <v>304.78</v>
+        <v>415.08</v>
       </c>
       <c r="F7">
-        <v>68.5</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>95.45999999999999</v>
+        <v>98.85000000000001</v>
       </c>
       <c r="E8">
-        <v>286.38</v>
+        <v>395.4</v>
       </c>
       <c r="F8">
-        <v>37.3</v>
+        <v>45.9</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>92.45333333333333</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="E9">
-        <v>277.36</v>
+        <v>386.96</v>
       </c>
       <c r="F9">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>87.52000000000002</v>
+        <v>91.015</v>
       </c>
       <c r="E10">
-        <v>262.5600000000001</v>
+        <v>364.06</v>
       </c>
       <c r="F10">
-        <v>2.6</v>
+        <v>10.3</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>81.24666666666667</v>
+        <v>88.66500000000002</v>
       </c>
       <c r="E11">
-        <v>243.74</v>
+        <v>354.6600000000001</v>
       </c>
       <c r="F11">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2142,19 +2151,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2165,16 +2174,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2182,19 +2191,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2202,19 +2211,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2222,19 +2231,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2242,19 +2251,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2262,19 +2271,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2285,16 +2294,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2302,19 +2311,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2322,19 +2331,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>-10</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2342,19 +2351,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2364,27 +2373,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2397,96 +2409,114 @@
       <c r="D2">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>-5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-6</v>
+      </c>
+      <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>-5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2499,59 +2529,71 @@
       <c r="D8">
         <v>-7</v>
       </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>-6</v>
       </c>
-      <c r="C9">
-        <v>-6</v>
-      </c>
-      <c r="D9">
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>-7</v>
       </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
       <c r="C10">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="D10">
         <v>-10</v>
       </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="C11">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="D11">
         <v>-10</v>
       </c>
-      <c r="E11" t="s">
-        <v>79</v>
+      <c r="E11">
+        <v>-12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2603,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2569,25 +2611,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2595,24 +2637,50 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>-12</v>
+      </c>
+      <c r="F2">
+        <v>-2</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>-5</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>-4</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -155,34 +155,34 @@
     <t>0-4</t>
   </si>
   <si>
-    <t>10.2-3.8</t>
-  </si>
-  <si>
-    <t>9.9-4.1</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>7.9-6.1</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>5.2-8.8</t>
-  </si>
-  <si>
-    <t>4.5-9.5</t>
-  </si>
-  <si>
-    <t>3.0-11.0</t>
+    <t>10.0-3.9-0.1</t>
+  </si>
+  <si>
+    <t>9.9-4.0-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>7.9-6.0-0.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.1-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.7-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.7-0.1</t>
+  </si>
+  <si>
+    <t>4.6-9.3-0.1</t>
+  </si>
+  <si>
+    <t>3.0-10.8-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -194,10 +194,10 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>5-9</t>
-  </si>
-  <si>
-    <t>4-10</t>
   </si>
   <si>
     <t>3-11</t>
@@ -1462,13 +1462,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>52.6</v>
+        <v>48.2</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>27.8</v>
       </c>
       <c r="D2">
-        <v>12.3</v>
+        <v>13.9</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -1477,10 +1477,10 @@
         <v>2.8</v>
       </c>
       <c r="G2">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
         <v>0.1</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1500,28 +1500,28 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>29.3</v>
       </c>
       <c r="C3">
-        <v>31.8</v>
+        <v>29.7</v>
       </c>
       <c r="D3">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="E3">
-        <v>12.9</v>
+        <v>11.3</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="G3">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3">
         <v>0.3</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1538,37 +1538,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>13.1</v>
+        <v>14.7</v>
       </c>
       <c r="D4">
-        <v>18.6</v>
+        <v>17</v>
       </c>
       <c r="E4">
+        <v>19.3</v>
+      </c>
+      <c r="F4">
         <v>18</v>
-      </c>
-      <c r="F4">
-        <v>18.8</v>
       </c>
       <c r="G4">
         <v>10.6</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J4">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>88.59999999999999</v>
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1576,37 +1576,37 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="C5">
-        <v>13.2</v>
+        <v>11.9</v>
       </c>
       <c r="D5">
-        <v>18.4</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="F5">
-        <v>16.7</v>
+        <v>17.5</v>
       </c>
       <c r="G5">
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="I5">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J5">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>87.90000000000001</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1614,37 +1614,37 @@
         <v>1</v>
       </c>
       <c r="B6">
+        <v>5.4</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>15.5</v>
+      </c>
+      <c r="E6">
+        <v>21.9</v>
+      </c>
+      <c r="F6">
+        <v>17.6</v>
+      </c>
+      <c r="G6">
+        <v>13.8</v>
+      </c>
+      <c r="H6">
+        <v>7.9</v>
+      </c>
+      <c r="I6">
         <v>4.4</v>
       </c>
-      <c r="C6">
-        <v>11.9</v>
-      </c>
-      <c r="D6">
-        <v>17.2</v>
-      </c>
-      <c r="E6">
-        <v>19.5</v>
-      </c>
-      <c r="F6">
-        <v>18.4</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
       <c r="J6">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L6">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1652,37 +1652,37 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D7">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="E7">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="H7">
-        <v>16.1</v>
+        <v>17.1</v>
       </c>
       <c r="I7">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L7">
-        <v>62</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1690,37 +1690,37 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0.9</v>
       </c>
       <c r="D8">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="E8">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="F8">
         <v>13.2</v>
       </c>
       <c r="G8">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="H8">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="I8">
-        <v>16.5</v>
+        <v>17.8</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>11.2</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L8">
-        <v>45.9</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1728,37 +1728,37 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0.2</v>
-      </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="F9">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="G9">
-        <v>10.7</v>
+        <v>12.3</v>
       </c>
       <c r="H9">
-        <v>20.8</v>
+        <v>18.4</v>
       </c>
       <c r="I9">
-        <v>31.2</v>
+        <v>30.6</v>
       </c>
       <c r="J9">
         <v>20.7</v>
       </c>
       <c r="K9">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="L9">
-        <v>19.7</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1766,37 +1766,37 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="F10">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G10">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H10">
-        <v>10.5</v>
+        <v>13.2</v>
       </c>
       <c r="I10">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="J10">
-        <v>36.7</v>
+        <v>35.9</v>
       </c>
       <c r="K10">
-        <v>22.9</v>
+        <v>20.2</v>
       </c>
       <c r="L10">
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1813,28 +1813,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="I11">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
-        <v>23.7</v>
+        <v>21.4</v>
       </c>
       <c r="K11">
-        <v>64.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="L11">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +1893,7 @@
         <v>502.66</v>
       </c>
       <c r="F2">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
@@ -1919,7 +1919,7 @@
         <v>440.96</v>
       </c>
       <c r="F3">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1945,7 +1945,7 @@
         <v>435.72</v>
       </c>
       <c r="F4">
-        <v>88.59999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1971,7 +1971,7 @@
         <v>462.5600000000001</v>
       </c>
       <c r="F5">
-        <v>87.90000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
@@ -1997,7 +1997,7 @@
         <v>455.08</v>
       </c>
       <c r="F6">
-        <v>85.39999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
@@ -2023,7 +2023,7 @@
         <v>415.08</v>
       </c>
       <c r="F7">
-        <v>62</v>
+        <v>62.4</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
@@ -2049,13 +2049,13 @@
         <v>395.4</v>
       </c>
       <c r="F8">
-        <v>45.9</v>
+        <v>43.5</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2075,13 +2075,13 @@
         <v>386.96</v>
       </c>
       <c r="F9">
-        <v>19.7</v>
+        <v>22.2</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2101,7 +2101,7 @@
         <v>364.06</v>
       </c>
       <c r="F10">
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -2127,7 +2127,7 @@
         <v>354.6600000000001</v>
       </c>
       <c r="F11">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="96">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -53,19 +53,19 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -140,54 +140,57 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>10.0-3.9-0.1</t>
-  </si>
-  <si>
-    <t>9.9-4.0-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.7-0.1</t>
-  </si>
-  <si>
-    <t>7.9-6.0-0.1</t>
-  </si>
-  <si>
-    <t>7.7-6.2-0.1</t>
-  </si>
-  <si>
-    <t>6.8-7.1-0.1</t>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>9.9-4.1-0.1</t>
+  </si>
+  <si>
+    <t>8.8-5.1-0.1</t>
+  </si>
+  <si>
+    <t>8.3-5.7-0.1</t>
+  </si>
+  <si>
+    <t>8.4-5.5-0.1</t>
+  </si>
+  <si>
+    <t>7.3-6.7-0.1</t>
+  </si>
+  <si>
+    <t>7.4-6.5-0.1</t>
+  </si>
+  <si>
+    <t>6.5-7.4-0.1</t>
   </si>
   <si>
     <t>6.2-7.7-0.1</t>
   </si>
   <si>
-    <t>5.2-8.7-0.1</t>
-  </si>
-  <si>
-    <t>4.6-9.3-0.1</t>
-  </si>
-  <si>
-    <t>3.0-10.8-0.1</t>
+    <t>4.0-9.9-0.1</t>
+  </si>
+  <si>
+    <t>2.9-11.0-0.1</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -197,7 +200,7 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>3-11</t>
@@ -221,6 +224,15 @@
     <t>Rachel Hall</t>
   </si>
   <si>
+    <t>Casey Reid</t>
+  </si>
+  <si>
+    <t>Julie Williston</t>
+  </si>
+  <si>
+    <t>Ava Patterson</t>
+  </si>
+  <si>
     <t>Morgan Herber</t>
   </si>
   <si>
@@ -230,43 +242,37 @@
     <t xml:space="preserve">Katie  Kush </t>
   </si>
   <si>
-    <t>Casey Reid</t>
-  </si>
-  <si>
-    <t>Julie Williston</t>
-  </si>
-  <si>
     <t>Carly Foster</t>
   </si>
   <si>
-    <t>Ava Patterson</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓5</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -279,6 +285,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -703,31 +712,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -735,19 +744,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -756,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -770,19 +779,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -794,10 +803,10 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -805,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -817,10 +826,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -829,10 +838,10 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -840,19 +849,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -864,10 +873,10 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -881,22 +890,22 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
@@ -910,10 +919,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -922,19 +931,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -954,25 +963,25 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
         <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -986,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1015,19 +1024,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1039,10 +1048,10 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1074,13 +1083,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1088,13 +1097,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1102,13 +1111,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1116,13 +1125,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1130,13 +1139,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1144,13 +1153,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1158,13 +1167,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1175,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1186,13 +1195,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1200,13 +1209,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1244,13 +1253,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D2">
-        <v>0.3999999999999999</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1258,16 +1267,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D3">
-        <v>-1.4</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1275,16 +1284,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D4">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1292,16 +1301,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1309,16 +1318,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D6">
-        <v>-0.7000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1326,16 +1335,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="D7">
-        <v>-0.2</v>
+        <v>-1.4</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1343,16 +1352,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D8">
-        <v>-0.3</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1363,10 +1372,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="D9">
-        <v>0.3999999999999999</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1380,13 +1389,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1397,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1462,28 +1471,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>48.2</v>
+        <v>51.7</v>
       </c>
       <c r="C2">
-        <v>27.8</v>
+        <v>22.5</v>
       </c>
       <c r="D2">
-        <v>13.9</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="F2">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1492,235 +1501,235 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.7</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>29.3</v>
+        <v>18.2</v>
       </c>
       <c r="C3">
-        <v>29.7</v>
+        <v>21.7</v>
       </c>
       <c r="D3">
-        <v>20.2</v>
+        <v>18.2</v>
       </c>
       <c r="E3">
-        <v>11.3</v>
+        <v>14</v>
       </c>
       <c r="F3">
+        <v>9.9</v>
+      </c>
+      <c r="G3">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H3">
         <v>5.8</v>
       </c>
-      <c r="G3">
-        <v>2.8</v>
-      </c>
-      <c r="H3">
-        <v>0.6</v>
-      </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.09999999999999</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12.1</v>
       </c>
       <c r="C4">
-        <v>14.7</v>
+        <v>18.5</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>19.6</v>
       </c>
       <c r="E4">
-        <v>19.3</v>
+        <v>15.6</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>12.6</v>
       </c>
       <c r="G4">
         <v>10.6</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
-        <v>87.59999999999999</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C5">
-        <v>11.9</v>
+        <v>15.6</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="E5">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>13.2</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J5">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>87.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>8.9</v>
       </c>
       <c r="D6">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>21.9</v>
+        <v>16.8</v>
       </c>
       <c r="F6">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="G6">
-        <v>13.8</v>
+        <v>15.4</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>12.5</v>
       </c>
       <c r="I6">
-        <v>4.4</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L6">
-        <v>85.2</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>7.4</v>
       </c>
       <c r="D7">
-        <v>8.5</v>
+        <v>11.6</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>15.1</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>14.8</v>
       </c>
       <c r="G7">
-        <v>20.6</v>
+        <v>15.8</v>
       </c>
       <c r="H7">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="L7">
-        <v>62.4</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="D8">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E8">
-        <v>5.6</v>
+        <v>10.2</v>
       </c>
       <c r="F8">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="G8">
-        <v>19.3</v>
+        <v>18.3</v>
       </c>
       <c r="H8">
-        <v>24.9</v>
+        <v>18.5</v>
       </c>
       <c r="I8">
-        <v>17.8</v>
+        <v>22.2</v>
       </c>
       <c r="J8">
-        <v>11.2</v>
+        <v>7.6</v>
       </c>
       <c r="K8">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
-        <v>43.5</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1728,37 +1737,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="E9">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="F9">
-        <v>6.4</v>
+        <v>11.6</v>
       </c>
       <c r="G9">
-        <v>12.3</v>
+        <v>13.2</v>
       </c>
       <c r="H9">
-        <v>18.4</v>
+        <v>22.4</v>
       </c>
       <c r="I9">
-        <v>30.6</v>
+        <v>29.5</v>
       </c>
       <c r="J9">
-        <v>20.7</v>
+        <v>9.4</v>
       </c>
       <c r="K9">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
-        <v>22.2</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1772,31 +1781,31 @@
         <v>0.1</v>
       </c>
       <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
         <v>0.9</v>
       </c>
-      <c r="E10">
-        <v>1.3</v>
-      </c>
-      <c r="F10">
-        <v>2.1</v>
-      </c>
       <c r="G10">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H10">
-        <v>13.2</v>
+        <v>5.2</v>
       </c>
       <c r="I10">
-        <v>19.4</v>
+        <v>10.5</v>
       </c>
       <c r="J10">
-        <v>35.9</v>
+        <v>50.2</v>
       </c>
       <c r="K10">
-        <v>20.2</v>
+        <v>30.6</v>
       </c>
       <c r="L10">
-        <v>11.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1813,28 +1822,28 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
         <v>0.3</v>
       </c>
-      <c r="F11">
-        <v>0.6</v>
-      </c>
-      <c r="G11">
-        <v>0.7</v>
-      </c>
       <c r="H11">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="I11">
-        <v>8.1</v>
+        <v>5.2</v>
       </c>
       <c r="J11">
-        <v>21.4</v>
+        <v>27.8</v>
       </c>
       <c r="K11">
-        <v>66</v>
+        <v>64.7</v>
       </c>
       <c r="L11">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1884,16 +1893,16 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>125.665</v>
+        <v>121.876</v>
       </c>
       <c r="E2">
-        <v>502.66</v>
+        <v>609.38</v>
       </c>
       <c r="F2">
-        <v>99.7</v>
+        <v>98.5</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
@@ -1904,152 +1913,152 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>110.24</v>
+        <v>110.952</v>
       </c>
       <c r="E3">
-        <v>440.96</v>
+        <v>554.76</v>
       </c>
       <c r="F3">
-        <v>99.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>108.93</v>
+        <v>116.848</v>
       </c>
       <c r="E4">
-        <v>435.72</v>
+        <v>584.24</v>
       </c>
       <c r="F4">
-        <v>87.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>115.64</v>
+        <v>104.648</v>
       </c>
       <c r="E5">
-        <v>462.5600000000001</v>
+        <v>523.24</v>
       </c>
       <c r="F5">
-        <v>87.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>113.77</v>
+        <v>116.376</v>
       </c>
       <c r="E6">
-        <v>455.08</v>
+        <v>581.8800000000001</v>
       </c>
       <c r="F6">
-        <v>85.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>103.77</v>
+        <v>105.404</v>
       </c>
       <c r="E7">
-        <v>415.08</v>
+        <v>527.02</v>
       </c>
       <c r="F7">
-        <v>62.4</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>98.85000000000001</v>
+        <v>106.468</v>
       </c>
       <c r="E8">
-        <v>395.4</v>
+        <v>532.34</v>
       </c>
       <c r="F8">
-        <v>43.5</v>
+        <v>49.9</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
@@ -2063,19 +2072,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>96.73999999999999</v>
+        <v>102.784</v>
       </c>
       <c r="E9">
-        <v>386.96</v>
+        <v>513.92</v>
       </c>
       <c r="F9">
-        <v>22.2</v>
+        <v>36.5</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
@@ -2092,22 +2101,22 @@
         <v>42</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>91.015</v>
+        <v>90.21599999999999</v>
       </c>
       <c r="E10">
-        <v>364.06</v>
+        <v>451.08</v>
       </c>
       <c r="F10">
-        <v>11.3</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2121,19 +2130,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>88.66500000000002</v>
+        <v>91.43200000000002</v>
       </c>
       <c r="E11">
-        <v>354.6600000000001</v>
+        <v>457.1600000000001</v>
       </c>
       <c r="F11">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2154,16 +2163,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2174,16 +2183,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2194,16 +2203,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2214,16 +2223,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2231,19 +2240,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2251,19 +2260,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2271,19 +2280,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>-4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2291,19 +2300,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>-5</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2311,19 +2320,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>-6</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2331,19 +2340,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2351,19 +2360,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2373,30 +2382,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2412,11 +2424,14 @@
       <c r="E2">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2432,11 +2447,14 @@
       <c r="E3">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2452,148 +2470,172 @@
       <c r="E4">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-8</v>
+      </c>
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>-7</v>
+      </c>
+      <c r="E5">
+        <v>-5</v>
+      </c>
+      <c r="F5">
+        <v>-4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <v>-4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <v>-10</v>
+      </c>
+      <c r="E7">
+        <v>-12</v>
+      </c>
+      <c r="F7">
+        <v>-4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>-2</v>
       </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>-6</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>-6</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>-7</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>-4</v>
       </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-8</v>
-      </c>
-      <c r="C8">
-        <v>-5</v>
-      </c>
-      <c r="D8">
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>-7</v>
       </c>
-      <c r="E8">
-        <v>-5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>-6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
+      <c r="C11">
         <v>-7</v>
-      </c>
-      <c r="C10">
-        <v>-7</v>
-      </c>
-      <c r="D10">
-        <v>-10</v>
-      </c>
-      <c r="E10">
-        <v>-10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>-5</v>
-      </c>
-      <c r="C11">
-        <v>-4</v>
       </c>
       <c r="D11">
         <v>-10</v>
       </c>
       <c r="E11">
-        <v>-12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
+        <v>-10</v>
+      </c>
+      <c r="F11">
+        <v>-11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +2645,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2611,25 +2653,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2637,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -2663,25 +2705,77 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>-12</v>
+      </c>
+      <c r="F3">
+        <v>-2</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>-5</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>-4</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <v>-5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="101">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -119,6 +120,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -155,28 +174,25 @@
     <t>0-5</t>
   </si>
   <si>
-    <t>9.9-4.1-0.1</t>
-  </si>
-  <si>
-    <t>8.8-5.1-0.1</t>
-  </si>
-  <si>
-    <t>8.3-5.7-0.1</t>
-  </si>
-  <si>
-    <t>8.4-5.5-0.1</t>
-  </si>
-  <si>
-    <t>7.3-6.7-0.1</t>
-  </si>
-  <si>
-    <t>7.4-6.5-0.1</t>
-  </si>
-  <si>
-    <t>6.5-7.4-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.7-0.1</t>
+    <t>9.8-4.1-0.1</t>
+  </si>
+  <si>
+    <t>8.9-5.0-0.1</t>
+  </si>
+  <si>
+    <t>8.3-5.6-0.1</t>
+  </si>
+  <si>
+    <t>7.3-6.6-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.4-0.1</t>
+  </si>
+  <si>
+    <t>6.4-7.5-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.9-0.1</t>
   </si>
   <si>
     <t>4.0-9.9-0.1</t>
@@ -1471,28 +1487,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>51.7</v>
+        <v>49.3</v>
       </c>
       <c r="C2">
-        <v>22.5</v>
+        <v>24.3</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="E2">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>3.4</v>
       </c>
       <c r="G2">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H2">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1501,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1509,37 +1525,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18.2</v>
+        <v>20.2</v>
       </c>
       <c r="C3">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="D3">
-        <v>18.2</v>
+        <v>17.4</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="F3">
-        <v>9.9</v>
+        <v>11.6</v>
       </c>
       <c r="G3">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H3">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>91.3</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1547,37 +1563,37 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="C4">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="D4">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="E4">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F4">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="G4">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="H4">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J4">
+        <v>0.4</v>
+      </c>
+      <c r="K4">
         <v>0.2</v>
       </c>
-      <c r="K4">
-        <v>0.1</v>
-      </c>
       <c r="L4">
-        <v>89</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1585,37 +1601,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="C5">
-        <v>15.6</v>
+        <v>12.2</v>
       </c>
       <c r="D5">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>18.9</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>16.4</v>
       </c>
       <c r="G5">
-        <v>13.2</v>
+        <v>11.4</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I5">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>87.09999999999999</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1626,34 +1642,34 @@
         <v>4.1</v>
       </c>
       <c r="C6">
-        <v>8.9</v>
+        <v>10.1</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="E6">
+        <v>14.4</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
         <v>16.8</v>
       </c>
-      <c r="F6">
-        <v>17.9</v>
-      </c>
-      <c r="G6">
-        <v>15.4</v>
-      </c>
       <c r="H6">
-        <v>12.5</v>
+        <v>13.9</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L6">
-        <v>76.09999999999999</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1661,37 +1677,37 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="C7">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="D7">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E7">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F7">
-        <v>14.8</v>
+        <v>15.9</v>
       </c>
       <c r="G7">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="H7">
-        <v>17.6</v>
+        <v>15.3</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="K7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L7">
-        <v>67.59999999999999</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1699,37 +1715,37 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="E8">
-        <v>10.2</v>
+        <v>9.1</v>
       </c>
       <c r="F8">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="G8">
-        <v>18.3</v>
+        <v>17.1</v>
       </c>
       <c r="H8">
-        <v>18.5</v>
+        <v>20.2</v>
       </c>
       <c r="I8">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
       <c r="J8">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
-        <v>49.9</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1737,37 +1753,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D9">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="E9">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="F9">
-        <v>11.6</v>
+        <v>10.1</v>
       </c>
       <c r="G9">
-        <v>13.2</v>
+        <v>14.9</v>
       </c>
       <c r="H9">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="I9">
-        <v>29.5</v>
+        <v>28.6</v>
       </c>
       <c r="J9">
-        <v>9.4</v>
+        <v>11.3</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>36.5</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1781,31 +1797,31 @@
         <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F10">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G10">
         <v>1.7</v>
       </c>
       <c r="H10">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="I10">
-        <v>10.5</v>
+        <v>14.1</v>
       </c>
       <c r="J10">
-        <v>50.2</v>
+        <v>45.2</v>
       </c>
       <c r="K10">
-        <v>30.6</v>
+        <v>31.5</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1825,25 +1841,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
         <v>0.3</v>
       </c>
       <c r="H11">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="I11">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="J11">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="K11">
-        <v>64.7</v>
+        <v>63.7</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1852,6 +1868,269 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="C2">
+        <v>99.3</v>
+      </c>
+      <c r="D2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E2">
+        <v>99.8</v>
+      </c>
+      <c r="F2">
+        <v>99</v>
+      </c>
+      <c r="G2">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="G3">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C4">
+        <v>38.2</v>
+      </c>
+      <c r="D4">
+        <v>70.3</v>
+      </c>
+      <c r="E4">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="F4">
+        <v>90.10000000000001</v>
+      </c>
+      <c r="G4">
+        <v>89.60000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="C5">
+        <v>99.5</v>
+      </c>
+      <c r="D5">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>84.8</v>
+      </c>
+      <c r="G5">
+        <v>85.59999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="D6">
+        <v>84.7</v>
+      </c>
+      <c r="E6">
+        <v>89.5</v>
+      </c>
+      <c r="F6">
+        <v>79</v>
+      </c>
+      <c r="G6">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>71.39999999999999</v>
+      </c>
+      <c r="C7">
+        <v>50.9</v>
+      </c>
+      <c r="D7">
+        <v>15.1</v>
+      </c>
+      <c r="E7">
+        <v>44.7</v>
+      </c>
+      <c r="F7">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="G7">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>24.5</v>
+      </c>
+      <c r="C8">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="D8">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="E8">
+        <v>61.1</v>
+      </c>
+      <c r="F8">
+        <v>45.1</v>
+      </c>
+      <c r="G8">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>24.5</v>
+      </c>
+      <c r="C9">
+        <v>47.9</v>
+      </c>
+      <c r="D9">
+        <v>34.8</v>
+      </c>
+      <c r="E9">
+        <v>20.6</v>
+      </c>
+      <c r="F9">
+        <v>41.4</v>
+      </c>
+      <c r="G9">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>35.4</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <v>9.5</v>
+      </c>
+      <c r="F10">
+        <v>3.6</v>
+      </c>
+      <c r="G10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>6.2</v>
+      </c>
+      <c r="C11">
+        <v>1.1</v>
+      </c>
+      <c r="D11">
+        <v>3.1</v>
+      </c>
+      <c r="E11">
+        <v>1.1</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1864,25 +2143,25 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1890,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -1902,13 +2181,13 @@
         <v>609.38</v>
       </c>
       <c r="F2">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1916,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -1928,13 +2207,13 @@
         <v>554.76</v>
       </c>
       <c r="F3">
-        <v>91.3</v>
+        <v>93.7</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1942,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>0.6</v>
@@ -1954,13 +2233,13 @@
         <v>584.24</v>
       </c>
       <c r="F4">
-        <v>89</v>
+        <v>89.3</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1968,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>0.8</v>
@@ -1980,13 +2259,13 @@
         <v>523.24</v>
       </c>
       <c r="F5">
-        <v>87.09999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1994,7 +2273,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>0.4</v>
@@ -2006,13 +2285,13 @@
         <v>581.8800000000001</v>
       </c>
       <c r="F6">
-        <v>76.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2020,7 +2299,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -2032,13 +2311,13 @@
         <v>527.02</v>
       </c>
       <c r="F7">
-        <v>67.60000000000001</v>
+        <v>70.7</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2046,7 +2325,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -2058,13 +2337,13 @@
         <v>532.34</v>
       </c>
       <c r="F8">
-        <v>49.9</v>
+        <v>48.5</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2072,7 +2351,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>0.4</v>
@@ -2084,13 +2363,13 @@
         <v>513.92</v>
       </c>
       <c r="F9">
-        <v>36.5</v>
+        <v>35.4</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2098,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>0.2</v>
@@ -2110,13 +2389,13 @@
         <v>451.08</v>
       </c>
       <c r="F10">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2124,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2136,13 +2415,13 @@
         <v>457.1600000000001</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2150,7 +2429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2163,16 +2442,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2183,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -2192,7 +2471,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2203,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -2212,7 +2491,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2223,7 +2502,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -2232,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2243,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>-4</v>
@@ -2252,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2263,7 +2542,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>-4</v>
@@ -2272,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2283,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>-4</v>
@@ -2292,7 +2571,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2303,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>-5</v>
@@ -2312,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2323,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>-6</v>
@@ -2332,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2343,7 +2622,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>-11</v>
@@ -2352,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2363,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>-11</v>
@@ -2372,7 +2651,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2380,7 +2659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -2390,22 +2669,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2428,7 +2707,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2451,7 +2730,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2474,7 +2753,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2497,7 +2776,7 @@
         <v>-4</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2520,7 +2799,7 @@
         <v>-4</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2543,7 +2822,7 @@
         <v>-4</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2566,7 +2845,7 @@
         <v>-5</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2589,7 +2868,7 @@
         <v>-6</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2612,7 +2891,7 @@
         <v>-11</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2635,7 +2914,7 @@
         <v>-11</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2653,25 +2932,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="101">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -54,19 +54,22 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -138,6 +141,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -159,54 +165,54 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>9.8-4.1-0.1</t>
-  </si>
-  <si>
-    <t>8.9-5.0-0.1</t>
-  </si>
-  <si>
-    <t>8.3-5.6-0.1</t>
-  </si>
-  <si>
-    <t>7.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.4-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.5-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.9-0.1</t>
-  </si>
-  <si>
-    <t>4.0-9.9-0.1</t>
-  </si>
-  <si>
-    <t>2.9-11.0-0.1</t>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>10.0-3.9-0.1</t>
+  </si>
+  <si>
+    <t>9.6-4.3-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.1-0.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2-0.1</t>
+  </si>
+  <si>
+    <t>7.4-6.5-0.1</t>
+  </si>
+  <si>
+    <t>6.7-7.2-0.1</t>
+  </si>
+  <si>
+    <t>5.8-8.2-0.1</t>
+  </si>
+  <si>
+    <t>5.6-8.3-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.7-0.1</t>
+  </si>
+  <si>
+    <t>3.8-10.1-0.1</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -216,12 +222,12 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -234,63 +240,54 @@
     <t>Jessica McNally</t>
   </si>
   <si>
+    <t>Rachel Hall</t>
+  </si>
+  <si>
     <t>Lauren  Ettlinger</t>
   </si>
   <si>
-    <t>Rachel Hall</t>
+    <t>Ava Patterson</t>
+  </si>
+  <si>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
+    <t>Julie Williston</t>
+  </si>
+  <si>
+    <t>Morgan Herber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie  Kush </t>
   </si>
   <si>
     <t>Casey Reid</t>
   </si>
   <si>
-    <t>Julie Williston</t>
-  </si>
-  <si>
-    <t>Ava Patterson</t>
-  </si>
-  <si>
-    <t>Morgan Herber</t>
-  </si>
-  <si>
-    <t>Haley Toadvine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katie  Kush </t>
-  </si>
-  <si>
     <t>Carly Foster</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -728,31 +728,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -763,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -775,10 +775,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -795,34 +795,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -830,34 +830,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -865,34 +865,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -935,34 +935,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
         <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -970,34 +970,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
       <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
         <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1005,34 +1005,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1040,34 +1040,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1085,13 +1085,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1102,10 +1102,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1113,13 +1113,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1127,13 +1127,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1141,13 +1141,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1155,13 +1155,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1172,10 +1172,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1183,13 +1183,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1211,13 +1211,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1228,10 +1228,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1249,16 +1249,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D2">
-        <v>-0.2000000000000002</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1283,16 +1283,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1303,13 +1303,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D4">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1317,16 +1317,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D5">
-        <v>-1.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1337,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>-0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D7">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1371,13 +1371,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D8">
-        <v>0.2000000000000002</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1394,7 +1394,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1405,13 +1405,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1422,13 +1422,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1446,40 +1446,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1487,28 +1487,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>49.3</v>
+        <v>52.2</v>
       </c>
       <c r="C2">
-        <v>24.3</v>
+        <v>26.8</v>
       </c>
       <c r="D2">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G2">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>98.40000000000001</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1525,75 +1525,75 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.2</v>
+        <v>33.4</v>
       </c>
       <c r="C3">
-        <v>21.3</v>
+        <v>35.2</v>
       </c>
       <c r="D3">
-        <v>17.4</v>
+        <v>15.6</v>
       </c>
       <c r="E3">
-        <v>13.4</v>
+        <v>8.9</v>
       </c>
       <c r="F3">
-        <v>11.6</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>9.800000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
         <v>0.3</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>93.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>12.6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>19.2</v>
+        <v>14.6</v>
       </c>
       <c r="D4">
-        <v>19.8</v>
+        <v>21.3</v>
       </c>
       <c r="E4">
-        <v>15.2</v>
+        <v>21.2</v>
       </c>
       <c r="F4">
-        <v>12.9</v>
+        <v>14.4</v>
       </c>
       <c r="G4">
-        <v>9.6</v>
+        <v>11.1</v>
       </c>
       <c r="H4">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I4">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>89.3</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1601,75 +1601,75 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>8.9</v>
+        <v>3.5</v>
       </c>
       <c r="C5">
-        <v>12.2</v>
+        <v>7.8</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="E5">
-        <v>18.9</v>
+        <v>17.9</v>
       </c>
       <c r="F5">
-        <v>16.4</v>
+        <v>19.8</v>
       </c>
       <c r="G5">
-        <v>11.4</v>
+        <v>15.9</v>
       </c>
       <c r="H5">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="I5">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="J5">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>84.8</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="C6">
         <v>10.1</v>
       </c>
       <c r="D6">
-        <v>13.4</v>
+        <v>18.4</v>
       </c>
       <c r="E6">
-        <v>14.4</v>
+        <v>17.6</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>17.6</v>
       </c>
       <c r="G6">
-        <v>16.8</v>
+        <v>13.1</v>
       </c>
       <c r="H6">
-        <v>13.9</v>
+        <v>10.5</v>
       </c>
       <c r="I6">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="J6">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="K6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L6">
-        <v>75.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1677,37 +1677,37 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="C7">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="D7">
-        <v>11.8</v>
+        <v>8.4</v>
       </c>
       <c r="E7">
-        <v>15.4</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="G7">
-        <v>16.6</v>
+        <v>18.8</v>
       </c>
       <c r="H7">
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>2.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K7">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="L7">
-        <v>70.7</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1715,37 +1715,37 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D8">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="E8">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F8">
-        <v>11.9</v>
+        <v>9.4</v>
       </c>
       <c r="G8">
-        <v>17.1</v>
+        <v>14.7</v>
       </c>
       <c r="H8">
-        <v>20.2</v>
+        <v>18.7</v>
       </c>
       <c r="I8">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>16.6</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>48.5</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1753,37 +1753,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="E9">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="F9">
-        <v>10.1</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>14.9</v>
+        <v>13.3</v>
       </c>
       <c r="H9">
-        <v>22.6</v>
+        <v>19.5</v>
       </c>
       <c r="I9">
-        <v>28.6</v>
+        <v>21.2</v>
       </c>
       <c r="J9">
-        <v>11.3</v>
+        <v>19.2</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>11.2</v>
       </c>
       <c r="L9">
-        <v>35.4</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1791,37 +1791,37 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="F10">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="G10">
-        <v>1.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10">
-        <v>6.2</v>
+        <v>14.5</v>
       </c>
       <c r="I10">
-        <v>14.1</v>
+        <v>21.4</v>
       </c>
       <c r="J10">
-        <v>45.2</v>
+        <v>24.9</v>
       </c>
       <c r="K10">
-        <v>31.5</v>
+        <v>18.7</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1835,31 +1835,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G11">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H11">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="I11">
-        <v>6.2</v>
+        <v>10.7</v>
       </c>
       <c r="J11">
-        <v>28.6</v>
+        <v>23.3</v>
       </c>
       <c r="K11">
-        <v>63.7</v>
+        <v>58.7</v>
       </c>
       <c r="L11">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -1869,260 +1869,293 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>76.59999999999999</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="C2">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E2">
+        <v>99.7</v>
+      </c>
+      <c r="F2">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="H2">
         <v>99.3</v>
       </c>
-      <c r="D2">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E2">
-        <v>99.8</v>
-      </c>
-      <c r="F2">
-        <v>99</v>
-      </c>
-      <c r="G2">
-        <v>98.40000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="E3">
-        <v>88.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="F3">
-        <v>91.10000000000001</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>98.2</v>
+      </c>
+      <c r="H3">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>70.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>38.2</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>70.3</v>
+        <v>84.2</v>
       </c>
       <c r="E4">
-        <v>86.09999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="F4">
-        <v>90.10000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="G4">
-        <v>89.60000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="H4">
+        <v>88.90000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>92.80000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="C5">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="D5">
         <v>99.59999999999999</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="F5">
         <v>84.8</v>
       </c>
       <c r="G5">
-        <v>85.59999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>77.7</v>
+      </c>
+      <c r="H5">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>74.3</v>
       </c>
       <c r="C6">
-        <v>83.09999999999999</v>
+        <v>37.4</v>
       </c>
       <c r="D6">
-        <v>84.7</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E6">
-        <v>89.5</v>
+        <v>85.3</v>
       </c>
       <c r="F6">
-        <v>79</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G6">
-        <v>75.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>79.60000000000001</v>
+      </c>
+      <c r="H6">
+        <v>77.60000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>71.39999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="C7">
-        <v>50.9</v>
+        <v>53.2</v>
       </c>
       <c r="D7">
-        <v>15.1</v>
+        <v>16.7</v>
       </c>
       <c r="E7">
-        <v>44.7</v>
+        <v>43.4</v>
       </c>
       <c r="F7">
-        <v>65.60000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="G7">
-        <v>67.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>57.8</v>
+      </c>
+      <c r="H7">
+        <v>59.59999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="C8">
-        <v>91.10000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="D8">
-        <v>94.09999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="E8">
-        <v>61.1</v>
+        <v>61.9</v>
       </c>
       <c r="F8">
-        <v>45.1</v>
+        <v>50.1</v>
       </c>
       <c r="G8">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>42.4</v>
+      </c>
+      <c r="H8">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.5</v>
+        <v>21.2</v>
       </c>
       <c r="C9">
-        <v>47.9</v>
+        <v>48.7</v>
       </c>
       <c r="D9">
-        <v>34.8</v>
+        <v>33.5</v>
       </c>
       <c r="E9">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="F9">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="G9">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>27.4</v>
+      </c>
+      <c r="H9">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>35.4</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>1.9</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>25.1</v>
+      </c>
+      <c r="H10">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="C11">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="D11">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="E11">
         <v>1.1</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>0.8999999999999999</v>
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -2140,28 +2173,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2169,25 +2202,25 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D2">
-        <v>121.876</v>
+        <v>119.5866666666667</v>
       </c>
       <c r="E2">
-        <v>609.38</v>
+        <v>717.52</v>
       </c>
       <c r="F2">
-        <v>98.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2195,51 +2228,51 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3">
-        <v>110.952</v>
+        <v>115.5</v>
       </c>
       <c r="E3">
-        <v>554.76</v>
+        <v>693</v>
       </c>
       <c r="F3">
-        <v>93.7</v>
+        <v>98.8</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>116.848</v>
+        <v>116.2133333333334</v>
       </c>
       <c r="E4">
-        <v>584.24</v>
+        <v>697.28</v>
       </c>
       <c r="F4">
-        <v>89.3</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2247,51 +2280,51 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>104.648</v>
+        <v>101.6466666666667</v>
       </c>
       <c r="E5">
-        <v>523.24</v>
+        <v>609.88</v>
       </c>
       <c r="F5">
-        <v>84.8</v>
+        <v>81.8</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>116.376</v>
+        <v>111.28</v>
       </c>
       <c r="E6">
-        <v>581.8800000000001</v>
+        <v>667.6800000000001</v>
       </c>
       <c r="F6">
-        <v>75.8</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2299,25 +2332,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>105.404</v>
+        <v>102.4833333333333</v>
       </c>
       <c r="E7">
-        <v>527.02</v>
+        <v>614.9</v>
       </c>
       <c r="F7">
-        <v>70.7</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2325,25 +2358,25 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>106.468</v>
+        <v>104.8833333333333</v>
       </c>
       <c r="E8">
-        <v>532.34</v>
+        <v>629.3</v>
       </c>
       <c r="F8">
-        <v>48.5</v>
+        <v>37.6</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2351,25 +2384,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>102.784</v>
+        <v>99.22333333333331</v>
       </c>
       <c r="E9">
-        <v>513.92</v>
+        <v>595.34</v>
       </c>
       <c r="F9">
-        <v>35.4</v>
+        <v>28.9</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2377,25 +2410,25 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>90.21599999999999</v>
+        <v>96.77</v>
       </c>
       <c r="E10">
-        <v>451.08</v>
+        <v>580.62</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>20.5</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2403,25 +2436,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D11">
-        <v>91.43200000000002</v>
+        <v>93.58</v>
       </c>
       <c r="E11">
-        <v>457.1600000000001</v>
+        <v>561.48</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2439,19 +2472,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2462,16 +2495,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2479,19 +2512,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2499,19 +2532,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2519,19 +2552,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2539,19 +2572,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>-4</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2559,19 +2592,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2582,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -2599,16 +2632,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2619,16 +2652,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -2642,16 +2675,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2661,33 +2694,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2706,126 +2742,144 @@
       <c r="F2">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>-5</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>-8</v>
-      </c>
       <c r="C5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D5">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="F5">
         <v>-4</v>
       </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-6</v>
-      </c>
-      <c r="F6">
-        <v>-4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
-      <c r="D7">
-        <v>-10</v>
-      </c>
-      <c r="E7">
-        <v>-12</v>
       </c>
       <c r="F7">
         <v>-4</v>
       </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>-5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2844,57 +2898,66 @@
       <c r="F8">
         <v>-5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>-6</v>
+      </c>
+      <c r="H8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="E9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9" t="s">
+        <v>-11</v>
+      </c>
+      <c r="G9">
+        <v>-7</v>
+      </c>
+      <c r="H9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D10">
         <v>-7</v>
       </c>
       <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10">
         <v>-4</v>
       </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2913,8 +2976,11 @@
       <c r="F11">
         <v>-11</v>
       </c>
-      <c r="G11" t="s">
-        <v>88</v>
+      <c r="G11">
+        <v>-10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2924,7 +2990,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2984,25 +3050,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>2</v>
-      </c>
-      <c r="E3">
-        <v>-12</v>
-      </c>
-      <c r="F3">
-        <v>-2</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3010,25 +3076,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>-12</v>
+      </c>
+      <c r="F4">
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4">
-        <v>-5</v>
-      </c>
-      <c r="F4">
-        <v>-4</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3036,24 +3102,102 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>-5</v>
+      </c>
+      <c r="F5">
+        <v>-10</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>-7</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>-4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>-6</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>-5</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H8" t="s">
         <v>2</v>
       </c>
     </row>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="104">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -54,22 +54,22 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -144,6 +144,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -165,52 +168,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>10.0-3.9-0.1</t>
-  </si>
-  <si>
-    <t>9.6-4.3-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.1-0.1</t>
-  </si>
-  <si>
-    <t>7.7-6.2-0.1</t>
-  </si>
-  <si>
-    <t>7.4-6.5-0.1</t>
-  </si>
-  <si>
-    <t>6.7-7.2-0.1</t>
-  </si>
-  <si>
-    <t>5.8-8.2-0.1</t>
-  </si>
-  <si>
-    <t>5.6-8.3-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.7-0.1</t>
-  </si>
-  <si>
-    <t>3.8-10.1-0.1</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>10.4-3.6-0.1</t>
+  </si>
+  <si>
+    <t>8.7-5.2-0.1</t>
+  </si>
+  <si>
+    <t>8.6-5.4-0.1</t>
+  </si>
+  <si>
+    <t>8.1-5.8-0.1</t>
+  </si>
+  <si>
+    <t>7.1-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.7-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.8-0.1</t>
+  </si>
+  <si>
+    <t>5.0-9.0-0.1</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
+  </si>
+  <si>
+    <t>4.7-9.2-0.1</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>8-6</t>
@@ -225,9 +231,6 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -237,13 +240,16 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Lauren  Ettlinger</t>
+  </si>
+  <si>
+    <t>Rachel Hall</t>
+  </si>
+  <si>
     <t>Jessica McNally</t>
   </si>
   <si>
-    <t>Rachel Hall</t>
-  </si>
-  <si>
-    <t>Lauren  Ettlinger</t>
+    <t>Morgan Herber</t>
   </si>
   <si>
     <t>Ava Patterson</t>
@@ -252,22 +258,31 @@
     <t>Haley Toadvine</t>
   </si>
   <si>
+    <t xml:space="preserve">Katie  Kush </t>
+  </si>
+  <si>
     <t>Julie Williston</t>
   </si>
   <si>
-    <t>Morgan Herber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katie  Kush </t>
+    <t>Carly Foster</t>
   </si>
   <si>
     <t>Casey Reid</t>
   </si>
   <si>
-    <t>Carly Foster</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑1</t>
@@ -276,16 +291,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -304,6 +310,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -734,7 +743,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -743,7 +752,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -752,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -795,16 +804,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -813,16 +822,16 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -830,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -839,25 +848,25 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -865,34 +874,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -906,28 +915,28 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -935,34 +944,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -970,34 +979,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1005,34 +1014,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1040,13 +1049,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1058,16 +1067,16 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1099,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1113,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1127,13 +1136,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1141,13 +1150,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1158,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1169,13 +1178,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1183,13 +1192,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1200,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1214,10 +1223,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1228,10 +1237,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1269,13 +1278,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1283,16 +1292,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D3">
-        <v>-1.1</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1303,13 +1312,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D4">
-        <v>0.8999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1317,16 +1326,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D5">
-        <v>0.6000000000000001</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1334,16 +1343,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1351,16 +1360,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D7">
-        <v>-1.2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1368,16 +1377,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1385,16 +1394,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D9">
-        <v>0.2000000000000002</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1402,16 +1411,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1422,13 +1431,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1487,28 +1496,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>52.2</v>
+        <v>69.2</v>
       </c>
       <c r="C2">
-        <v>26.8</v>
+        <v>17.4</v>
       </c>
       <c r="D2">
-        <v>12.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="F2">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0.1</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1517,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1525,227 +1534,227 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>33.4</v>
+        <v>11.5</v>
       </c>
       <c r="C3">
-        <v>35.2</v>
+        <v>27.9</v>
       </c>
       <c r="D3">
-        <v>15.6</v>
+        <v>24.1</v>
       </c>
       <c r="E3">
-        <v>8.9</v>
+        <v>13.9</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>12.2</v>
       </c>
       <c r="G3">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="J3">
         <v>0.3</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>98.8</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="C4">
-        <v>14.6</v>
+        <v>21.8</v>
       </c>
       <c r="D4">
-        <v>21.3</v>
+        <v>23.7</v>
       </c>
       <c r="E4">
-        <v>21.2</v>
+        <v>22.5</v>
       </c>
       <c r="F4">
-        <v>14.4</v>
+        <v>12.9</v>
       </c>
       <c r="G4">
-        <v>11.1</v>
+        <v>6.7</v>
       </c>
       <c r="H4">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="I4">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="J4">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
-        <v>89.59999999999999</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>3.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C5">
-        <v>7.8</v>
+        <v>23.2</v>
       </c>
       <c r="D5">
-        <v>16.9</v>
+        <v>21.7</v>
       </c>
       <c r="E5">
-        <v>17.9</v>
+        <v>19.7</v>
       </c>
       <c r="F5">
-        <v>19.8</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>15.9</v>
+        <v>6.4</v>
       </c>
       <c r="H5">
-        <v>9.1</v>
+        <v>3.6</v>
       </c>
       <c r="I5">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="J5">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>81.8</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="C6">
-        <v>10.1</v>
+        <v>7.1</v>
       </c>
       <c r="D6">
-        <v>18.4</v>
+        <v>12.9</v>
       </c>
       <c r="E6">
-        <v>17.6</v>
+        <v>19.5</v>
       </c>
       <c r="F6">
-        <v>17.6</v>
+        <v>24.9</v>
       </c>
       <c r="G6">
-        <v>13.1</v>
+        <v>15.2</v>
       </c>
       <c r="H6">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="I6">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="J6">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="L6">
-        <v>80</v>
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="D7">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="F7">
-        <v>16.5</v>
+        <v>15.1</v>
       </c>
       <c r="G7">
-        <v>18.8</v>
+        <v>21.7</v>
       </c>
       <c r="H7">
-        <v>16.8</v>
+        <v>17.9</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>15.1</v>
       </c>
       <c r="J7">
-        <v>8.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="K7">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="L7">
-        <v>60.1</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.7</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>0.3</v>
-      </c>
-      <c r="C8">
-        <v>1.5</v>
-      </c>
-      <c r="D8">
-        <v>3.4</v>
-      </c>
       <c r="E8">
-        <v>8.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="F8">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="G8">
-        <v>14.7</v>
+        <v>19.2</v>
       </c>
       <c r="H8">
-        <v>18.7</v>
+        <v>22.7</v>
       </c>
       <c r="I8">
-        <v>20.1</v>
+        <v>16.2</v>
       </c>
       <c r="J8">
-        <v>16.6</v>
+        <v>12.6</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L8">
-        <v>37.6</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1756,34 +1765,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="G9">
-        <v>13.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9">
-        <v>19.5</v>
+        <v>13.8</v>
       </c>
       <c r="I9">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="J9">
-        <v>19.2</v>
+        <v>21.9</v>
       </c>
       <c r="K9">
-        <v>11.2</v>
+        <v>27.4</v>
       </c>
       <c r="L9">
-        <v>28.9</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1791,37 +1800,37 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
+        <v>1.2</v>
+      </c>
+      <c r="F10">
         <v>3.2</v>
       </c>
-      <c r="F10">
-        <v>6.6</v>
-      </c>
       <c r="G10">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="H10">
-        <v>14.5</v>
+        <v>12.8</v>
       </c>
       <c r="I10">
-        <v>21.4</v>
+        <v>18.5</v>
       </c>
       <c r="J10">
-        <v>24.9</v>
+        <v>26.6</v>
       </c>
       <c r="K10">
-        <v>18.7</v>
+        <v>29.4</v>
       </c>
       <c r="L10">
-        <v>20.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1832,34 +1841,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="G11">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>4.4</v>
+        <v>13.7</v>
       </c>
       <c r="I11">
-        <v>10.7</v>
+        <v>19</v>
       </c>
       <c r="J11">
-        <v>23.3</v>
+        <v>26.8</v>
       </c>
       <c r="K11">
-        <v>58.7</v>
+        <v>30</v>
       </c>
       <c r="L11">
-        <v>2.9</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -1869,13 +1878,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1897,265 +1906,298 @@
       <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>77.60000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="C2">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D2">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E2">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G2">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H2">
-        <v>99.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>97.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C3">
-        <v>86.90000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="D3">
-        <v>98.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E3">
-        <v>89.40000000000001</v>
+        <v>87</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>91.2</v>
       </c>
       <c r="G3">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="H3">
-        <v>98.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="I3">
+        <v>96.09999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>99.5</v>
+      </c>
+      <c r="E4">
+        <v>98.7</v>
+      </c>
+      <c r="F4">
+        <v>84.2</v>
+      </c>
+      <c r="G4">
+        <v>77.2</v>
+      </c>
+      <c r="H4">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="I4">
+        <v>95.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>39.5</v>
+      </c>
+      <c r="D5">
+        <v>72.39999999999999</v>
+      </c>
+      <c r="E5">
+        <v>86.5</v>
+      </c>
+      <c r="F5">
+        <v>89.2</v>
+      </c>
+      <c r="G5">
+        <v>78.7</v>
+      </c>
+      <c r="H5">
+        <v>94.8</v>
+      </c>
+      <c r="I5">
+        <v>93.60000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>82</v>
       </c>
-      <c r="D4">
-        <v>84.2</v>
-      </c>
-      <c r="E4">
-        <v>89.8</v>
-      </c>
-      <c r="F4">
-        <v>75.7</v>
-      </c>
-      <c r="G4">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="H4">
-        <v>88.90000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>91.7</v>
-      </c>
-      <c r="C5">
-        <v>99.7</v>
-      </c>
-      <c r="D5">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E5">
-        <v>98.8</v>
-      </c>
-      <c r="F5">
-        <v>84.8</v>
-      </c>
-      <c r="G5">
-        <v>77.7</v>
-      </c>
-      <c r="H5">
-        <v>81.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>74.3</v>
-      </c>
-      <c r="C6">
-        <v>37.4</v>
-      </c>
       <c r="D6">
-        <v>70.09999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="E6">
-        <v>85.3</v>
+        <v>88.7</v>
       </c>
       <c r="F6">
+        <v>77.5</v>
+      </c>
+      <c r="G6">
         <v>88.40000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>80.2</v>
+      </c>
+      <c r="I6">
         <v>79.60000000000001</v>
       </c>
-      <c r="H6">
-        <v>77.60000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>22.3</v>
+      </c>
+      <c r="C7">
+        <v>90.8</v>
+      </c>
+      <c r="D7">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="E7">
+        <v>63.4</v>
+      </c>
+      <c r="F7">
+        <v>45.9</v>
+      </c>
+      <c r="G7">
+        <v>46.5</v>
+      </c>
+      <c r="H7">
+        <v>56.59999999999999</v>
+      </c>
+      <c r="I7">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>71.3</v>
-      </c>
-      <c r="C7">
-        <v>53.2</v>
-      </c>
-      <c r="D7">
-        <v>16.7</v>
-      </c>
-      <c r="E7">
-        <v>43.4</v>
-      </c>
-      <c r="F7">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="G7">
-        <v>57.8</v>
-      </c>
-      <c r="H7">
-        <v>59.59999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B8">
-        <v>23.5</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>90.3</v>
+        <v>51.6</v>
       </c>
       <c r="D8">
-        <v>94.39999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="E8">
-        <v>61.9</v>
+        <v>47.5</v>
       </c>
       <c r="F8">
-        <v>50.1</v>
+        <v>66</v>
       </c>
       <c r="G8">
-        <v>42.4</v>
+        <v>58.09999999999999</v>
       </c>
       <c r="H8">
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>34.5</v>
+      </c>
+      <c r="I8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="C9">
-        <v>48.7</v>
+        <v>47.4</v>
       </c>
       <c r="D9">
-        <v>33.5</v>
+        <v>35.3</v>
       </c>
       <c r="E9">
-        <v>20.5</v>
+        <v>16.5</v>
       </c>
       <c r="F9">
-        <v>41.6</v>
+        <v>43.3</v>
       </c>
       <c r="G9">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="H9">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>17.4</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>37.6</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D10">
         <v>0.5</v>
       </c>
       <c r="E10">
-        <v>10.1</v>
+        <v>11.1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G10">
-        <v>25.1</v>
+        <v>21.5</v>
       </c>
       <c r="H10">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14.7</v>
+      </c>
+      <c r="I10">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="C11">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="D11">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="E11">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>2.2</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I11">
+        <v>10.1</v>
       </c>
     </row>
   </sheetData>
@@ -2176,25 +2218,25 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2202,25 +2244,25 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2">
-        <v>119.5866666666667</v>
+        <v>122.0428571428571</v>
       </c>
       <c r="E2">
-        <v>717.52</v>
+        <v>854.3</v>
       </c>
       <c r="F2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2228,155 +2270,155 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
-        <v>115.5</v>
+        <v>112.0057142857143</v>
       </c>
       <c r="E3">
-        <v>693</v>
+        <v>784.04</v>
       </c>
       <c r="F3">
-        <v>98.8</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>116.2133333333334</v>
+        <v>107.7485714285714</v>
       </c>
       <c r="E4">
-        <v>697.28</v>
+        <v>754.24</v>
       </c>
       <c r="F4">
-        <v>89.60000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5">
-        <v>101.6466666666667</v>
+        <v>118.9371428571429</v>
       </c>
       <c r="E5">
-        <v>609.88</v>
+        <v>832.5600000000001</v>
       </c>
       <c r="F5">
-        <v>81.8</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D6">
-        <v>111.28</v>
+        <v>113.42</v>
       </c>
       <c r="E6">
-        <v>667.6800000000001</v>
+        <v>793.9400000000001</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D7">
-        <v>102.4833333333333</v>
+        <v>104.6285714285714</v>
       </c>
       <c r="E7">
-        <v>614.9</v>
+        <v>732.4000000000001</v>
       </c>
       <c r="F7">
-        <v>60.09999999999999</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8">
-        <v>104.8833333333333</v>
+        <v>99.06285714285714</v>
       </c>
       <c r="E8">
-        <v>629.3</v>
+        <v>693.4399999999999</v>
       </c>
       <c r="F8">
-        <v>37.6</v>
+        <v>41.6</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2384,25 +2426,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D9">
-        <v>99.22333333333331</v>
+        <v>97.18285714285715</v>
       </c>
       <c r="E9">
-        <v>595.34</v>
+        <v>680.28</v>
       </c>
       <c r="F9">
-        <v>28.9</v>
+        <v>15.4</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2410,25 +2452,25 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D10">
-        <v>96.77</v>
+        <v>96.70857142857143</v>
       </c>
       <c r="E10">
-        <v>580.62</v>
+        <v>676.96</v>
       </c>
       <c r="F10">
-        <v>20.5</v>
+        <v>12.7</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2436,25 +2478,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>93.58</v>
+        <v>96.37428571428572</v>
       </c>
       <c r="E11">
-        <v>561.48</v>
+        <v>674.62</v>
       </c>
       <c r="F11">
-        <v>2.9</v>
+        <v>10.5</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2475,16 +2517,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2492,19 +2534,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2515,16 +2557,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2532,19 +2574,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2552,19 +2594,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>-2</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2572,19 +2614,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2592,19 +2634,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2612,19 +2654,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2632,16 +2674,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2652,19 +2694,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2672,19 +2714,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2736,336 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-5</v>
+      </c>
+      <c r="G5">
+        <v>-6</v>
+      </c>
+      <c r="H5">
+        <v>-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <v>-10</v>
+      </c>
+      <c r="E6">
+        <v>-12</v>
+      </c>
+      <c r="F6">
+        <v>-4</v>
+      </c>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+      <c r="H6">
+        <v>-6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>-2</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-6</v>
+      </c>
+      <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-11</v>
+      </c>
+      <c r="G8">
+        <v>-7</v>
+      </c>
+      <c r="H8">
+        <v>-6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-6</v>
+      </c>
+      <c r="F9">
+        <v>-4</v>
+      </c>
+      <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9">
+        <v>-7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-7</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
+        <v>-10</v>
+      </c>
+      <c r="H10">
+        <v>-10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <v>-7</v>
+      </c>
+      <c r="E11">
+        <v>-5</v>
+      </c>
+      <c r="F11">
+        <v>-4</v>
+      </c>
+      <c r="G11">
+        <v>-8</v>
+      </c>
+      <c r="H11">
+        <v>-13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2702,321 +3073,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>-5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>-5</v>
-      </c>
-      <c r="C5">
-        <v>-4</v>
-      </c>
-      <c r="D5">
-        <v>-10</v>
-      </c>
-      <c r="E5">
-        <v>-12</v>
-      </c>
-      <c r="F5">
-        <v>-4</v>
-      </c>
-      <c r="G5">
-        <v>-2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>-2</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
-        <v>-4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-      <c r="F7">
-        <v>-4</v>
-      </c>
-      <c r="G7">
-        <v>-5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>-6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>-6</v>
-      </c>
-      <c r="D9">
-        <v>-7</v>
-      </c>
-      <c r="E9">
-        <v>-4</v>
-      </c>
-      <c r="F9">
-        <v>-11</v>
-      </c>
-      <c r="G9">
-        <v>-7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>-8</v>
-      </c>
-      <c r="C10">
-        <v>-5</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-4</v>
-      </c>
-      <c r="G10">
-        <v>-8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>-7</v>
-      </c>
-      <c r="C11">
-        <v>-7</v>
-      </c>
-      <c r="D11">
-        <v>-10</v>
-      </c>
-      <c r="E11">
-        <v>-10</v>
-      </c>
-      <c r="F11">
-        <v>-11</v>
-      </c>
-      <c r="G11">
-        <v>-10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3105,22 +3180,22 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F5">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3131,22 +3206,22 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F6">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3154,51 +3229,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
       <c r="E7">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F7">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>-6</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="104">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -162,6 +162,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -183,43 +186,40 @@
     <t>2-5</t>
   </si>
   <si>
-    <t>10.4-3.6-0.1</t>
-  </si>
-  <si>
-    <t>8.7-5.2-0.1</t>
-  </si>
-  <si>
-    <t>8.6-5.4-0.1</t>
-  </si>
-  <si>
-    <t>8.1-5.8-0.1</t>
-  </si>
-  <si>
-    <t>7.1-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.7-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.8-0.1</t>
-  </si>
-  <si>
-    <t>5.0-9.0-0.1</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
-  </si>
-  <si>
-    <t>4.7-9.2-0.1</t>
+    <t>10.4-3.5-0.1</t>
+  </si>
+  <si>
+    <t>8.8-5.1-0.1</t>
+  </si>
+  <si>
+    <t>8.5-5.5-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.8</t>
+  </si>
+  <si>
+    <t>7.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>4.8-9.1</t>
+  </si>
+  <si>
+    <t>4.8-9.1-0.1</t>
   </si>
   <si>
     <t>11-3</t>
   </si>
   <si>
     <t>9-5</t>
-  </si>
-  <si>
-    <t>8-6</t>
   </si>
   <si>
     <t>7-7</t>
@@ -1496,25 +1496,25 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>69.2</v>
+        <v>69.8</v>
       </c>
       <c r="C2">
-        <v>17.4</v>
+        <v>18.6</v>
       </c>
       <c r="D2">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="E2">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1534,37 +1534,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.5</v>
+        <v>12.9</v>
       </c>
       <c r="C3">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="D3">
-        <v>24.1</v>
+        <v>22.9</v>
       </c>
       <c r="E3">
-        <v>13.9</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>12.2</v>
+        <v>10.7</v>
       </c>
       <c r="G3">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="H3">
         <v>2.2</v>
       </c>
       <c r="I3">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>96.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1572,37 +1572,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="C4">
-        <v>21.8</v>
+        <v>20.5</v>
       </c>
       <c r="D4">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="E4">
-        <v>22.5</v>
+        <v>21.4</v>
       </c>
       <c r="F4">
-        <v>12.9</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>95.7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1610,37 +1610,37 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C5">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="D5">
-        <v>21.7</v>
+        <v>24.3</v>
       </c>
       <c r="E5">
-        <v>19.7</v>
+        <v>16.9</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="G5">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H5">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>93.3</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1648,37 +1648,37 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C6">
         <v>7.1</v>
       </c>
       <c r="D6">
-        <v>12.9</v>
+        <v>12.1</v>
       </c>
       <c r="E6">
-        <v>19.5</v>
+        <v>17.9</v>
       </c>
       <c r="F6">
-        <v>24.9</v>
+        <v>26.2</v>
       </c>
       <c r="G6">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="H6">
-        <v>10.9</v>
+        <v>10.5</v>
       </c>
       <c r="I6">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="J6">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="K6">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>81.09999999999999</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1686,37 +1686,37 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="E7">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
       <c r="F7">
-        <v>15.1</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>21.7</v>
       </c>
       <c r="H7">
-        <v>17.9</v>
+        <v>18.3</v>
       </c>
       <c r="I7">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="J7">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="K7">
         <v>4.5</v>
       </c>
       <c r="L7">
-        <v>53.4</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1724,37 +1724,37 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="E8">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>19.2</v>
+        <v>19.9</v>
       </c>
       <c r="H8">
-        <v>22.7</v>
+        <v>19</v>
       </c>
       <c r="I8">
-        <v>16.2</v>
+        <v>17.2</v>
       </c>
       <c r="J8">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="K8">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="L8">
-        <v>41.6</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1765,34 +1765,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="G9">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="H9">
-        <v>13.8</v>
+        <v>17.8</v>
       </c>
       <c r="I9">
-        <v>21.5</v>
+        <v>20.6</v>
       </c>
       <c r="J9">
-        <v>21.9</v>
+        <v>20.1</v>
       </c>
       <c r="K9">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="L9">
-        <v>15.4</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1803,34 +1803,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="F10">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="G10">
         <v>7.7</v>
       </c>
       <c r="H10">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="I10">
-        <v>18.5</v>
+        <v>17.6</v>
       </c>
       <c r="J10">
-        <v>26.6</v>
+        <v>22.5</v>
       </c>
       <c r="K10">
-        <v>29.4</v>
+        <v>32.7</v>
       </c>
       <c r="L10">
-        <v>12.7</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1841,34 +1841,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0.3</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="I11">
-        <v>19</v>
+        <v>20.6</v>
       </c>
       <c r="J11">
-        <v>26.8</v>
+        <v>28.5</v>
       </c>
       <c r="K11">
-        <v>30</v>
+        <v>26.4</v>
       </c>
       <c r="L11">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
     </row>
   </sheetData>
@@ -1915,28 +1915,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>77.8</v>
+        <v>78.2</v>
       </c>
       <c r="C2">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D2">
         <v>99.8</v>
       </c>
       <c r="E2">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="F2">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="G2">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1944,28 +1944,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C3">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="D3">
         <v>98.09999999999999</v>
       </c>
       <c r="E3">
-        <v>87</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F3">
-        <v>91.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G3">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H3">
-        <v>97.39999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="I3">
-        <v>96.09999999999999</v>
+        <v>96.89999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1973,28 +1973,28 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>92.30000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="D4">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E4">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F4">
-        <v>84.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G4">
-        <v>77.2</v>
+        <v>79.2</v>
       </c>
       <c r="H4">
-        <v>95.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="I4">
-        <v>95.59999999999999</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2002,28 +2002,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>39.5</v>
+        <v>38.1</v>
       </c>
       <c r="D5">
-        <v>72.39999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E5">
-        <v>86.5</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="F5">
-        <v>89.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G5">
-        <v>78.7</v>
+        <v>79.2</v>
       </c>
       <c r="H5">
-        <v>94.8</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="I5">
-        <v>93.60000000000001</v>
+        <v>94.39999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2034,25 +2034,25 @@
         <v>100</v>
       </c>
       <c r="C6">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="D6">
         <v>82</v>
       </c>
-      <c r="D6">
-        <v>83.09999999999999</v>
-      </c>
       <c r="E6">
-        <v>88.7</v>
+        <v>90.5</v>
       </c>
       <c r="F6">
-        <v>77.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G6">
-        <v>88.40000000000001</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="H6">
-        <v>80.2</v>
+        <v>83.5</v>
       </c>
       <c r="I6">
-        <v>79.60000000000001</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2060,28 +2060,28 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>22.3</v>
+        <v>20.6</v>
       </c>
       <c r="C7">
-        <v>90.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D7">
-        <v>93.60000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="E7">
-        <v>63.4</v>
+        <v>61.4</v>
       </c>
       <c r="F7">
-        <v>45.9</v>
+        <v>48.5</v>
       </c>
       <c r="G7">
-        <v>46.5</v>
+        <v>40.6</v>
       </c>
       <c r="H7">
-        <v>56.59999999999999</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="I7">
-        <v>53.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2089,28 +2089,28 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>74.7</v>
       </c>
       <c r="C8">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="D8">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E8">
-        <v>47.5</v>
+        <v>44.5</v>
       </c>
       <c r="F8">
-        <v>66</v>
+        <v>67.5</v>
       </c>
       <c r="G8">
-        <v>58.09999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="H8">
-        <v>34.5</v>
+        <v>38</v>
       </c>
       <c r="I8">
-        <v>41</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2118,28 +2118,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="C9">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="D9">
-        <v>35.3</v>
+        <v>37.2</v>
       </c>
       <c r="E9">
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="F9">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="G9">
-        <v>27.3</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>17.4</v>
+        <v>12.7</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2147,28 +2147,28 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>37.6</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="C10">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>11.1</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="F10">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="G10">
-        <v>21.5</v>
+        <v>22.4</v>
       </c>
       <c r="H10">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="I10">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2176,28 +2176,28 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>7.8</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="C11">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D11">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="H11">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I11">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
     </row>
   </sheetData>
@@ -2207,13 +2207,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2238,13 +2238,16 @@
       <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>0.8571428571428571</v>
@@ -2256,21 +2259,24 @@
         <v>854.3</v>
       </c>
       <c r="F2">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -2282,21 +2288,24 @@
         <v>784.04</v>
       </c>
       <c r="F3">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
+        <v>96.59999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -2308,21 +2317,24 @@
         <v>754.24</v>
       </c>
       <c r="F4">
-        <v>95.7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
+        <v>95</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -2334,21 +2346,24 @@
         <v>832.5600000000001</v>
       </c>
       <c r="F5">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
+        <v>94.09999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
       </c>
       <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>0.4285714285714285</v>
@@ -2360,21 +2375,24 @@
         <v>793.9400000000001</v>
       </c>
       <c r="F6">
-        <v>81.10000000000001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
+        <v>80.2</v>
+      </c>
+      <c r="G6">
+        <v>0.8999999999999999</v>
       </c>
       <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
@@ -2386,21 +2404,24 @@
         <v>732.4000000000001</v>
       </c>
       <c r="F7">
-        <v>53.40000000000001</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
+        <v>51.8</v>
+      </c>
+      <c r="G7">
+        <v>4.5</v>
       </c>
       <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0.4285714285714285</v>
@@ -2412,21 +2433,24 @@
         <v>693.4399999999999</v>
       </c>
       <c r="F8">
-        <v>41.6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
+        <v>42.2</v>
+      </c>
+      <c r="G8">
+        <v>8.5</v>
       </c>
       <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>0.2857142857142857</v>
@@ -2438,21 +2462,24 @@
         <v>680.28</v>
       </c>
       <c r="F9">
-        <v>15.4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
+        <v>14.7</v>
+      </c>
+      <c r="G9">
+        <v>26.8</v>
       </c>
       <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>0.2857142857142857</v>
@@ -2464,21 +2491,24 @@
         <v>676.96</v>
       </c>
       <c r="F10">
-        <v>12.7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
+        <v>14.5</v>
+      </c>
+      <c r="G10">
+        <v>32.7</v>
       </c>
       <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -2490,12 +2520,15 @@
         <v>674.62</v>
       </c>
       <c r="F11">
-        <v>10.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
+        <v>10.9</v>
+      </c>
+      <c r="G11">
+        <v>26.4</v>
       </c>
       <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
         <v>68</v>
       </c>
     </row>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="110">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -54,22 +54,25 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -147,6 +150,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -171,64 +177,67 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>10.4-3.5-0.1</t>
-  </si>
-  <si>
-    <t>8.8-5.1-0.1</t>
-  </si>
-  <si>
-    <t>8.5-5.5-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.8</t>
-  </si>
-  <si>
-    <t>7.0-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>5.0-9.0</t>
-  </si>
-  <si>
-    <t>4.8-9.1</t>
-  </si>
-  <si>
-    <t>4.8-9.1-0.1</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>9.6-4.4-0.1</t>
+  </si>
+  <si>
+    <t>9.1-4.9-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.4</t>
+  </si>
+  <si>
+    <t>7.6-6.3</t>
+  </si>
+  <si>
+    <t>7.9-6.0-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.1</t>
+  </si>
+  <si>
+    <t>6.7-7.2-0.1</t>
+  </si>
+  <si>
+    <t>5.6-8.3-0.1</t>
+  </si>
+  <si>
+    <t>4.5-9.5-0.1</t>
+  </si>
+  <si>
+    <t>4.3-9.6</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>5-9</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -249,6 +258,15 @@
     <t>Jessica McNally</t>
   </si>
   <si>
+    <t xml:space="preserve">Katie  Kush </t>
+  </si>
+  <si>
+    <t>Julie Williston</t>
+  </si>
+  <si>
+    <t>Carly Foster</t>
+  </si>
+  <si>
     <t>Morgan Herber</t>
   </si>
   <si>
@@ -258,40 +276,37 @@
     <t>Haley Toadvine</t>
   </si>
   <si>
-    <t xml:space="preserve">Katie  Kush </t>
-  </si>
-  <si>
-    <t>Julie Williston</t>
-  </si>
-  <si>
-    <t>Carly Foster</t>
-  </si>
-  <si>
     <t>Casey Reid</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -313,6 +328,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -737,31 +755,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -769,34 +787,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -807,31 +825,31 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -839,34 +857,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -874,34 +892,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -915,25 +933,25 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -944,34 +962,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -979,34 +997,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1014,34 +1032,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1049,34 +1067,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
       <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1094,13 +1112,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1108,13 +1126,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1122,13 +1140,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1139,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1150,13 +1168,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1167,10 +1185,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1181,10 +1199,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1192,13 +1210,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1206,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1223,10 +1241,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1237,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1258,16 +1276,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1278,13 +1296,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="D2">
-        <v>-0.7000000000000002</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1292,16 +1310,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="D3">
-        <v>0.5999999999999996</v>
+        <v>1.3</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1309,16 +1327,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="D4">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1329,13 +1347,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D5">
-        <v>-0.9000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1343,16 +1361,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>3.7</v>
-      </c>
-      <c r="D6">
-        <v>-1.3</v>
-      </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1360,16 +1378,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D7">
-        <v>0.2000000000000002</v>
+        <v>-1.2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1380,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1397,13 +1415,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D9">
-        <v>0.2999999999999998</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1411,16 +1429,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D10">
-        <v>0.2999999999999998</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1428,16 +1446,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D11">
-        <v>0.2000000000000002</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1455,40 +1473,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1496,22 +1514,22 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>69.8</v>
+        <v>54.7</v>
       </c>
       <c r="C2">
-        <v>18.6</v>
+        <v>21.2</v>
       </c>
       <c r="D2">
-        <v>7.8</v>
+        <v>12.4</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1534,75 +1552,75 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.9</v>
+        <v>24.9</v>
       </c>
       <c r="C3">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D3">
-        <v>22.9</v>
+        <v>18.7</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>12.7</v>
       </c>
       <c r="F3">
-        <v>10.7</v>
+        <v>8.5</v>
       </c>
       <c r="G3">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H3">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="I3">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="C4">
-        <v>20.5</v>
+        <v>14.6</v>
       </c>
       <c r="D4">
-        <v>23.5</v>
+        <v>17.3</v>
       </c>
       <c r="E4">
-        <v>21.4</v>
+        <v>17.4</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>18.4</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="H4">
-        <v>2.9</v>
+        <v>7.4</v>
       </c>
       <c r="I4">
+        <v>3.7</v>
+      </c>
+      <c r="J4">
         <v>1.6</v>
       </c>
-      <c r="J4">
-        <v>0.5</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1610,75 +1628,75 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>23.6</v>
+        <v>15.2</v>
       </c>
       <c r="D5">
-        <v>24.3</v>
+        <v>18.9</v>
       </c>
       <c r="E5">
-        <v>16.9</v>
+        <v>18.7</v>
       </c>
       <c r="F5">
-        <v>12.6</v>
+        <v>14.7</v>
       </c>
       <c r="G5">
-        <v>7.5</v>
+        <v>11.9</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="J5">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>94.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="C6">
-        <v>7.1</v>
+        <v>13.2</v>
       </c>
       <c r="D6">
-        <v>12.1</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>17.9</v>
+        <v>18.6</v>
       </c>
       <c r="F6">
-        <v>26.2</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
       <c r="H6">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="J6">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>80.2</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1686,37 +1704,37 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
-        <v>4.1</v>
+        <v>9.6</v>
       </c>
       <c r="E7">
-        <v>11.3</v>
+        <v>12.7</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="G7">
-        <v>21.7</v>
+        <v>18.6</v>
       </c>
       <c r="H7">
-        <v>18.3</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="J7">
-        <v>10.5</v>
+        <v>4.4</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="L7">
-        <v>51.8</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1724,118 +1742,118 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="D8">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="G8">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>22.1</v>
       </c>
       <c r="I8">
-        <v>17.2</v>
+        <v>14.8</v>
       </c>
       <c r="J8">
-        <v>13.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K8">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
-        <v>42.2</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="F9">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="G9">
-        <v>8.9</v>
+        <v>12.7</v>
       </c>
       <c r="H9">
-        <v>17.8</v>
+        <v>18.5</v>
       </c>
       <c r="I9">
-        <v>20.6</v>
+        <v>27.5</v>
       </c>
       <c r="J9">
-        <v>20.1</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>26.8</v>
+        <v>12.2</v>
       </c>
       <c r="L9">
-        <v>14.7</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.1</v>
       </c>
-      <c r="D10">
-        <v>0.7</v>
-      </c>
       <c r="E10">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="G10">
-        <v>7.7</v>
+        <v>3.2</v>
       </c>
       <c r="H10">
-        <v>12.7</v>
+        <v>6.4</v>
       </c>
       <c r="I10">
-        <v>17.6</v>
+        <v>18.5</v>
       </c>
       <c r="J10">
-        <v>22.5</v>
+        <v>34.3</v>
       </c>
       <c r="K10">
-        <v>32.7</v>
+        <v>35.1</v>
       </c>
       <c r="L10">
-        <v>14.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1844,31 +1862,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
         <v>1.3</v>
       </c>
-      <c r="F11">
-        <v>3.3</v>
-      </c>
       <c r="G11">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H11">
-        <v>13.6</v>
+        <v>4.9</v>
       </c>
       <c r="I11">
-        <v>20.6</v>
+        <v>12.1</v>
       </c>
       <c r="J11">
-        <v>28.5</v>
+        <v>30.8</v>
       </c>
       <c r="K11">
-        <v>26.4</v>
+        <v>48.7</v>
       </c>
       <c r="L11">
-        <v>10.9</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -1878,326 +1896,359 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="C2">
+        <v>99.2</v>
+      </c>
+      <c r="D2">
+        <v>99.7</v>
+      </c>
+      <c r="E2">
+        <v>99.8</v>
+      </c>
+      <c r="F2">
         <v>98.90000000000001</v>
       </c>
-      <c r="D2">
-        <v>99.8</v>
-      </c>
-      <c r="E2">
+      <c r="G2">
         <v>99.7</v>
       </c>
-      <c r="F2">
-        <v>98.7</v>
-      </c>
-      <c r="G2">
-        <v>99.3</v>
-      </c>
       <c r="H2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="J2">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>97.59999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="C3">
-        <v>87.2</v>
+        <v>86.3</v>
       </c>
       <c r="D3">
-        <v>98.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="E3">
-        <v>88.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="F3">
-        <v>91.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="G3">
-        <v>98.09999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H3">
-        <v>97.8</v>
+        <v>97</v>
       </c>
       <c r="I3">
-        <v>96.89999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>95.5</v>
+      </c>
+      <c r="J3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>83.7</v>
+      </c>
+      <c r="D4">
+        <v>81.8</v>
+      </c>
+      <c r="E4">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="F4">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="G4">
+        <v>90.7</v>
+      </c>
+      <c r="H4">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="I4">
+        <v>87.8</v>
+      </c>
+      <c r="J4">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>99.7</v>
-      </c>
-      <c r="D4">
+      <c r="B5">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="C5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D5">
+        <v>99.5</v>
+      </c>
+      <c r="E5">
         <v>99.40000000000001</v>
       </c>
-      <c r="E4">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F4">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="G4">
-        <v>79.2</v>
-      </c>
-      <c r="H4">
-        <v>95.7</v>
-      </c>
-      <c r="I4">
-        <v>95.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="F5">
+        <v>85.5</v>
+      </c>
+      <c r="G5">
+        <v>78.2</v>
+      </c>
+      <c r="H5">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="I5">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="J5">
+        <v>87.40000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>72</v>
-      </c>
-      <c r="C5">
-        <v>38.1</v>
-      </c>
-      <c r="D5">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="E5">
-        <v>84.89999999999999</v>
-      </c>
-      <c r="F5">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="G5">
-        <v>79.2</v>
-      </c>
-      <c r="H5">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="I5">
-        <v>94.39999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B6">
-        <v>100</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C6">
-        <v>84.09999999999999</v>
+        <v>39.5</v>
       </c>
       <c r="D6">
-        <v>82</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E6">
-        <v>90.5</v>
+        <v>84.3</v>
       </c>
       <c r="F6">
-        <v>73.59999999999999</v>
+        <v>90</v>
       </c>
       <c r="G6">
-        <v>90.60000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="H6">
-        <v>83.5</v>
+        <v>95</v>
       </c>
       <c r="I6">
-        <v>81.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>86.8</v>
+      </c>
+      <c r="J6">
+        <v>85.09999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>20.6</v>
+        <v>22.5</v>
       </c>
       <c r="C7">
-        <v>90.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="D7">
-        <v>93.8</v>
+        <v>94.3</v>
       </c>
       <c r="E7">
-        <v>61.4</v>
+        <v>63.3</v>
       </c>
       <c r="F7">
-        <v>48.5</v>
+        <v>44</v>
       </c>
       <c r="G7">
-        <v>40.6</v>
+        <v>43.4</v>
       </c>
       <c r="H7">
-        <v>54.40000000000001</v>
+        <v>54.90000000000001</v>
       </c>
       <c r="I7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>57.8</v>
+      </c>
+      <c r="J7">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>74.7</v>
+        <v>72.5</v>
       </c>
       <c r="C8">
-        <v>50.9</v>
+        <v>51.3</v>
       </c>
       <c r="D8">
-        <v>15.5</v>
+        <v>19.1</v>
       </c>
       <c r="E8">
-        <v>44.5</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>67.5</v>
+        <v>65.8</v>
       </c>
       <c r="G8">
-        <v>62.5</v>
+        <v>61.8</v>
       </c>
       <c r="H8">
-        <v>38</v>
+        <v>36.4</v>
       </c>
       <c r="I8">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>51.6</v>
+      </c>
+      <c r="J8">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>35.8</v>
+      </c>
+      <c r="C9">
+        <v>2.3</v>
+      </c>
+      <c r="D9">
+        <v>0.6</v>
+      </c>
+      <c r="E9">
+        <v>10.3</v>
+      </c>
+      <c r="F9">
+        <v>2.9</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>13.3</v>
+      </c>
+      <c r="I9">
+        <v>26.8</v>
+      </c>
+      <c r="J9">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <v>1.9</v>
+      </c>
+      <c r="H10">
+        <v>11.1</v>
+      </c>
+      <c r="I10">
+        <v>3.4</v>
+      </c>
+      <c r="J10">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>23.8</v>
-      </c>
-      <c r="C9">
-        <v>47.2</v>
-      </c>
-      <c r="D9">
-        <v>37.2</v>
-      </c>
-      <c r="E9">
-        <v>20.5</v>
-      </c>
-      <c r="F9">
-        <v>43.1</v>
-      </c>
-      <c r="G9">
-        <v>24</v>
-      </c>
-      <c r="H9">
-        <v>12.7</v>
-      </c>
-      <c r="I9">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="C10">
-        <v>1.8</v>
-      </c>
-      <c r="D10">
-        <v>0.4</v>
-      </c>
-      <c r="E10">
-        <v>9.700000000000001</v>
-      </c>
-      <c r="F10">
-        <v>2.6</v>
-      </c>
-      <c r="G10">
-        <v>22.4</v>
-      </c>
-      <c r="H10">
-        <v>14.6</v>
-      </c>
-      <c r="I10">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B11">
-        <v>5.600000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>45.8</v>
       </c>
       <c r="D11">
-        <v>1.7</v>
+        <v>30.4</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>19.9</v>
       </c>
       <c r="F11">
-        <v>0.6</v>
+        <v>42.4</v>
       </c>
       <c r="G11">
-        <v>4.100000000000001</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>9.800000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="I11">
-        <v>9.9</v>
+        <v>3.5</v>
+      </c>
+      <c r="J11">
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -2215,31 +2266,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2247,16 +2298,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>122.0428571428571</v>
+        <v>120.035</v>
       </c>
       <c r="E2">
-        <v>854.3</v>
+        <v>960.28</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2265,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2276,57 +2327,57 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>112.0057142857143</v>
+        <v>110.6425</v>
       </c>
       <c r="E3">
-        <v>784.04</v>
+        <v>885.14</v>
       </c>
       <c r="F3">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>107.7485714285714</v>
+        <v>118.4075</v>
       </c>
       <c r="E4">
-        <v>754.24</v>
+        <v>947.26</v>
       </c>
       <c r="F4">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2334,57 +2385,57 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>118.9371428571429</v>
+        <v>118.83</v>
       </c>
       <c r="E5">
-        <v>832.5600000000001</v>
+        <v>950.6400000000001</v>
       </c>
       <c r="F5">
-        <v>94.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>0.4285714285714285</v>
+        <v>0.625</v>
       </c>
       <c r="D6">
-        <v>113.42</v>
+        <v>106.57</v>
       </c>
       <c r="E6">
-        <v>793.9400000000001</v>
+        <v>852.5599999999999</v>
       </c>
       <c r="F6">
-        <v>80.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G6">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2395,25 +2446,25 @@
         <v>52</v>
       </c>
       <c r="C7">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>104.6285714285714</v>
+        <v>106.36</v>
       </c>
       <c r="E7">
-        <v>732.4000000000001</v>
+        <v>850.8800000000001</v>
       </c>
       <c r="F7">
-        <v>51.8</v>
+        <v>58.7</v>
       </c>
       <c r="G7">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2424,112 +2475,112 @@
         <v>52</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>99.06285714285714</v>
+        <v>101.1625</v>
       </c>
       <c r="E8">
-        <v>693.4399999999999</v>
+        <v>809.3</v>
       </c>
       <c r="F8">
-        <v>42.2</v>
+        <v>52.3</v>
       </c>
       <c r="G8">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>97.18285714285715</v>
+        <v>101.9675</v>
       </c>
       <c r="E9">
-        <v>680.28</v>
+        <v>815.74</v>
       </c>
       <c r="F9">
-        <v>14.7</v>
+        <v>24.8</v>
       </c>
       <c r="G9">
-        <v>26.8</v>
+        <v>12.2</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>96.70857142857143</v>
+        <v>98.5975</v>
       </c>
       <c r="E10">
-        <v>676.96</v>
+        <v>788.78</v>
       </c>
       <c r="F10">
-        <v>14.5</v>
+        <v>5.7</v>
       </c>
       <c r="G10">
-        <v>32.7</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>96.37428571428572</v>
+        <v>93.55500000000001</v>
       </c>
       <c r="E11">
-        <v>674.62</v>
+        <v>748.4399999999999</v>
       </c>
       <c r="F11">
-        <v>10.9</v>
+        <v>3.5</v>
       </c>
       <c r="G11">
-        <v>26.4</v>
+        <v>48.7</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2547,19 +2598,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2570,16 +2621,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2590,16 +2641,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2610,16 +2661,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2627,19 +2678,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2647,19 +2698,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2667,19 +2718,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>-6</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2687,19 +2738,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2707,19 +2758,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2727,19 +2778,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2750,16 +2801,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-23</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2769,39 +2820,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2826,11 +2880,14 @@
       <c r="H2">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2855,11 +2912,14 @@
       <c r="H3">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2884,185 +2944,206 @@
       <c r="H4">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>-6</v>
+      </c>
+      <c r="D5">
+        <v>-7</v>
+      </c>
+      <c r="E5">
+        <v>-4</v>
+      </c>
+      <c r="F5">
+        <v>-11</v>
+      </c>
+      <c r="G5">
+        <v>-7</v>
+      </c>
+      <c r="H5">
+        <v>-6</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>-5</v>
-      </c>
-      <c r="G5">
+      <c r="E6">
         <v>-6</v>
-      </c>
-      <c r="H5">
-        <v>-2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-5</v>
-      </c>
-      <c r="C6">
-        <v>-4</v>
-      </c>
-      <c r="D6">
-        <v>-10</v>
-      </c>
-      <c r="E6">
-        <v>-12</v>
       </c>
       <c r="F6">
         <v>-4</v>
       </c>
       <c r="G6">
+        <v>-5</v>
+      </c>
+      <c r="H6">
+        <v>-7</v>
+      </c>
+      <c r="I6">
+        <v>-5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>-7</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>-10</v>
+      </c>
+      <c r="E7">
+        <v>-10</v>
+      </c>
+      <c r="F7">
+        <v>-11</v>
+      </c>
+      <c r="G7">
+        <v>-10</v>
+      </c>
+      <c r="H7">
+        <v>-10</v>
+      </c>
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
+        <v>-6</v>
+      </c>
+      <c r="H8">
         <v>-2</v>
       </c>
-      <c r="H6">
-        <v>-6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
+      <c r="I8">
+        <v>-7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>-2</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="H7">
-        <v>-6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
-        <v>-6</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>-11</v>
-      </c>
-      <c r="G8">
-        <v>-7</v>
-      </c>
-      <c r="H8">
-        <v>-6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
       <c r="D9">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="F9">
         <v>-4</v>
       </c>
       <c r="G9">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="H9">
-        <v>-7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-6</v>
+      </c>
+      <c r="I9">
+        <v>-8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="G10">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="H10">
-        <v>-10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-6</v>
+      </c>
+      <c r="I10">
+        <v>-13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3087,8 +3168,11 @@
       <c r="H11">
         <v>-13</v>
       </c>
-      <c r="I11" t="s">
-        <v>89</v>
+      <c r="I11">
+        <v>-23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +3182,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3106,25 +3190,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3132,25 +3216,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3158,25 +3242,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>-5</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3184,22 +3268,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
       <c r="E4">
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -3213,22 +3297,22 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F5">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3236,25 +3320,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="F6">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3262,24 +3346,50 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>-2</v>
+      </c>
+      <c r="F7">
+        <v>-7</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7">
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
         <v>-10</v>
       </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
         <v>3</v>
       </c>
     </row>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="114">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -54,25 +54,28 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -153,6 +156,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -177,49 +183,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>9.6-4.4-0.1</t>
-  </si>
-  <si>
-    <t>9.1-4.9-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.4</t>
-  </si>
-  <si>
-    <t>7.6-6.3</t>
-  </si>
-  <si>
-    <t>7.9-6.0-0.1</t>
-  </si>
-  <si>
-    <t>6.8-7.1</t>
-  </si>
-  <si>
-    <t>6.7-7.2-0.1</t>
-  </si>
-  <si>
-    <t>5.6-8.3-0.1</t>
-  </si>
-  <si>
-    <t>4.5-9.5-0.1</t>
-  </si>
-  <si>
-    <t>4.3-9.6</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>9.6-4.4</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
+    <t>8.5-5.4</t>
+  </si>
+  <si>
+    <t>6.9-7.0</t>
+  </si>
+  <si>
+    <t>6.3-7.6</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>3.8-10.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -231,10 +240,13 @@
     <t>8-6</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>7-7</t>
+    <t>5-9</t>
   </si>
   <si>
     <t>4-10</t>
@@ -249,12 +261,12 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Rachel Hall</t>
+  </si>
+  <si>
     <t>Lauren  Ettlinger</t>
   </si>
   <si>
-    <t>Rachel Hall</t>
-  </si>
-  <si>
     <t>Jessica McNally</t>
   </si>
   <si>
@@ -264,51 +276,48 @@
     <t>Julie Williston</t>
   </si>
   <si>
+    <t>Ava Patterson</t>
+  </si>
+  <si>
     <t>Carly Foster</t>
   </si>
   <si>
     <t>Morgan Herber</t>
   </si>
   <si>
-    <t>Ava Patterson</t>
-  </si>
-  <si>
     <t>Haley Toadvine</t>
   </si>
   <si>
     <t>Casey Reid</t>
   </si>
   <si>
-    <t>↑5</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -331,6 +340,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -761,22 +773,22 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -831,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -846,10 +858,10 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -863,16 +875,16 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -898,28 +910,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -927,34 +939,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -965,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -986,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1000,31 +1012,31 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1032,34 +1044,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1076,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -1088,13 +1100,13 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1112,13 +1124,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1129,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1140,10 +1152,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1157,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1168,13 +1180,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1182,13 +1194,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1196,13 +1208,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1210,13 +1222,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1224,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1241,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1255,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1276,16 +1288,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1293,16 +1305,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D2">
-        <v>-0.4000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1310,16 +1322,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D3">
-        <v>1.3</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1327,16 +1339,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="D4">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1347,10 +1359,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="D5">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1361,16 +1373,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1378,16 +1390,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D7">
-        <v>-1.2</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1395,16 +1407,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-0.3999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1412,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D9">
-        <v>0.2000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1429,16 +1441,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D10">
-        <v>0.6000000000000001</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1446,13 +1458,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D11">
-        <v>0.2999999999999998</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1473,69 +1485,69 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>54.7</v>
+        <v>44.6</v>
       </c>
       <c r="C2">
-        <v>21.2</v>
+        <v>25.1</v>
       </c>
       <c r="D2">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
       <c r="E2">
-        <v>6.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F2">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1544,159 +1556,159 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>24.9</v>
+        <v>29.7</v>
       </c>
       <c r="C3">
-        <v>27.1</v>
+        <v>26.3</v>
       </c>
       <c r="D3">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="E3">
-        <v>12.7</v>
+        <v>14.9</v>
       </c>
       <c r="F3">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="G3">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>96</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4">
+        <v>12.4</v>
+      </c>
+      <c r="C4">
+        <v>21.6</v>
+      </c>
+      <c r="D4">
+        <v>22.3</v>
+      </c>
+      <c r="E4">
+        <v>18.2</v>
+      </c>
+      <c r="F4">
+        <v>13.6</v>
+      </c>
+      <c r="G4">
         <v>6.8</v>
       </c>
-      <c r="C4">
-        <v>14.6</v>
-      </c>
-      <c r="D4">
-        <v>17.3</v>
-      </c>
-      <c r="E4">
-        <v>17.4</v>
-      </c>
-      <c r="F4">
-        <v>18.4</v>
-      </c>
-      <c r="G4">
-        <v>12.5</v>
-      </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="J4">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>10.7</v>
       </c>
       <c r="C5">
-        <v>15.2</v>
+        <v>17.4</v>
       </c>
       <c r="D5">
-        <v>18.9</v>
+        <v>23.3</v>
       </c>
       <c r="E5">
-        <v>18.7</v>
+        <v>21.1</v>
       </c>
       <c r="F5">
-        <v>14.7</v>
+        <v>13.9</v>
       </c>
       <c r="G5">
-        <v>11.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5">
-        <v>8.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="I5">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="J5">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>86.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="C6">
-        <v>13.2</v>
+        <v>6.4</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>11.4</v>
       </c>
       <c r="E6">
-        <v>18.6</v>
+        <v>16.5</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>21.9</v>
       </c>
       <c r="G6">
-        <v>14.5</v>
+        <v>18.1</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="I6">
-        <v>4.1</v>
+        <v>6.7</v>
       </c>
       <c r="J6">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L6">
-        <v>85.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1704,118 +1716,118 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>9.6</v>
+        <v>4.6</v>
       </c>
       <c r="E7">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="F7">
-        <v>12.4</v>
+        <v>14.2</v>
       </c>
       <c r="G7">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="I7">
-        <v>14.6</v>
+        <v>19.8</v>
       </c>
       <c r="J7">
-        <v>4.4</v>
+        <v>9.9</v>
       </c>
       <c r="K7">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>58.7</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="E8">
-        <v>8.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="F8">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="G8">
-        <v>19.4</v>
+        <v>17.1</v>
       </c>
       <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
         <v>22.1</v>
       </c>
-      <c r="I8">
-        <v>14.8</v>
-      </c>
       <c r="J8">
-        <v>8.699999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>52.3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="E9">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="F9">
-        <v>5.4</v>
+        <v>10.7</v>
       </c>
       <c r="G9">
-        <v>12.7</v>
+        <v>17.8</v>
       </c>
       <c r="H9">
-        <v>18.5</v>
+        <v>19.9</v>
       </c>
       <c r="I9">
-        <v>27.5</v>
+        <v>22.8</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="K9">
-        <v>12.2</v>
+        <v>4.5</v>
       </c>
       <c r="L9">
-        <v>24.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1824,36 +1836,36 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F10">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="G10">
-        <v>3.2</v>
+        <v>7.8</v>
       </c>
       <c r="H10">
-        <v>6.4</v>
+        <v>13.3</v>
       </c>
       <c r="I10">
-        <v>18.5</v>
+        <v>20.8</v>
       </c>
       <c r="J10">
-        <v>34.3</v>
+        <v>35.4</v>
       </c>
       <c r="K10">
-        <v>35.1</v>
+        <v>17.9</v>
       </c>
       <c r="L10">
-        <v>5.7</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1862,31 +1874,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0.4</v>
       </c>
-      <c r="F11">
-        <v>1.3</v>
-      </c>
       <c r="G11">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="I11">
-        <v>12.1</v>
+        <v>5.2</v>
       </c>
       <c r="J11">
-        <v>30.8</v>
+        <v>18.8</v>
       </c>
       <c r="K11">
-        <v>48.7</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -1896,359 +1908,392 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C2">
+        <v>87.5</v>
+      </c>
+      <c r="D2">
+        <v>98.5</v>
+      </c>
+      <c r="E2">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="F2">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="G2">
+        <v>98.3</v>
+      </c>
+      <c r="H2">
+        <v>98</v>
+      </c>
+      <c r="I2">
+        <v>96.8</v>
+      </c>
+      <c r="J2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="K2">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>78.3</v>
-      </c>
-      <c r="C2">
-        <v>99.2</v>
-      </c>
-      <c r="D2">
-        <v>99.7</v>
-      </c>
-      <c r="E2">
+      <c r="B3">
+        <v>78.2</v>
+      </c>
+      <c r="C3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F3">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G3">
         <v>99.8</v>
       </c>
-      <c r="F2">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G2">
-        <v>99.7</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="J2">
-        <v>99.40000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="C3">
-        <v>86.3</v>
-      </c>
-      <c r="D3">
-        <v>97.7</v>
-      </c>
-      <c r="E3">
-        <v>89.8</v>
-      </c>
-      <c r="F3">
-        <v>91.7</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
+        <v>99.8</v>
+      </c>
+      <c r="I3">
         <v>99.09999999999999</v>
       </c>
-      <c r="H3">
-        <v>97</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
+        <v>97.8</v>
+      </c>
+      <c r="K3">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="C4">
+        <v>35.7</v>
+      </c>
+      <c r="D4">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E4">
+        <v>85.7</v>
+      </c>
+      <c r="F4">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="G4">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="H4">
+        <v>94.5</v>
+      </c>
+      <c r="I4">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="J4">
+        <v>93.7</v>
+      </c>
+      <c r="K4">
         <v>95.5</v>
       </c>
-      <c r="J3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>83.7</v>
-      </c>
-      <c r="D4">
-        <v>81.8</v>
-      </c>
-      <c r="E4">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="F4">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="G4">
-        <v>90.7</v>
-      </c>
-      <c r="H4">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="I4">
-        <v>87.8</v>
-      </c>
-      <c r="J4">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>92.30000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C5">
         <v>99.90000000000001</v>
       </c>
       <c r="D5">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="E5">
         <v>99.40000000000001</v>
       </c>
       <c r="F5">
-        <v>85.5</v>
+        <v>86.3</v>
       </c>
       <c r="G5">
-        <v>78.2</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="H5">
-        <v>94.69999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I5">
-        <v>87.40000000000001</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="J5">
-        <v>87.40000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="K5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>73.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C6">
-        <v>39.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D6">
-        <v>73.90000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="E6">
-        <v>84.3</v>
+        <v>89.2</v>
       </c>
       <c r="F6">
-        <v>90</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G6">
-        <v>78.2</v>
+        <v>89.7</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="I6">
-        <v>86.8</v>
+        <v>86.2</v>
       </c>
       <c r="J6">
-        <v>85.09999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>76.2</v>
+      </c>
+      <c r="K6">
+        <v>77.40000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="C7">
-        <v>91.2</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>94.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E7">
-        <v>63.3</v>
+        <v>62.6</v>
       </c>
       <c r="F7">
-        <v>44</v>
+        <v>45.4</v>
       </c>
       <c r="G7">
-        <v>43.4</v>
+        <v>42.6</v>
       </c>
       <c r="H7">
-        <v>54.90000000000001</v>
+        <v>55.2</v>
       </c>
       <c r="I7">
-        <v>57.8</v>
+        <v>59.5</v>
       </c>
       <c r="J7">
-        <v>61.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>45.8</v>
+      </c>
+      <c r="K7">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>36.2</v>
+      </c>
+      <c r="C8">
+        <v>1.8</v>
+      </c>
+      <c r="D8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="E8">
+        <v>10.2</v>
+      </c>
+      <c r="F8">
+        <v>2.7</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>12.3</v>
+      </c>
+      <c r="I8">
+        <v>24.8</v>
+      </c>
+      <c r="J8">
+        <v>49.7</v>
+      </c>
+      <c r="K8">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>72.5</v>
-      </c>
-      <c r="C8">
-        <v>51.3</v>
-      </c>
-      <c r="D8">
-        <v>19.1</v>
-      </c>
-      <c r="E8">
-        <v>43</v>
-      </c>
-      <c r="F8">
-        <v>65.8</v>
-      </c>
-      <c r="G8">
-        <v>61.8</v>
-      </c>
-      <c r="H8">
-        <v>36.4</v>
-      </c>
-      <c r="I8">
-        <v>51.6</v>
-      </c>
-      <c r="J8">
-        <v>47.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B9">
-        <v>35.8</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="C9">
-        <v>2.3</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="D9">
+        <v>15.5</v>
+      </c>
+      <c r="E9">
+        <v>42.3</v>
+      </c>
+      <c r="F9">
+        <v>68.10000000000001</v>
+      </c>
+      <c r="G9">
+        <v>59.8</v>
+      </c>
+      <c r="H9">
+        <v>39.6</v>
+      </c>
+      <c r="I9">
+        <v>51.1</v>
+      </c>
+      <c r="J9">
+        <v>33.1</v>
+      </c>
+      <c r="K9">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>20.1</v>
+      </c>
+      <c r="C10">
+        <v>45.5</v>
+      </c>
+      <c r="D10">
+        <v>32.4</v>
+      </c>
+      <c r="E10">
+        <v>20.5</v>
+      </c>
+      <c r="F10">
+        <v>40.8</v>
+      </c>
+      <c r="G10">
+        <v>26.6</v>
+      </c>
+      <c r="H10">
+        <v>14.4</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>11.6</v>
+      </c>
+      <c r="K10">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>7.1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2.6</v>
+      </c>
+      <c r="E11">
         <v>0.6</v>
       </c>
-      <c r="E9">
-        <v>10.3</v>
-      </c>
-      <c r="F9">
-        <v>2.9</v>
-      </c>
-      <c r="G9">
-        <v>21</v>
-      </c>
-      <c r="H9">
-        <v>13.3</v>
-      </c>
-      <c r="I9">
-        <v>26.8</v>
-      </c>
-      <c r="J9">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="C10">
-        <v>0.8</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>0.8</v>
-      </c>
-      <c r="F10">
-        <v>0.4</v>
-      </c>
-      <c r="G10">
-        <v>1.9</v>
-      </c>
-      <c r="H10">
-        <v>11.1</v>
-      </c>
-      <c r="I10">
-        <v>3.4</v>
-      </c>
-      <c r="J10">
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>3.2</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>21.2</v>
-      </c>
-      <c r="C11">
-        <v>45.8</v>
-      </c>
-      <c r="D11">
-        <v>30.4</v>
-      </c>
-      <c r="E11">
-        <v>19.9</v>
-      </c>
-      <c r="F11">
-        <v>42.4</v>
-      </c>
-      <c r="G11">
-        <v>26</v>
-      </c>
-      <c r="H11">
-        <v>17.7</v>
-      </c>
-      <c r="I11">
-        <v>3.5</v>
-      </c>
       <c r="J11">
-        <v>2.7</v>
+        <v>1.3</v>
+      </c>
+      <c r="K11">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -2266,176 +2311,176 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>120.035</v>
+        <v>111.8488888888889</v>
       </c>
       <c r="E2">
-        <v>960.28</v>
+        <v>1006.64</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>110.6425</v>
+        <v>117.0822222222222</v>
       </c>
       <c r="E3">
-        <v>885.14</v>
+        <v>1053.74</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D4">
-        <v>118.4075</v>
+        <v>120.52</v>
       </c>
       <c r="E4">
-        <v>947.26</v>
+        <v>1084.68</v>
       </c>
       <c r="F4">
-        <v>87</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>118.83</v>
+        <v>106.1955555555556</v>
       </c>
       <c r="E5">
-        <v>950.6400000000001</v>
+        <v>955.76</v>
       </c>
       <c r="F5">
-        <v>86.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>0.625</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6">
-        <v>106.57</v>
+        <v>118.1533333333334</v>
       </c>
       <c r="E6">
-        <v>852.5599999999999</v>
+        <v>1063.38</v>
       </c>
       <c r="F6">
-        <v>85.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2443,144 +2488,144 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D7">
-        <v>106.36</v>
+        <v>105.7533333333333</v>
       </c>
       <c r="E7">
-        <v>850.8800000000001</v>
+        <v>951.7800000000001</v>
       </c>
       <c r="F7">
-        <v>58.7</v>
+        <v>47.4</v>
       </c>
       <c r="G7">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D8">
-        <v>101.1625</v>
+        <v>104.4911111111111</v>
       </c>
       <c r="E8">
-        <v>809.3</v>
+        <v>940.4200000000001</v>
       </c>
       <c r="F8">
-        <v>52.3</v>
+        <v>39</v>
       </c>
       <c r="G8">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
-        <v>101.9675</v>
+        <v>99.68888888888888</v>
       </c>
       <c r="E9">
-        <v>815.74</v>
+        <v>897.1999999999999</v>
       </c>
       <c r="F9">
-        <v>24.8</v>
+        <v>36</v>
       </c>
       <c r="G9">
-        <v>12.2</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>98.5975</v>
+        <v>97.02222222222223</v>
       </c>
       <c r="E10">
-        <v>788.78</v>
+        <v>873.1999999999999</v>
       </c>
       <c r="F10">
-        <v>5.7</v>
+        <v>12.6</v>
       </c>
       <c r="G10">
-        <v>35.09999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D11">
-        <v>93.55500000000001</v>
+        <v>93.25333333333333</v>
       </c>
       <c r="E11">
-        <v>748.4399999999999</v>
+        <v>839.28</v>
       </c>
       <c r="F11">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="G11">
-        <v>48.7</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2598,19 +2643,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2618,19 +2663,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2638,19 +2683,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2661,16 +2706,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2681,16 +2726,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2701,16 +2746,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2718,19 +2763,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2738,19 +2783,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2758,19 +2803,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D9">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2781,16 +2826,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2801,16 +2846,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>-23</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2820,106 +2865,115 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
       <c r="E2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>13</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>13</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2947,11 +3001,14 @@
       <c r="I4">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2979,11 +3036,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3011,107 +3071,119 @@
       <c r="I6">
         <v>-5</v>
       </c>
-      <c r="J6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6">
+        <v>-6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="C7">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="D7">
         <v>-10</v>
       </c>
       <c r="E7">
+        <v>-12</v>
+      </c>
+      <c r="F7">
+        <v>-4</v>
+      </c>
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+      <c r="I7">
+        <v>-8</v>
+      </c>
+      <c r="J7">
+        <v>-8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>-7</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
         <v>-10</v>
       </c>
-      <c r="F7">
+      <c r="E8">
+        <v>-10</v>
+      </c>
+      <c r="F8">
         <v>-11</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>-10</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>-10</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>-6</v>
       </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
+      <c r="J8">
+        <v>-10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>-5</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>-6</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>-2</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>-7</v>
       </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
+      <c r="J9">
         <v>-10</v>
       </c>
-      <c r="E9">
-        <v>-12</v>
-      </c>
-      <c r="F9">
-        <v>-4</v>
-      </c>
-      <c r="G9">
-        <v>-2</v>
-      </c>
-      <c r="H9">
-        <v>-6</v>
-      </c>
-      <c r="I9">
-        <v>-8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -3139,11 +3211,14 @@
       <c r="I10">
         <v>-13</v>
       </c>
-      <c r="J10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10">
+        <v>-12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3171,8 +3246,11 @@
       <c r="I11">
         <v>-23</v>
       </c>
-      <c r="J11" t="s">
-        <v>94</v>
+      <c r="J11">
+        <v>-17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3190,25 +3268,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3216,25 +3294,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>-17</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3245,22 +3323,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3268,25 +3346,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3294,25 +3372,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3320,22 +3398,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
       <c r="E6">
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -3349,22 +3427,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F7">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3372,25 +3450,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="F8">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="111">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -54,28 +54,28 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -159,6 +159,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -183,55 +186,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
-    <t>8.9-5.1</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>8.5-5.4</t>
-  </si>
-  <si>
-    <t>6.9-7.0</t>
-  </si>
-  <si>
-    <t>6.3-7.6</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>3.8-10.1</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>9.2-4.7</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>8.0-5.9</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>6.6-7.3</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>5.6-8.3</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>3.4-10.6</t>
   </si>
   <si>
     <t>9-5</t>
@@ -246,10 +243,7 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>4-10</t>
+    <t>3-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -270,10 +264,16 @@
     <t>Jessica McNally</t>
   </si>
   <si>
+    <t>Julie Williston</t>
+  </si>
+  <si>
     <t xml:space="preserve">Katie  Kush </t>
   </si>
   <si>
-    <t>Julie Williston</t>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
+    <t>Morgan Herber</t>
   </si>
   <si>
     <t>Ava Patterson</t>
@@ -282,42 +282,30 @@
     <t>Carly Foster</t>
   </si>
   <si>
-    <t>Morgan Herber</t>
-  </si>
-  <si>
-    <t>Haley Toadvine</t>
-  </si>
-  <si>
     <t>Casey Reid</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>↓4</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -343,6 +331,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -773,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -782,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -802,22 +793,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -826,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -837,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -852,16 +843,16 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -872,7 +863,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -884,13 +875,13 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -907,13 +898,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -922,16 +913,16 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -942,31 +933,31 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
         <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -977,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1012,28 +1003,28 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -1047,13 +1038,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1062,13 +1053,13 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -1079,34 +1070,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1138,13 +1129,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1152,13 +1143,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1166,13 +1157,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1180,13 +1171,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1194,10 +1185,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1208,13 +1199,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1222,13 +1213,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1236,13 +1227,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1250,13 +1241,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1267,10 +1258,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1308,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="D2">
         <v>1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1322,16 +1313,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="D3">
-        <v>-0.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1339,16 +1330,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="D4">
-        <v>1.8</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1359,13 +1350,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="D5">
-        <v>-1.9</v>
+        <v>-1.3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1373,16 +1364,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D6">
-        <v>-1.7</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1390,16 +1381,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>4.3</v>
       </c>
       <c r="D7">
-        <v>0.2999999999999998</v>
+        <v>-1.7</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1407,16 +1398,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1424,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D9">
-        <v>-0.2999999999999998</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1444,13 +1435,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D10">
-        <v>0.2000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1461,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D11">
-        <v>0.6000000000000001</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1523,31 +1514,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>44.6</v>
+        <v>40.5</v>
       </c>
       <c r="C2">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="D2">
-        <v>14.4</v>
+        <v>19.5</v>
       </c>
       <c r="E2">
-        <v>9.300000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="F2">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1556,36 +1547,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>29.7</v>
+        <v>27.8</v>
       </c>
       <c r="C3">
-        <v>26.3</v>
+        <v>23.9</v>
       </c>
       <c r="D3">
-        <v>18.8</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>14.9</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G3">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1594,45 +1585,45 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>98.90000000000001</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>12.4</v>
+        <v>24.3</v>
       </c>
       <c r="C4">
-        <v>21.6</v>
+        <v>32.2</v>
       </c>
       <c r="D4">
-        <v>22.3</v>
+        <v>20.9</v>
       </c>
       <c r="E4">
-        <v>18.2</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>13.6</v>
+        <v>6.8</v>
       </c>
       <c r="G4">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>94.90000000000001</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1640,37 +1631,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>10.7</v>
+        <v>3.3</v>
       </c>
       <c r="C5">
-        <v>17.4</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>23.3</v>
+        <v>15.6</v>
       </c>
       <c r="E5">
-        <v>21.1</v>
+        <v>24.3</v>
       </c>
       <c r="F5">
-        <v>13.9</v>
+        <v>25.7</v>
       </c>
       <c r="G5">
-        <v>8.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="H5">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>94.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1678,151 +1669,151 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6.4</v>
+        <v>10.8</v>
       </c>
       <c r="D6">
-        <v>11.4</v>
+        <v>13.8</v>
       </c>
       <c r="E6">
-        <v>16.5</v>
+        <v>23.5</v>
       </c>
       <c r="F6">
-        <v>21.9</v>
+        <v>24.5</v>
       </c>
       <c r="G6">
-        <v>18.1</v>
+        <v>13.6</v>
       </c>
       <c r="H6">
-        <v>13.3</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="J6">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>76.40000000000001</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="D7">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="F7">
-        <v>14.2</v>
+        <v>11.2</v>
       </c>
       <c r="G7">
-        <v>18.8</v>
+        <v>23.6</v>
       </c>
       <c r="H7">
-        <v>21.4</v>
+        <v>23.3</v>
       </c>
       <c r="I7">
-        <v>19.8</v>
+        <v>18.9</v>
       </c>
       <c r="J7">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="L7">
-        <v>47.4</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="E8">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="F8">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>17.1</v>
+        <v>20.9</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>23.6</v>
       </c>
       <c r="I8">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="J8">
-        <v>15.4</v>
+        <v>16.7</v>
       </c>
       <c r="K8">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>2.1</v>
+      </c>
+      <c r="F9">
+        <v>6.2</v>
+      </c>
+      <c r="G9">
+        <v>11.8</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>24.7</v>
+      </c>
+      <c r="J9">
+        <v>31.4</v>
+      </c>
+      <c r="K9">
         <v>2.3</v>
       </c>
-      <c r="E9">
-        <v>4.5</v>
-      </c>
-      <c r="F9">
-        <v>10.7</v>
-      </c>
-      <c r="G9">
-        <v>17.8</v>
-      </c>
-      <c r="H9">
-        <v>19.9</v>
-      </c>
-      <c r="I9">
-        <v>22.8</v>
-      </c>
-      <c r="J9">
-        <v>16.8</v>
-      </c>
-      <c r="K9">
-        <v>4.5</v>
-      </c>
       <c r="L9">
-        <v>36</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1836,31 +1827,31 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="G10">
-        <v>7.8</v>
+        <v>11.2</v>
       </c>
       <c r="H10">
-        <v>13.3</v>
+        <v>18.3</v>
       </c>
       <c r="I10">
-        <v>20.8</v>
+        <v>28.1</v>
       </c>
       <c r="J10">
-        <v>35.4</v>
+        <v>31.7</v>
       </c>
       <c r="K10">
-        <v>17.9</v>
+        <v>5.1</v>
       </c>
       <c r="L10">
-        <v>12.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1880,25 +1871,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="I11">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="J11">
-        <v>18.8</v>
+        <v>6.4</v>
       </c>
       <c r="K11">
-        <v>72.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="L11">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1908,13 +1899,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1945,355 +1936,388 @@
       <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>77.5</v>
+      </c>
+      <c r="C2">
+        <v>99.3</v>
+      </c>
+      <c r="D2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F2">
+        <v>98.8</v>
+      </c>
+      <c r="G2">
+        <v>99.7</v>
+      </c>
+      <c r="H2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I2">
+        <v>99.7</v>
+      </c>
+      <c r="J2">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="K2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>98.3</v>
+      </c>
+      <c r="C3">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="D3">
+        <v>98.5</v>
+      </c>
+      <c r="E3">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="F3">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="G3">
+        <v>98.3</v>
+      </c>
+      <c r="H3">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="I3">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="J3">
+        <v>99.3</v>
+      </c>
+      <c r="K3">
         <v>98.59999999999999</v>
       </c>
-      <c r="C2">
-        <v>87.5</v>
-      </c>
-      <c r="D2">
-        <v>98.5</v>
-      </c>
-      <c r="E2">
-        <v>89.60000000000001</v>
-      </c>
-      <c r="F2">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="G2">
-        <v>98.3</v>
-      </c>
-      <c r="H2">
-        <v>98</v>
-      </c>
-      <c r="I2">
-        <v>96.8</v>
-      </c>
-      <c r="J2">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="K2">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>78.2</v>
-      </c>
-      <c r="C3">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="D3">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E3">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F3">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G3">
-        <v>99.8</v>
-      </c>
-      <c r="H3">
-        <v>99.8</v>
-      </c>
-      <c r="I3">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="J3">
-        <v>97.8</v>
-      </c>
-      <c r="K3">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>71.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="C4">
-        <v>35.7</v>
+        <v>37.3</v>
       </c>
       <c r="D4">
-        <v>71.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>85.7</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="F4">
+        <v>90.7</v>
+      </c>
+      <c r="G4">
+        <v>79.7</v>
+      </c>
+      <c r="H4">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="I4">
+        <v>87.5</v>
+      </c>
+      <c r="J4">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="K4">
+        <v>98.8</v>
+      </c>
+      <c r="L4">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>99.7</v>
+      </c>
+      <c r="E5">
+        <v>98.8</v>
+      </c>
+      <c r="F5">
+        <v>85.5</v>
+      </c>
+      <c r="G5">
+        <v>80.2</v>
+      </c>
+      <c r="H5">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="I5">
+        <v>84.8</v>
+      </c>
+      <c r="J5">
+        <v>94</v>
+      </c>
+      <c r="K5">
+        <v>86</v>
+      </c>
+      <c r="L5">
         <v>91.40000000000001</v>
       </c>
-      <c r="G4">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="H4">
-        <v>94.5</v>
-      </c>
-      <c r="I4">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="J4">
-        <v>93.7</v>
-      </c>
-      <c r="K4">
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="C5">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D5">
-        <v>99.8</v>
-      </c>
-      <c r="E5">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F5">
-        <v>86.3</v>
-      </c>
-      <c r="G5">
-        <v>77.60000000000001</v>
-      </c>
-      <c r="H5">
-        <v>94.89999999999999</v>
-      </c>
-      <c r="I5">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="J5">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="K5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>83.59999999999999</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>84.2</v>
+        <v>83.2</v>
       </c>
       <c r="E6">
-        <v>89.2</v>
+        <v>91.3</v>
       </c>
       <c r="F6">
-        <v>75.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="G6">
+        <v>90.60000000000001</v>
+      </c>
+      <c r="H6">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="I6">
+        <v>87.2</v>
+      </c>
+      <c r="J6">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="K6">
         <v>89.7</v>
       </c>
-      <c r="H6">
-        <v>80.30000000000001</v>
-      </c>
-      <c r="I6">
-        <v>86.2</v>
-      </c>
-      <c r="J6">
-        <v>76.2</v>
-      </c>
-      <c r="K6">
-        <v>77.40000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>73.2</v>
+      </c>
+      <c r="C7">
+        <v>49.9</v>
+      </c>
+      <c r="D7">
+        <v>15.5</v>
+      </c>
+      <c r="E7">
+        <v>42.5</v>
+      </c>
+      <c r="F7">
+        <v>68.60000000000001</v>
+      </c>
+      <c r="G7">
+        <v>59.09999999999999</v>
+      </c>
+      <c r="H7">
+        <v>36.2</v>
+      </c>
+      <c r="I7">
+        <v>50.4</v>
+      </c>
+      <c r="J7">
+        <v>29.2</v>
+      </c>
+      <c r="K7">
+        <v>44.5</v>
+      </c>
+      <c r="L7">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>24.5</v>
-      </c>
-      <c r="C7">
-        <v>92</v>
-      </c>
-      <c r="D7">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="E7">
-        <v>62.6</v>
-      </c>
-      <c r="F7">
-        <v>45.4</v>
-      </c>
-      <c r="G7">
-        <v>42.6</v>
-      </c>
-      <c r="H7">
-        <v>55.2</v>
-      </c>
-      <c r="I7">
-        <v>59.5</v>
-      </c>
-      <c r="J7">
-        <v>45.8</v>
-      </c>
-      <c r="K7">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>24.4</v>
+      </c>
+      <c r="C8">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="D8">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="E8">
+        <v>63.5</v>
+      </c>
+      <c r="F8">
+        <v>44.8</v>
+      </c>
+      <c r="G8">
+        <v>42.7</v>
+      </c>
+      <c r="H8">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="I8">
+        <v>60.2</v>
+      </c>
+      <c r="J8">
+        <v>46.9</v>
+      </c>
+      <c r="K8">
+        <v>39.1</v>
+      </c>
+      <c r="L8">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>36.2</v>
-      </c>
-      <c r="C8">
-        <v>1.8</v>
-      </c>
-      <c r="D8">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="E8">
-        <v>10.2</v>
-      </c>
-      <c r="F8">
-        <v>2.7</v>
-      </c>
-      <c r="G8">
-        <v>23</v>
-      </c>
-      <c r="H8">
-        <v>12.3</v>
-      </c>
-      <c r="I8">
-        <v>24.8</v>
-      </c>
-      <c r="J8">
-        <v>49.7</v>
-      </c>
-      <c r="K8">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B9">
-        <v>70.89999999999999</v>
+        <v>38.1</v>
       </c>
       <c r="C9">
-        <v>53.90000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="D9">
-        <v>15.5</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
-        <v>42.3</v>
+        <v>9.5</v>
       </c>
       <c r="F9">
-        <v>68.10000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="G9">
-        <v>59.8</v>
+        <v>21.9</v>
       </c>
       <c r="H9">
-        <v>39.6</v>
+        <v>13.8</v>
       </c>
       <c r="I9">
-        <v>51.1</v>
+        <v>25.9</v>
       </c>
       <c r="J9">
-        <v>33.1</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>34.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>24.1</v>
+      </c>
+      <c r="L9">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="C10">
-        <v>45.5</v>
+        <v>46.2</v>
       </c>
       <c r="D10">
-        <v>32.4</v>
+        <v>33.5</v>
       </c>
       <c r="E10">
-        <v>20.5</v>
+        <v>18.8</v>
       </c>
       <c r="F10">
-        <v>40.8</v>
+        <v>39.5</v>
       </c>
       <c r="G10">
-        <v>26.6</v>
+        <v>23.7</v>
       </c>
       <c r="H10">
-        <v>14.4</v>
+        <v>16.3</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J10">
-        <v>11.6</v>
+        <v>9.1</v>
       </c>
       <c r="K10">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>19.5</v>
+      </c>
+      <c r="L10">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>7.1</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="E11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3.2</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="I11">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="J11">
         <v>1.3</v>
       </c>
       <c r="K11">
-        <v>1.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2314,48 +2338,48 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
-        <v>111.8488888888889</v>
+        <v>117.012</v>
       </c>
       <c r="E2">
-        <v>1006.64</v>
+        <v>1170.12</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2369,22 +2393,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>117.0822222222222</v>
+        <v>123.258</v>
       </c>
       <c r="E3">
-        <v>1053.74</v>
+        <v>1232.58</v>
       </c>
       <c r="F3">
-        <v>98.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2393,27 +2417,27 @@
         <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>0.5555555555555556</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>120.52</v>
+        <v>112.074</v>
       </c>
       <c r="E4">
-        <v>1084.68</v>
+        <v>1120.74</v>
       </c>
       <c r="F4">
-        <v>94.89999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2422,7 +2446,7 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2430,19 +2454,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>106.1955555555556</v>
+        <v>103.636</v>
       </c>
       <c r="E5">
-        <v>955.76</v>
+        <v>1036.36</v>
       </c>
       <c r="F5">
-        <v>94.59999999999999</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2462,112 +2486,112 @@
         <v>56</v>
       </c>
       <c r="C6">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>118.1533333333334</v>
+        <v>119.282</v>
       </c>
       <c r="E6">
-        <v>1063.38</v>
+        <v>1192.82</v>
       </c>
       <c r="F6">
-        <v>76.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
       </c>
       <c r="C7">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>105.7533333333333</v>
+        <v>99.78599999999999</v>
       </c>
       <c r="E7">
-        <v>951.7800000000001</v>
+        <v>997.8599999999999</v>
       </c>
       <c r="F7">
-        <v>47.4</v>
+        <v>45.1</v>
       </c>
       <c r="G7">
-        <v>1.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H7" t="s">
         <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>104.4911111111111</v>
+        <v>106.318</v>
       </c>
       <c r="E8">
-        <v>940.4200000000001</v>
+        <v>1063.18</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>37.2</v>
       </c>
       <c r="G8">
-        <v>3.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H8" t="s">
         <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>99.68888888888888</v>
+        <v>102.452</v>
       </c>
       <c r="E9">
-        <v>897.1999999999999</v>
+        <v>1024.52</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>20.6</v>
       </c>
       <c r="G9">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="s">
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2578,25 +2602,25 @@
         <v>57</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>97.02222222222223</v>
+        <v>97.71400000000001</v>
       </c>
       <c r="E10">
-        <v>873.1999999999999</v>
+        <v>977.1399999999999</v>
       </c>
       <c r="F10">
-        <v>12.6</v>
+        <v>16.8</v>
       </c>
       <c r="G10">
-        <v>17.9</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="s">
         <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2607,25 +2631,25 @@
         <v>58</v>
       </c>
       <c r="C11">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>93.25333333333333</v>
+        <v>92.47</v>
       </c>
       <c r="E11">
-        <v>839.28</v>
+        <v>924.6999999999999</v>
       </c>
       <c r="F11">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>72.39999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="H11" t="s">
         <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2646,16 +2670,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2666,16 +2690,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2686,16 +2710,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2706,16 +2730,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2723,19 +2747,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2743,10 +2767,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>-6</v>
@@ -2755,7 +2779,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2763,19 +2787,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>-8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2783,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2803,19 +2827,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2823,19 +2847,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2846,16 +2870,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2865,45 +2889,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2934,11 +2961,14 @@
       <c r="J2">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2969,11 +2999,14 @@
       <c r="J3">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3004,221 +3037,242 @@
       <c r="J4">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <v>-4</v>
+      </c>
+      <c r="G5">
+        <v>-5</v>
+      </c>
+      <c r="H5">
+        <v>-7</v>
+      </c>
+      <c r="I5">
+        <v>-5</v>
+      </c>
+      <c r="J5">
+        <v>-6</v>
+      </c>
+      <c r="K5">
+        <v>-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-6</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-6</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>-7</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>-4</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-11</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>-7</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>-6</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>-2</v>
+      </c>
+      <c r="F7">
         <v>-6</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>-4</v>
-      </c>
-      <c r="G6">
-        <v>-5</v>
-      </c>
-      <c r="H6">
-        <v>-7</v>
-      </c>
-      <c r="I6">
-        <v>-5</v>
-      </c>
-      <c r="J6">
-        <v>-6</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
-      <c r="D7">
-        <v>-10</v>
-      </c>
-      <c r="E7">
-        <v>-12</v>
-      </c>
-      <c r="F7">
-        <v>-4</v>
-      </c>
-      <c r="G7">
-        <v>-2</v>
       </c>
       <c r="H7">
         <v>-6</v>
       </c>
       <c r="I7">
+        <v>-13</v>
+      </c>
+      <c r="J7">
+        <v>-12</v>
+      </c>
+      <c r="K7">
         <v>-8</v>
       </c>
-      <c r="J7">
-        <v>-8</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
+        <v>-6</v>
+      </c>
+      <c r="H8">
+        <v>-2</v>
+      </c>
+      <c r="I8">
         <v>-7</v>
-      </c>
-      <c r="C8">
-        <v>-7</v>
-      </c>
-      <c r="D8">
-        <v>-10</v>
-      </c>
-      <c r="E8">
-        <v>-10</v>
-      </c>
-      <c r="F8">
-        <v>-11</v>
-      </c>
-      <c r="G8">
-        <v>-10</v>
-      </c>
-      <c r="H8">
-        <v>-10</v>
-      </c>
-      <c r="I8">
-        <v>-6</v>
       </c>
       <c r="J8">
         <v>-10</v>
       </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>-11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="F9">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="G9">
+        <v>-2</v>
+      </c>
+      <c r="H9">
         <v>-6</v>
       </c>
-      <c r="H9">
-        <v>-2</v>
-      </c>
       <c r="I9">
+        <v>-8</v>
+      </c>
+      <c r="J9">
+        <v>-8</v>
+      </c>
+      <c r="K9">
+        <v>-12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>-7</v>
       </c>
-      <c r="J9">
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10">
         <v>-10</v>
       </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
       <c r="E10">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
+        <v>-10</v>
+      </c>
+      <c r="H10">
+        <v>-10</v>
+      </c>
+      <c r="I10">
         <v>-6</v>
       </c>
-      <c r="G10">
-        <v>-4</v>
-      </c>
-      <c r="H10">
-        <v>-6</v>
-      </c>
-      <c r="I10">
-        <v>-13</v>
-      </c>
       <c r="J10">
-        <v>-12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>-10</v>
+      </c>
+      <c r="K10">
+        <v>-16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3249,8 +3303,11 @@
       <c r="J11">
         <v>-17</v>
       </c>
-      <c r="K11" t="s">
-        <v>97</v>
+      <c r="K11">
+        <v>-20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3317,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3268,25 +3325,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3450,24 +3507,50 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8">
+        <v>-20</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>-12</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>-2</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="116">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -54,28 +54,28 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -162,6 +162,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -186,49 +189,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>9.2-4.7</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>8.0-5.9</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>6.6-7.3</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>5.6-8.3</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>3.4-10.6</t>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>9.9-4.1</t>
+  </si>
+  <si>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -243,6 +249,9 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>3-11</t>
   </si>
   <si>
@@ -264,48 +273,51 @@
     <t>Jessica McNally</t>
   </si>
   <si>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
+    <t>Morgan Herber</t>
+  </si>
+  <si>
     <t>Julie Williston</t>
   </si>
   <si>
+    <t>Ava Patterson</t>
+  </si>
+  <si>
     <t xml:space="preserve">Katie  Kush </t>
   </si>
   <si>
-    <t>Haley Toadvine</t>
-  </si>
-  <si>
-    <t>Morgan Herber</t>
-  </si>
-  <si>
-    <t>Ava Patterson</t>
-  </si>
-  <si>
     <t>Carly Foster</t>
   </si>
   <si>
     <t>Casey Reid</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑7</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓6</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓11</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -334,6 +346,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -761,28 +776,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -793,19 +808,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -817,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -828,16 +843,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -846,10 +861,10 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -866,22 +881,22 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -904,25 +919,25 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -930,22 +945,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -954,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -965,31 +980,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1000,28 +1015,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -1035,31 +1050,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
         <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -1073,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1082,22 +1097,22 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1132,10 +1147,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1146,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1157,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1171,13 +1186,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1185,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1199,13 +1214,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1216,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1227,10 +1242,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1244,10 +1259,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1258,10 +1273,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1299,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="D2">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1313,16 +1328,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D3">
-        <v>1.7</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1330,16 +1345,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="D4">
-        <v>-0.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1350,13 +1365,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="D5">
-        <v>-1.3</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1364,16 +1379,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D6">
-        <v>0.7999999999999998</v>
+        <v>-1.9</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1381,16 +1396,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D7">
-        <v>-1.7</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1401,13 +1416,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D8">
-        <v>-0.9000000000000004</v>
+        <v>-1.4</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1418,13 +1433,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D9">
-        <v>0.09999999999999964</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1435,13 +1450,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>-0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1452,10 +1467,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>0.7999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1517,22 +1532,22 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>40.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C2">
-        <v>24.3</v>
+        <v>13.5</v>
       </c>
       <c r="D2">
-        <v>19.5</v>
+        <v>7.5</v>
       </c>
       <c r="E2">
-        <v>11.4</v>
+        <v>1.8</v>
       </c>
       <c r="F2">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1552,78 +1567,78 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>27.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C3">
-        <v>23.9</v>
+        <v>36.7</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>19.3</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>16.9</v>
       </c>
       <c r="F3">
-        <v>8.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="G3">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H3">
+        <v>0.7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="I3">
-        <v>0.2</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>24.3</v>
+        <v>5.7</v>
       </c>
       <c r="C4">
-        <v>32.2</v>
+        <v>19.2</v>
       </c>
       <c r="D4">
-        <v>20.9</v>
+        <v>29.1</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>21.2</v>
       </c>
       <c r="F4">
-        <v>6.8</v>
+        <v>17.6</v>
       </c>
       <c r="G4">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1631,37 +1646,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>18.8</v>
       </c>
       <c r="D5">
-        <v>15.6</v>
+        <v>19.1</v>
       </c>
       <c r="E5">
-        <v>24.3</v>
+        <v>22.7</v>
       </c>
       <c r="F5">
-        <v>25.7</v>
+        <v>24.4</v>
       </c>
       <c r="G5">
-        <v>14.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H5">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="I5">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>91.09999999999999</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1669,37 +1684,37 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="C6">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="D6">
-        <v>13.8</v>
+        <v>20.6</v>
       </c>
       <c r="E6">
-        <v>23.5</v>
+        <v>27.4</v>
       </c>
       <c r="F6">
-        <v>24.5</v>
+        <v>22.8</v>
       </c>
       <c r="G6">
-        <v>13.6</v>
+        <v>10.6</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="I6">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="J6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>90.2</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1710,77 +1725,77 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E7">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F7">
-        <v>11.2</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>23.6</v>
+        <v>38.7</v>
       </c>
       <c r="H7">
-        <v>23.3</v>
+        <v>17.8</v>
       </c>
       <c r="I7">
-        <v>18.9</v>
+        <v>11.3</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>45.1</v>
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>4.1</v>
+      </c>
+      <c r="G8">
+        <v>18.2</v>
+      </c>
+      <c r="H8">
+        <v>33.6</v>
+      </c>
+      <c r="I8">
+        <v>26.3</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
         <v>0.1</v>
       </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8">
-        <v>1.3</v>
-      </c>
-      <c r="E8">
-        <v>4.8</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>20.9</v>
-      </c>
-      <c r="H8">
-        <v>23.6</v>
-      </c>
-      <c r="I8">
-        <v>21.8</v>
-      </c>
-      <c r="J8">
-        <v>16.7</v>
-      </c>
-      <c r="K8">
-        <v>0.7</v>
-      </c>
       <c r="L8">
-        <v>37.2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1789,31 +1804,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="F9">
-        <v>6.2</v>
+        <v>1.7</v>
       </c>
       <c r="G9">
-        <v>11.8</v>
+        <v>10.6</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>22.5</v>
       </c>
       <c r="I9">
-        <v>24.7</v>
+        <v>28.9</v>
       </c>
       <c r="J9">
-        <v>31.4</v>
+        <v>34.8</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="L9">
-        <v>20.6</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1827,31 +1842,31 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0.4</v>
       </c>
-      <c r="E10">
-        <v>1.3</v>
-      </c>
-      <c r="F10">
-        <v>3.9</v>
-      </c>
       <c r="G10">
-        <v>11.2</v>
+        <v>3.6</v>
       </c>
       <c r="H10">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="I10">
-        <v>28.1</v>
+        <v>31.7</v>
       </c>
       <c r="J10">
-        <v>31.7</v>
+        <v>41.4</v>
       </c>
       <c r="K10">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="L10">
-        <v>16.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1877,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0.6</v>
       </c>
-      <c r="I11">
-        <v>1.8</v>
-      </c>
       <c r="J11">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="K11">
-        <v>91.2</v>
+        <v>94.3</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1899,13 +1914,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1939,63 +1954,69 @@
       <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="C2">
         <v>99.3</v>
       </c>
       <c r="D2">
+        <v>99.8</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>99.2</v>
+      </c>
+      <c r="G2">
         <v>99.59999999999999</v>
-      </c>
-      <c r="E2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F2">
-        <v>98.8</v>
-      </c>
-      <c r="G2">
-        <v>99.7</v>
       </c>
       <c r="H2">
         <v>99.90000000000001</v>
       </c>
       <c r="I2">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J2">
-        <v>97.89999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K2">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="L2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="C3">
-        <v>86.90000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="D3">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="E3">
-        <v>89.60000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="F3">
-        <v>91.90000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="G3">
         <v>98.3</v>
@@ -2004,95 +2025,104 @@
         <v>97.39999999999999</v>
       </c>
       <c r="I3">
-        <v>96.89999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="J3">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="K3">
         <v>98.59999999999999</v>
       </c>
       <c r="L3">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98</v>
+      </c>
+      <c r="M3">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>71.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C4">
-        <v>37.3</v>
+        <v>40.1</v>
       </c>
       <c r="D4">
-        <v>72</v>
+        <v>71.8</v>
       </c>
       <c r="E4">
-        <v>85.39999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="F4">
-        <v>90.7</v>
+        <v>87.2</v>
       </c>
       <c r="G4">
-        <v>79.7</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H4">
-        <v>94.19999999999999</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="I4">
-        <v>87.5</v>
+        <v>86.8</v>
       </c>
       <c r="J4">
-        <v>93.89999999999999</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="K4">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="L4">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="M4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>91.10000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D5">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E5">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="F5">
         <v>85.5</v>
       </c>
       <c r="G5">
-        <v>80.2</v>
+        <v>79.7</v>
       </c>
       <c r="H5">
-        <v>95.89999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="I5">
         <v>84.8</v>
       </c>
       <c r="J5">
-        <v>94</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="K5">
-        <v>86</v>
+        <v>85.5</v>
       </c>
       <c r="L5">
-        <v>91.40000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>96.8</v>
+      </c>
+      <c r="M5">
+        <v>96.39999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2100,223 +2130,241 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="D6">
-        <v>83.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E6">
-        <v>91.3</v>
+        <v>89.2</v>
       </c>
       <c r="F6">
-        <v>77.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G6">
-        <v>90.60000000000001</v>
+        <v>90</v>
       </c>
       <c r="H6">
-        <v>80.10000000000001</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="I6">
-        <v>87.2</v>
+        <v>87.8</v>
       </c>
       <c r="J6">
-        <v>80.40000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="K6">
-        <v>89.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="L6">
-        <v>88.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>94.5</v>
+      </c>
+      <c r="M6">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>73.2</v>
+        <v>71.5</v>
       </c>
       <c r="C7">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>15.5</v>
+        <v>14.4</v>
       </c>
       <c r="E7">
-        <v>42.5</v>
+        <v>44.1</v>
       </c>
       <c r="F7">
-        <v>68.60000000000001</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="G7">
-        <v>59.09999999999999</v>
+        <v>56.8</v>
       </c>
       <c r="H7">
-        <v>36.2</v>
+        <v>38.6</v>
       </c>
       <c r="I7">
-        <v>50.4</v>
+        <v>51.1</v>
       </c>
       <c r="J7">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="K7">
-        <v>44.5</v>
+        <v>50.3</v>
       </c>
       <c r="L7">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>63.5</v>
+      </c>
+      <c r="M7">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>35.5</v>
+      </c>
+      <c r="C8">
+        <v>1.9</v>
+      </c>
+      <c r="D8">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="F8">
+        <v>2.7</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>15.3</v>
+      </c>
+      <c r="I8">
+        <v>26.8</v>
+      </c>
+      <c r="J8">
+        <v>46.8</v>
+      </c>
+      <c r="K8">
+        <v>22.8</v>
+      </c>
+      <c r="L8">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>24.4</v>
-      </c>
-      <c r="C8">
-        <v>92.10000000000001</v>
-      </c>
-      <c r="D8">
-        <v>94.19999999999999</v>
-      </c>
-      <c r="E8">
-        <v>63.5</v>
-      </c>
-      <c r="F8">
-        <v>44.8</v>
-      </c>
-      <c r="G8">
-        <v>42.7</v>
-      </c>
-      <c r="H8">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="I8">
-        <v>60.2</v>
-      </c>
-      <c r="J8">
-        <v>46.9</v>
-      </c>
-      <c r="K8">
-        <v>39.1</v>
-      </c>
-      <c r="L8">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B9">
-        <v>38.1</v>
+        <v>23.9</v>
       </c>
       <c r="C9">
-        <v>3.3</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>9.5</v>
+        <v>62.9</v>
       </c>
       <c r="F9">
-        <v>1.9</v>
+        <v>50.3</v>
       </c>
       <c r="G9">
-        <v>21.9</v>
+        <v>43.4</v>
       </c>
       <c r="H9">
-        <v>13.8</v>
+        <v>53.5</v>
       </c>
       <c r="I9">
-        <v>25.9</v>
+        <v>55.7</v>
       </c>
       <c r="J9">
-        <v>48</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="K9">
-        <v>24.1</v>
+        <v>34.4</v>
       </c>
       <c r="L9">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>17.2</v>
+      </c>
+      <c r="M9">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>20.3</v>
+        <v>21.9</v>
       </c>
       <c r="C10">
-        <v>46.2</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>33.5</v>
+        <v>32.2</v>
       </c>
       <c r="E10">
-        <v>18.8</v>
+        <v>19.6</v>
       </c>
       <c r="F10">
-        <v>39.5</v>
+        <v>41.9</v>
       </c>
       <c r="G10">
-        <v>23.7</v>
+        <v>26.1</v>
       </c>
       <c r="H10">
-        <v>16.3</v>
+        <v>16.9</v>
       </c>
       <c r="I10">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="J10">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K10">
-        <v>19.5</v>
+        <v>21.4</v>
       </c>
       <c r="L10">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>7.1</v>
+      </c>
+      <c r="M10">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>5.800000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D11">
         <v>3.2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G11">
-        <v>4.100000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="H11">
-        <v>10.2</v>
+        <v>10.9</v>
       </c>
       <c r="I11">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J11">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
     </row>
@@ -2338,28 +2386,28 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2367,16 +2415,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2">
-        <v>117.012</v>
+        <v>118.2872727272727</v>
       </c>
       <c r="E2">
-        <v>1170.12</v>
+        <v>1301.16</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2385,68 +2433,68 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D3">
-        <v>123.258</v>
+        <v>111.8418181818182</v>
       </c>
       <c r="E3">
-        <v>1232.58</v>
+        <v>1230.26</v>
       </c>
       <c r="F3">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D4">
-        <v>112.074</v>
+        <v>121.5890909090909</v>
       </c>
       <c r="E4">
-        <v>1120.74</v>
+        <v>1337.48</v>
       </c>
       <c r="F4">
-        <v>99.3</v>
+        <v>98</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2454,28 +2502,28 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>103.636</v>
+        <v>104.3727272727273</v>
       </c>
       <c r="E5">
-        <v>1036.36</v>
+        <v>1148.1</v>
       </c>
       <c r="F5">
-        <v>91.10000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2483,28 +2531,28 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>119.282</v>
+        <v>118.6454545454546</v>
       </c>
       <c r="E6">
-        <v>1192.82</v>
+        <v>1305.1</v>
       </c>
       <c r="F6">
-        <v>90.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2512,86 +2560,86 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D7">
-        <v>99.78599999999999</v>
+        <v>100.0181818181818</v>
       </c>
       <c r="E7">
-        <v>997.8599999999999</v>
+        <v>1100.2</v>
       </c>
       <c r="F7">
-        <v>45.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G7">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D8">
-        <v>106.318</v>
+        <v>99.62909090909092</v>
       </c>
       <c r="E8">
-        <v>1063.18</v>
+        <v>1095.92</v>
       </c>
       <c r="F8">
-        <v>37.2</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>0.7000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D9">
-        <v>102.452</v>
+        <v>102.1654545454545</v>
       </c>
       <c r="E9">
-        <v>1024.52</v>
+        <v>1123.82</v>
       </c>
       <c r="F9">
-        <v>20.6</v>
+        <v>12.6</v>
       </c>
       <c r="G9">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2599,28 +2647,28 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D10">
-        <v>97.71400000000001</v>
+        <v>97.81454545454545</v>
       </c>
       <c r="E10">
-        <v>977.1399999999999</v>
+        <v>1075.96</v>
       </c>
       <c r="F10">
-        <v>16.8</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>5.1</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2628,28 +2676,28 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D11">
-        <v>92.47</v>
+        <v>90.63636363636363</v>
       </c>
       <c r="E11">
-        <v>924.6999999999999</v>
+        <v>996.9999999999999</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>91.2</v>
+        <v>94.3</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2670,16 +2718,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2690,16 +2738,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2710,16 +2758,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2730,16 +2778,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2747,19 +2795,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2767,19 +2815,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2787,19 +2835,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2807,19 +2855,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2827,19 +2875,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2850,16 +2898,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2870,16 +2918,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D11">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2889,48 +2937,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2964,11 +3015,14 @@
       <c r="K2">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3002,11 +3056,14 @@
       <c r="K3">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3040,201 +3097,219 @@
       <c r="K4">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>-4</v>
+      </c>
+      <c r="H5">
+        <v>-6</v>
+      </c>
+      <c r="I5">
+        <v>-13</v>
+      </c>
+      <c r="J5">
+        <v>-12</v>
+      </c>
+      <c r="K5">
+        <v>-8</v>
+      </c>
+      <c r="L5">
+        <v>-4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-5</v>
+      </c>
+      <c r="G6">
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>-2</v>
+      </c>
+      <c r="I6">
+        <v>-7</v>
+      </c>
+      <c r="J6">
+        <v>-10</v>
+      </c>
+      <c r="K6">
+        <v>-11</v>
+      </c>
+      <c r="L6">
+        <v>-10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>-6</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>-4</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>-5</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>-7</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>-5</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>-6</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>-2</v>
       </c>
-      <c r="L5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="L7">
+        <v>-13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>-5</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-10</v>
+      </c>
+      <c r="E8">
+        <v>-12</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>-2</v>
+      </c>
+      <c r="H8">
+        <v>-6</v>
+      </c>
+      <c r="I8">
+        <v>-8</v>
+      </c>
+      <c r="J8">
+        <v>-8</v>
+      </c>
+      <c r="K8">
+        <v>-12</v>
+      </c>
+      <c r="L8">
+        <v>-13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>-6</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>-6</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>-7</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>-4</v>
       </c>
-      <c r="F6">
+      <c r="F9">
         <v>-11</v>
       </c>
-      <c r="G6">
+      <c r="G9">
         <v>-7</v>
-      </c>
-      <c r="H6">
-        <v>-6</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>-6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>-2</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>-4</v>
-      </c>
-      <c r="H7">
-        <v>-6</v>
-      </c>
-      <c r="I7">
-        <v>-13</v>
-      </c>
-      <c r="J7">
-        <v>-12</v>
-      </c>
-      <c r="K7">
-        <v>-8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>-6</v>
-      </c>
-      <c r="H8">
-        <v>-2</v>
-      </c>
-      <c r="I8">
-        <v>-7</v>
-      </c>
-      <c r="J8">
-        <v>-10</v>
-      </c>
-      <c r="K8">
-        <v>-11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-10</v>
-      </c>
-      <c r="E9">
-        <v>-12</v>
-      </c>
-      <c r="F9">
-        <v>-4</v>
-      </c>
-      <c r="G9">
-        <v>-2</v>
       </c>
       <c r="H9">
         <v>-6</v>
       </c>
       <c r="I9">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>-6</v>
+      </c>
+      <c r="L9">
+        <v>-14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3268,11 +3343,14 @@
       <c r="K10">
         <v>-16</v>
       </c>
-      <c r="L10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3306,8 +3384,11 @@
       <c r="K11">
         <v>-20</v>
       </c>
-      <c r="L11" t="s">
-        <v>93</v>
+      <c r="L11">
+        <v>-24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3325,25 +3406,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="124">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -165,6 +166,57 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie  Kush </t>
+  </si>
+  <si>
+    <t>Carly Foster</t>
+  </si>
+  <si>
+    <t>Ava Patterson</t>
+  </si>
+  <si>
+    <t>Jessica McNally</t>
+  </si>
+  <si>
+    <t>Julie Williston</t>
+  </si>
+  <si>
+    <t>Casey Reid</t>
+  </si>
+  <si>
+    <t>Rachel Hall</t>
+  </si>
+  <si>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
+    <t>Morgan Herber</t>
+  </si>
+  <si>
+    <t>Lauren  Ettlinger</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -213,7 +265,7 @@
     <t>8.8-5.2</t>
   </si>
   <si>
-    <t>8.0-6.0</t>
+    <t>8.0-5.9</t>
   </si>
   <si>
     <t>8.5-5.5</t>
@@ -228,7 +280,10 @@
     <t>6.1-7.9</t>
   </si>
   <si>
-    <t>5.3-8.7</t>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>5.2-8.8</t>
   </si>
   <si>
     <t>3.0-11.0</t>
@@ -262,36 +317,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Rachel Hall</t>
-  </si>
-  <si>
-    <t>Lauren  Ettlinger</t>
-  </si>
-  <si>
-    <t>Jessica McNally</t>
-  </si>
-  <si>
-    <t>Haley Toadvine</t>
-  </si>
-  <si>
-    <t>Morgan Herber</t>
-  </si>
-  <si>
-    <t>Julie Williston</t>
-  </si>
-  <si>
-    <t>Ava Patterson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katie  Kush </t>
-  </si>
-  <si>
-    <t>Carly Foster</t>
-  </si>
-  <si>
-    <t>Casey Reid</t>
   </si>
   <si>
     <t>↑7</t>
@@ -1120,6 +1145,250 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>-17</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>-5</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>-10</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>-4</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8">
+        <v>-20</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>-12</v>
+      </c>
+      <c r="F9">
+        <v>-2</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1532,22 +1801,22 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>76.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C2">
-        <v>13.5</v>
+        <v>15.2</v>
       </c>
       <c r="D2">
         <v>7.5</v>
       </c>
       <c r="E2">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1570,37 +1839,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="C3">
-        <v>36.7</v>
+        <v>29.5</v>
       </c>
       <c r="D3">
-        <v>19.3</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>16.9</v>
+        <v>17.5</v>
       </c>
       <c r="F3">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="G3">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="H3">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1608,37 +1877,37 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="C4">
-        <v>19.2</v>
+        <v>22.8</v>
       </c>
       <c r="D4">
-        <v>29.1</v>
+        <v>24.8</v>
       </c>
       <c r="E4">
-        <v>21.2</v>
+        <v>24.7</v>
       </c>
       <c r="F4">
-        <v>17.6</v>
+        <v>15.7</v>
       </c>
       <c r="G4">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="H4">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>98</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1646,28 +1915,28 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="C5">
-        <v>18.8</v>
+        <v>20.1</v>
       </c>
       <c r="D5">
-        <v>19.1</v>
+        <v>17.8</v>
       </c>
       <c r="E5">
-        <v>22.7</v>
+        <v>21.7</v>
       </c>
       <c r="F5">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="G5">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1676,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1684,28 +1953,28 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="C6">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="D6">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="E6">
-        <v>27.4</v>
+        <v>23.6</v>
       </c>
       <c r="F6">
-        <v>22.8</v>
+        <v>24.4</v>
       </c>
       <c r="G6">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="H6">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1714,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1725,34 +1994,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="E7">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="G7">
-        <v>38.7</v>
+        <v>39.3</v>
       </c>
       <c r="H7">
-        <v>17.8</v>
+        <v>19.3</v>
       </c>
       <c r="I7">
-        <v>11.3</v>
+        <v>9.6</v>
       </c>
       <c r="J7">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>68.40000000000001</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1766,31 +2035,31 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>35.7</v>
+      </c>
+      <c r="I8">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>15.5</v>
+      </c>
+      <c r="K8">
         <v>0.2</v>
       </c>
-      <c r="E8">
-        <v>1.5</v>
-      </c>
-      <c r="F8">
-        <v>4.1</v>
-      </c>
-      <c r="G8">
-        <v>18.2</v>
-      </c>
-      <c r="H8">
-        <v>33.6</v>
-      </c>
-      <c r="I8">
-        <v>26.3</v>
-      </c>
-      <c r="J8">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>0.1</v>
-      </c>
       <c r="L8">
-        <v>24</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1807,28 +2076,28 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="G9">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="I9">
-        <v>28.9</v>
+        <v>33.2</v>
       </c>
       <c r="J9">
-        <v>34.8</v>
+        <v>28.2</v>
       </c>
       <c r="K9">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="L9">
-        <v>12.6</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1851,22 +2120,22 @@
         <v>0.4</v>
       </c>
       <c r="G10">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H10">
-        <v>18.5</v>
+        <v>13.4</v>
       </c>
       <c r="I10">
-        <v>31.7</v>
+        <v>29.1</v>
       </c>
       <c r="J10">
-        <v>41.4</v>
+        <v>48.8</v>
       </c>
       <c r="K10">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1892,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="K11">
-        <v>94.3</v>
+        <v>93.3</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1963,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>77.2</v>
+        <v>78.2</v>
       </c>
       <c r="C2">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="D2">
         <v>99.8</v>
@@ -1975,22 +2244,22 @@
         <v>100</v>
       </c>
       <c r="F2">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="G2">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="H2">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="I2">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>98.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="K2">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2004,40 +2273,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C3">
-        <v>86.5</v>
+        <v>87.5</v>
       </c>
       <c r="D3">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="E3">
-        <v>89.5</v>
+        <v>88.7</v>
       </c>
       <c r="F3">
-        <v>90.10000000000001</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G3">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H3">
-        <v>97.39999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="I3">
         <v>97.7</v>
       </c>
       <c r="J3">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K3">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="L3">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="M3">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2045,40 +2314,40 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>74.90000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C4">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="D4">
-        <v>71.8</v>
+        <v>71</v>
       </c>
       <c r="E4">
-        <v>84.7</v>
+        <v>83.7</v>
       </c>
       <c r="F4">
-        <v>87.2</v>
+        <v>90.3</v>
       </c>
       <c r="G4">
-        <v>79.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="H4">
-        <v>93.89999999999999</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="I4">
-        <v>86.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="J4">
-        <v>95.39999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="K4">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="L4">
-        <v>96.89999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="M4">
-        <v>99</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2086,40 +2355,40 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>91.8</v>
+        <v>92.2</v>
       </c>
       <c r="C5">
+        <v>99.7</v>
+      </c>
+      <c r="D5">
         <v>99.59999999999999</v>
       </c>
-      <c r="D5">
-        <v>99.90000000000001</v>
-      </c>
       <c r="E5">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F5">
-        <v>85.5</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="G5">
-        <v>79.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H5">
-        <v>93.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I5">
-        <v>84.8</v>
+        <v>83.8</v>
       </c>
       <c r="J5">
-        <v>93.60000000000001</v>
+        <v>94</v>
       </c>
       <c r="K5">
-        <v>85.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="L5">
-        <v>96.8</v>
+        <v>96</v>
       </c>
       <c r="M5">
-        <v>96.39999999999999</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2130,37 +2399,37 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>82.89999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="D6">
-        <v>85.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="E6">
-        <v>89.2</v>
+        <v>87.3</v>
       </c>
       <c r="F6">
-        <v>75.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G6">
-        <v>90</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="H6">
-        <v>79.80000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="I6">
-        <v>87.8</v>
+        <v>88.5</v>
       </c>
       <c r="J6">
-        <v>80.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K6">
-        <v>88.40000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="L6">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="M6">
-        <v>95.7</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2168,40 +2437,40 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>71.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="D7">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="E7">
-        <v>44.1</v>
+        <v>45.1</v>
       </c>
       <c r="F7">
-        <v>67.10000000000001</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="G7">
-        <v>56.8</v>
+        <v>62.1</v>
       </c>
       <c r="H7">
-        <v>38.6</v>
+        <v>36.7</v>
       </c>
       <c r="I7">
-        <v>51.1</v>
+        <v>48.5</v>
       </c>
       <c r="J7">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="K7">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="L7">
-        <v>63.5</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="M7">
-        <v>70.8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2209,40 +2478,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35.5</v>
+        <v>32.9</v>
       </c>
       <c r="C8">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="E8">
-        <v>9.700000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="F8">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="H8">
-        <v>15.3</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>26.8</v>
+        <v>23.2</v>
       </c>
       <c r="J8">
-        <v>46.8</v>
+        <v>48.4</v>
       </c>
       <c r="K8">
+        <v>24.3</v>
+      </c>
+      <c r="L8">
+        <v>23.6</v>
+      </c>
+      <c r="M8">
         <v>22.8</v>
-      </c>
-      <c r="L8">
-        <v>26</v>
-      </c>
-      <c r="M8">
-        <v>20.4</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2250,40 +2519,40 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>23.9</v>
+        <v>25.2</v>
       </c>
       <c r="C9">
-        <v>92.30000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E9">
         <v>62.9</v>
       </c>
       <c r="F9">
-        <v>50.3</v>
+        <v>45.7</v>
       </c>
       <c r="G9">
-        <v>43.4</v>
+        <v>43.7</v>
       </c>
       <c r="H9">
-        <v>53.5</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="I9">
-        <v>55.7</v>
+        <v>60.4</v>
       </c>
       <c r="J9">
-        <v>46.40000000000001</v>
+        <v>47.5</v>
       </c>
       <c r="K9">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="L9">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="M9">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2291,40 +2560,40 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>45.6</v>
       </c>
       <c r="D10">
-        <v>32.2</v>
+        <v>33.6</v>
       </c>
       <c r="E10">
-        <v>19.6</v>
+        <v>20.8</v>
       </c>
       <c r="F10">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="G10">
-        <v>26.1</v>
+        <v>25.3</v>
       </c>
       <c r="H10">
-        <v>16.9</v>
+        <v>17.9</v>
       </c>
       <c r="I10">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J10">
-        <v>8.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="K10">
-        <v>21.4</v>
+        <v>20</v>
       </c>
       <c r="L10">
-        <v>7.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M10">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2332,34 +2601,34 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>5.3</v>
+        <v>7.3</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D11">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="E11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11">
+        <v>3.3</v>
+      </c>
+      <c r="H11">
+        <v>10.8</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
         <v>1.3</v>
       </c>
-      <c r="F11">
-        <v>0.6</v>
-      </c>
-      <c r="G11">
-        <v>3.2</v>
-      </c>
-      <c r="H11">
-        <v>10.9</v>
-      </c>
-      <c r="I11">
-        <v>4.8</v>
-      </c>
-      <c r="J11">
-        <v>1.4</v>
-      </c>
       <c r="K11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2382,322 +2651,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>99.63</v>
+      </c>
+      <c r="E2">
+        <v>0.455</v>
+      </c>
+      <c r="F2">
+        <v>116.26</v>
+      </c>
+      <c r="G2">
+        <v>0.636</v>
+      </c>
+      <c r="H2">
+        <v>19.7</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>90.64</v>
+      </c>
+      <c r="E3">
+        <v>0.182</v>
+      </c>
+      <c r="F3">
+        <v>112.56</v>
+      </c>
+      <c r="G3">
+        <v>0.545</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>100.02</v>
+      </c>
+      <c r="E4">
+        <v>0.545</v>
+      </c>
+      <c r="F4">
+        <v>110.88</v>
+      </c>
+      <c r="G4">
+        <v>0.515</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>118.2872727272727</v>
-      </c>
-      <c r="E2">
-        <v>1301.16</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>118.29</v>
+      </c>
+      <c r="E5">
+        <v>0.727</v>
+      </c>
+      <c r="F5">
+        <v>102.97</v>
+      </c>
+      <c r="G5">
+        <v>0.394</v>
+      </c>
+      <c r="H5">
+        <v>3.3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>102.17</v>
+      </c>
+      <c r="E6">
+        <v>0.364</v>
+      </c>
+      <c r="F6">
+        <v>108.66</v>
+      </c>
+      <c r="G6">
+        <v>0.576</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>97.81</v>
+      </c>
+      <c r="E7">
+        <v>0.364</v>
+      </c>
+      <c r="F7">
+        <v>105.53</v>
+      </c>
+      <c r="G7">
+        <v>0.455</v>
+      </c>
+      <c r="H7">
+        <v>1.7</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>118.65</v>
+      </c>
+      <c r="E8">
+        <v>0.545</v>
+      </c>
+      <c r="F8">
+        <v>105.98</v>
+      </c>
+      <c r="G8">
+        <v>0.576</v>
+      </c>
+      <c r="H8">
+        <v>-1.7</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D3">
-        <v>111.8418181818182</v>
-      </c>
-      <c r="E3">
-        <v>1230.26</v>
-      </c>
-      <c r="F3">
-        <v>99.2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D9">
+        <v>111.84</v>
+      </c>
+      <c r="E9">
+        <v>0.636</v>
+      </c>
+      <c r="F9">
+        <v>101.34</v>
+      </c>
+      <c r="G9">
+        <v>0.545</v>
+      </c>
+      <c r="H9">
+        <v>-12.3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="D10">
+        <v>104.37</v>
+      </c>
+      <c r="E10">
+        <v>0.636</v>
+      </c>
+      <c r="F10">
+        <v>103.94</v>
+      </c>
+      <c r="G10">
+        <v>0.455</v>
+      </c>
+      <c r="H10">
+        <v>-13.7</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D4">
-        <v>121.5890909090909</v>
-      </c>
-      <c r="E4">
-        <v>1337.48</v>
-      </c>
-      <c r="F4">
-        <v>98</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="I4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D5">
-        <v>104.3727272727273</v>
-      </c>
-      <c r="E5">
-        <v>1148.1</v>
-      </c>
-      <c r="F5">
-        <v>97.7</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D6">
-        <v>118.6454545454546</v>
-      </c>
-      <c r="E6">
-        <v>1305.1</v>
-      </c>
-      <c r="F6">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D7">
-        <v>100.0181818181818</v>
-      </c>
-      <c r="E7">
-        <v>1100.2</v>
-      </c>
-      <c r="F7">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D8">
-        <v>99.62909090909092</v>
-      </c>
-      <c r="E8">
-        <v>1095.92</v>
-      </c>
-      <c r="F8">
-        <v>24</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D9">
-        <v>102.1654545454545</v>
-      </c>
-      <c r="E9">
-        <v>1123.82</v>
-      </c>
-      <c r="F9">
-        <v>12.6</v>
-      </c>
-      <c r="G9">
-        <v>1.2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D10">
-        <v>97.81454545454545</v>
-      </c>
-      <c r="E10">
-        <v>1075.96</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>4.399999999999999</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="D11">
+        <v>121.59</v>
+      </c>
+      <c r="E11">
+        <v>0.545</v>
+      </c>
+      <c r="F11">
+        <v>96.87</v>
+      </c>
+      <c r="G11">
+        <v>0.303</v>
+      </c>
+      <c r="H11">
+        <v>-18</v>
+      </c>
+      <c r="I11">
         <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="D11">
-        <v>90.63636363636363</v>
-      </c>
-      <c r="E11">
-        <v>996.9999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>94.3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2706,6 +2972,338 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D2">
+        <v>118.2872727272727</v>
+      </c>
+      <c r="E2">
+        <v>1301.16</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D3">
+        <v>111.8418181818182</v>
+      </c>
+      <c r="E3">
+        <v>1230.26</v>
+      </c>
+      <c r="F3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D4">
+        <v>121.5890909090909</v>
+      </c>
+      <c r="E4">
+        <v>1337.48</v>
+      </c>
+      <c r="F4">
+        <v>98.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D5">
+        <v>104.3727272727273</v>
+      </c>
+      <c r="E5">
+        <v>1148.1</v>
+      </c>
+      <c r="F5">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D6">
+        <v>118.6454545454546</v>
+      </c>
+      <c r="E6">
+        <v>1305.1</v>
+      </c>
+      <c r="F6">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D7">
+        <v>100.0181818181818</v>
+      </c>
+      <c r="E7">
+        <v>1100.2</v>
+      </c>
+      <c r="F7">
+        <v>69.19999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D8">
+        <v>99.62909090909092</v>
+      </c>
+      <c r="E8">
+        <v>1095.92</v>
+      </c>
+      <c r="F8">
+        <v>22.6</v>
+      </c>
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D9">
+        <v>102.1654545454545</v>
+      </c>
+      <c r="E9">
+        <v>1123.82</v>
+      </c>
+      <c r="F9">
+        <v>13.8</v>
+      </c>
+      <c r="G9">
+        <v>1.3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D10">
+        <v>97.81454545454545</v>
+      </c>
+      <c r="E10">
+        <v>1075.96</v>
+      </c>
+      <c r="F10">
+        <v>3.5</v>
+      </c>
+      <c r="G10">
+        <v>5.2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D11">
+        <v>90.63636363636363</v>
+      </c>
+      <c r="E11">
+        <v>996.9999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2718,16 +3316,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2738,7 +3336,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>41</v>
@@ -2747,7 +3345,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2758,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -2767,7 +3365,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2778,7 +3376,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>22</v>
@@ -2787,7 +3385,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2798,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>-4</v>
@@ -2807,7 +3405,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2818,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>-10</v>
@@ -2827,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2838,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>-13</v>
@@ -2847,7 +3445,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2858,7 +3456,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>-13</v>
@@ -2867,7 +3465,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2878,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>-14</v>
@@ -2887,7 +3485,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2898,7 +3496,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>-17</v>
@@ -2907,7 +3505,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2918,7 +3516,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>-24</v>
@@ -2927,7 +3525,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2935,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -2945,40 +3543,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3019,7 +3617,7 @@
         <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3060,7 +3658,7 @@
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3101,7 +3699,7 @@
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3142,7 +3740,7 @@
         <v>-4</v>
       </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3183,7 +3781,7 @@
         <v>-10</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3224,7 +3822,7 @@
         <v>-13</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3265,7 +3863,7 @@
         <v>-13</v>
       </c>
       <c r="M8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3306,7 +3904,7 @@
         <v>-14</v>
       </c>
       <c r="M9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3347,7 +3945,7 @@
         <v>-17</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3388,251 +3986,7 @@
         <v>-24</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>-17</v>
-      </c>
-      <c r="F2">
-        <v>28</v>
-      </c>
-      <c r="G2">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>-5</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>-10</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>-4</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>-4</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>-6</v>
-      </c>
-      <c r="F8">
-        <v>-20</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>-12</v>
-      </c>
-      <c r="F9">
-        <v>-2</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="124">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -172,7 +172,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -265,7 +265,7 @@
     <t>8.8-5.2</t>
   </si>
   <si>
-    <t>8.0-5.9</t>
+    <t>8.0-6.0</t>
   </si>
   <si>
     <t>8.5-5.5</t>
@@ -283,10 +283,10 @@
     <t>5.4-8.6</t>
   </si>
   <si>
-    <t>5.2-8.8</t>
-  </si>
-  <si>
-    <t>3.0-11.0</t>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>2.9-11.0</t>
   </si>
   <si>
     <t>10-4</t>
@@ -1801,22 +1801,22 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>73.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C2">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D2">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="E2">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1839,25 +1839,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="C3">
-        <v>29.5</v>
+        <v>33.5</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>20.1</v>
       </c>
       <c r="E3">
-        <v>17.5</v>
+        <v>16.6</v>
       </c>
       <c r="F3">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="H3">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1877,28 +1877,28 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="C4">
-        <v>22.8</v>
+        <v>19.8</v>
       </c>
       <c r="D4">
-        <v>24.8</v>
+        <v>26.3</v>
       </c>
       <c r="E4">
-        <v>24.7</v>
+        <v>23.1</v>
       </c>
       <c r="F4">
-        <v>15.7</v>
+        <v>18.1</v>
       </c>
       <c r="G4">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H4">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>98.3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1915,28 +1915,28 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>20.1</v>
+        <v>18.4</v>
       </c>
       <c r="D5">
-        <v>17.8</v>
+        <v>19.9</v>
       </c>
       <c r="E5">
-        <v>21.7</v>
+        <v>22.7</v>
       </c>
       <c r="F5">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="H5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1953,28 +1953,28 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="C6">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="D6">
-        <v>21.1</v>
+        <v>19.9</v>
       </c>
       <c r="E6">
-        <v>23.6</v>
+        <v>24.2</v>
       </c>
       <c r="F6">
-        <v>24.4</v>
+        <v>22.1</v>
       </c>
       <c r="G6">
-        <v>11.4</v>
+        <v>12.7</v>
       </c>
       <c r="H6">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1994,34 +1994,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="D7">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="E7">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>15.3</v>
+        <v>14.4</v>
       </c>
       <c r="G7">
-        <v>39.3</v>
+        <v>38.5</v>
       </c>
       <c r="H7">
-        <v>19.3</v>
+        <v>17.7</v>
       </c>
       <c r="I7">
-        <v>9.6</v>
+        <v>11.4</v>
       </c>
       <c r="J7">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>69.2</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2032,34 +2032,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="H8">
-        <v>35.7</v>
+        <v>33.8</v>
       </c>
       <c r="I8">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="J8">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="K8">
         <v>0.2</v>
       </c>
       <c r="L8">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2076,28 +2076,28 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F9">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="H9">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="I9">
-        <v>33.2</v>
+        <v>29.8</v>
       </c>
       <c r="J9">
-        <v>28.2</v>
+        <v>31.7</v>
       </c>
       <c r="K9">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2117,25 +2117,25 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H10">
-        <v>13.4</v>
+        <v>15.7</v>
       </c>
       <c r="I10">
-        <v>29.1</v>
+        <v>32</v>
       </c>
       <c r="J10">
-        <v>48.8</v>
+        <v>44.4</v>
       </c>
       <c r="K10">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2164,13 +2164,13 @@
         <v>0.1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J11">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="K11">
-        <v>93.3</v>
+        <v>95</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2232,34 +2232,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>78.2</v>
+        <v>76.3</v>
       </c>
       <c r="C2">
-        <v>99.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D2">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J2">
+        <v>98.3</v>
+      </c>
+      <c r="K2">
         <v>99.5</v>
-      </c>
-      <c r="G2">
-        <v>99.3</v>
-      </c>
-      <c r="H2">
-        <v>99.7</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K2">
-        <v>99.7</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2273,122 +2273,122 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="C3">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D3">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="E3">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="F3">
-        <v>91.60000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="G3">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="H3">
-        <v>97.8</v>
+        <v>97</v>
       </c>
       <c r="I3">
-        <v>97.7</v>
+        <v>96.5</v>
       </c>
       <c r="J3">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="K3">
         <v>98.90000000000001</v>
       </c>
       <c r="L3">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="M3">
-        <v>99</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>71.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C4">
-        <v>39.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E4">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F4">
         <v>83.7</v>
       </c>
-      <c r="F4">
-        <v>90.3</v>
-      </c>
       <c r="G4">
-        <v>78.8</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="H4">
-        <v>93.10000000000001</v>
+        <v>95</v>
       </c>
       <c r="I4">
-        <v>88.40000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="J4">
-        <v>95.59999999999999</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="K4">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="L4">
+        <v>96.8</v>
+      </c>
+      <c r="M4">
         <v>98.2</v>
-      </c>
-      <c r="L4">
-        <v>97.2</v>
-      </c>
-      <c r="M4">
-        <v>98.3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>92.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C5">
-        <v>99.7</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>99.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E5">
-        <v>98.90000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F5">
-        <v>83.39999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="G5">
-        <v>77.90000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="H5">
-        <v>94.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="I5">
-        <v>83.8</v>
+        <v>86.8</v>
       </c>
       <c r="J5">
-        <v>94</v>
+        <v>93.7</v>
       </c>
       <c r="K5">
-        <v>86.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="L5">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="M5">
-        <v>97</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2399,37 +2399,37 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>82.19999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="D6">
-        <v>84.8</v>
+        <v>85.8</v>
       </c>
       <c r="E6">
-        <v>87.3</v>
+        <v>89.8</v>
       </c>
       <c r="F6">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="G6">
-        <v>87.90000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H6">
-        <v>78.8</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="I6">
-        <v>88.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="J6">
-        <v>75.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K6">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="L6">
-        <v>94.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="M6">
-        <v>96.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2437,40 +2437,40 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>72.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="C7">
-        <v>52.40000000000001</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>14.6</v>
+        <v>13.3</v>
       </c>
       <c r="E7">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="F7">
-        <v>66.60000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="G7">
-        <v>62.1</v>
+        <v>58.5</v>
       </c>
       <c r="H7">
-        <v>36.7</v>
+        <v>37.8</v>
       </c>
       <c r="I7">
-        <v>48.5</v>
+        <v>50</v>
       </c>
       <c r="J7">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="K7">
-        <v>50.8</v>
+        <v>48.4</v>
       </c>
       <c r="L7">
-        <v>65.60000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>70.19999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2478,40 +2478,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.9</v>
+        <v>33.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
-        <v>11.7</v>
+        <v>7.3</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="G8">
-        <v>22.8</v>
+        <v>23.9</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>49.1</v>
+      </c>
+      <c r="K8">
+        <v>21.8</v>
+      </c>
+      <c r="L8">
         <v>23.2</v>
       </c>
-      <c r="J8">
-        <v>48.4</v>
-      </c>
-      <c r="K8">
-        <v>24.3</v>
-      </c>
-      <c r="L8">
-        <v>23.6</v>
-      </c>
       <c r="M8">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2519,40 +2519,40 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>25.2</v>
+        <v>21.9</v>
       </c>
       <c r="C9">
-        <v>90.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D9">
-        <v>94.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="E9">
-        <v>62.9</v>
+        <v>62.7</v>
       </c>
       <c r="F9">
-        <v>45.7</v>
+        <v>47.9</v>
       </c>
       <c r="G9">
-        <v>43.7</v>
+        <v>41.6</v>
       </c>
       <c r="H9">
-        <v>57.59999999999999</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="I9">
-        <v>60.4</v>
+        <v>59.8</v>
       </c>
       <c r="J9">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="K9">
-        <v>34</v>
+        <v>38.4</v>
       </c>
       <c r="L9">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>12.8</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2560,40 +2560,40 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>22.1</v>
+        <v>23.4</v>
       </c>
       <c r="C10">
-        <v>45.6</v>
+        <v>46.2</v>
       </c>
       <c r="D10">
-        <v>33.6</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="F10">
-        <v>42.2</v>
+        <v>41.8</v>
       </c>
       <c r="G10">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="H10">
-        <v>17.9</v>
+        <v>16.8</v>
       </c>
       <c r="I10">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="J10">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="L10">
-        <v>9.300000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="M10">
-        <v>4.6</v>
+        <v>4.399999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2601,34 +2601,34 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>0.8999999999999999</v>
       </c>
-      <c r="F11">
-        <v>0.8</v>
-      </c>
       <c r="G11">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H11">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="J11">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K11">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2689,8 +2689,8 @@
       <c r="D2">
         <v>99.63</v>
       </c>
-      <c r="E2">
-        <v>0.455</v>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2">
         <v>116.26</v>
@@ -2718,8 +2718,8 @@
       <c r="D3">
         <v>90.64</v>
       </c>
-      <c r="E3">
-        <v>0.182</v>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
       <c r="F3">
         <v>112.56</v>
@@ -2747,8 +2747,8 @@
       <c r="D4">
         <v>100.02</v>
       </c>
-      <c r="E4">
-        <v>0.545</v>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
       <c r="F4">
         <v>110.88</v>
@@ -2776,8 +2776,8 @@
       <c r="D5">
         <v>118.29</v>
       </c>
-      <c r="E5">
-        <v>0.727</v>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
       <c r="F5">
         <v>102.97</v>
@@ -2805,8 +2805,8 @@
       <c r="D6">
         <v>102.17</v>
       </c>
-      <c r="E6">
-        <v>0.364</v>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
       <c r="F6">
         <v>108.66</v>
@@ -2834,8 +2834,8 @@
       <c r="D7">
         <v>97.81</v>
       </c>
-      <c r="E7">
-        <v>0.364</v>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
         <v>105.53</v>
@@ -2863,8 +2863,8 @@
       <c r="D8">
         <v>118.65</v>
       </c>
-      <c r="E8">
-        <v>0.545</v>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
       <c r="F8">
         <v>105.98</v>
@@ -2892,8 +2892,8 @@
       <c r="D9">
         <v>111.84</v>
       </c>
-      <c r="E9">
-        <v>0.636</v>
+      <c r="E9" t="s">
+        <v>10</v>
       </c>
       <c r="F9">
         <v>101.34</v>
@@ -2921,8 +2921,8 @@
       <c r="D10">
         <v>104.37</v>
       </c>
-      <c r="E10">
-        <v>0.636</v>
+      <c r="E10" t="s">
+        <v>10</v>
       </c>
       <c r="F10">
         <v>103.94</v>
@@ -2950,8 +2950,8 @@
       <c r="D11">
         <v>121.59</v>
       </c>
-      <c r="E11">
-        <v>0.545</v>
+      <c r="E11" t="s">
+        <v>14</v>
       </c>
       <c r="F11">
         <v>96.87</v>
@@ -3054,7 +3054,7 @@
         <v>1230.26</v>
       </c>
       <c r="F3">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>1337.48</v>
       </c>
       <c r="F4">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>1148.1</v>
       </c>
       <c r="F5">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>1305.1</v>
       </c>
       <c r="F6">
-        <v>95.89999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>1100.2</v>
       </c>
       <c r="F7">
-        <v>69.19999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>1095.92</v>
       </c>
       <c r="F8">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="G8">
         <v>0.2</v>
@@ -3228,10 +3228,10 @@
         <v>1123.82</v>
       </c>
       <c r="F9">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="G9">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
@@ -3257,10 +3257,10 @@
         <v>1075.96</v>
       </c>
       <c r="F10">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="G10">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="s">
         <v>86</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>93.30000000000001</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
         <v>87</v>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="127">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -55,28 +55,31 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -166,6 +169,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -190,30 +196,30 @@
     <t xml:space="preserve">Katie  Kush </t>
   </si>
   <si>
+    <t>Ava Patterson</t>
+  </si>
+  <si>
+    <t>Julie Williston</t>
+  </si>
+  <si>
+    <t>Casey Reid</t>
+  </si>
+  <si>
     <t>Carly Foster</t>
   </si>
   <si>
-    <t>Ava Patterson</t>
+    <t>Morgan Herber</t>
+  </si>
+  <si>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
+    <t>Rachel Hall</t>
   </si>
   <si>
     <t>Jessica McNally</t>
   </si>
   <si>
-    <t>Julie Williston</t>
-  </si>
-  <si>
-    <t>Casey Reid</t>
-  </si>
-  <si>
-    <t>Rachel Hall</t>
-  </si>
-  <si>
-    <t>Haley Toadvine</t>
-  </si>
-  <si>
-    <t>Morgan Herber</t>
-  </si>
-  <si>
     <t>Lauren  Ettlinger</t>
   </si>
   <si>
@@ -241,55 +247,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>9.9-4.1</t>
-  </si>
-  <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>2.9-11.0</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>9.1-4.9</t>
+  </si>
+  <si>
+    <t>8.3-5.6</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>10.4-3.6</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>7.2-6.7</t>
+  </si>
+  <si>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>2.7-11.3</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
   </si>
   <si>
     <t>9-5</t>
@@ -298,18 +301,21 @@
     <t>8-6</t>
   </si>
   <si>
+    <t>11-3</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>5-9</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -319,27 +325,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑8</t>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓11</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>↓4</t>
   </si>
   <si>
@@ -374,6 +380,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -822,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -836,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -851,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -874,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -886,13 +895,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -903,31 +912,31 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -941,28 +950,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -973,28 +982,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -1011,10 +1020,10 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1023,16 +1032,16 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1040,34 +1049,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1078,13 +1087,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1093,16 +1102,16 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
         <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1113,31 +1122,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1155,25 +1164,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1337,25 +1346,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>-20</v>
+        <v>38</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1363,25 +1372,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1399,13 +1408,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1416,10 +1425,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1430,10 +1439,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1444,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1458,10 +1467,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1469,13 +1478,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1483,13 +1492,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1497,13 +1506,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1511,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1525,13 +1534,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1542,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1563,16 +1572,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1583,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="D2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1600,13 +1609,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="D3">
-        <v>-0.4000000000000004</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1617,13 +1626,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D4">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1634,10 +1643,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>-0.7000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1651,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="D6">
         <v>-1.9</v>
@@ -1665,16 +1674,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D7">
-        <v>0.7999999999999998</v>
+        <v>-1.9</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1682,16 +1691,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D8">
-        <v>-1.4</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1702,13 +1711,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D9">
-        <v>-0.7000000000000002</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1725,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1736,13 +1745,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1760,63 +1769,63 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>74.40000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="C2">
-        <v>14.8</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>7.1</v>
+        <v>27.2</v>
       </c>
       <c r="E2">
-        <v>3.1</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>10.2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1836,28 +1845,28 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>11.1</v>
+        <v>1.7</v>
       </c>
       <c r="C3">
-        <v>33.5</v>
+        <v>18.2</v>
       </c>
       <c r="D3">
-        <v>20.1</v>
+        <v>36.6</v>
       </c>
       <c r="E3">
-        <v>16.6</v>
+        <v>32.8</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>8.9</v>
       </c>
       <c r="G3">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H3">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1869,36 +1878,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>98.59999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="C4">
-        <v>19.8</v>
+        <v>45.8</v>
       </c>
       <c r="D4">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="E4">
-        <v>23.1</v>
+        <v>12.9</v>
       </c>
       <c r="F4">
-        <v>18.1</v>
+        <v>11.1</v>
       </c>
       <c r="G4">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1907,33 +1916,33 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>90.5</v>
       </c>
       <c r="C5">
-        <v>18.4</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>19.9</v>
+        <v>2.4</v>
       </c>
       <c r="E5">
-        <v>22.7</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1945,36 +1954,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>19.9</v>
+        <v>6.4</v>
       </c>
       <c r="E6">
-        <v>24.2</v>
+        <v>8.9</v>
       </c>
       <c r="F6">
-        <v>22.1</v>
+        <v>31.7</v>
       </c>
       <c r="G6">
-        <v>12.7</v>
+        <v>48.2</v>
       </c>
       <c r="H6">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="I6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1983,45 +1992,45 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>95.59999999999999</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>15.3</v>
       </c>
       <c r="F7">
-        <v>14.4</v>
+        <v>38.1</v>
       </c>
       <c r="G7">
-        <v>38.5</v>
+        <v>40.2</v>
       </c>
       <c r="H7">
-        <v>17.7</v>
+        <v>4.9</v>
       </c>
       <c r="I7">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>68.7</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2032,39 +2041,39 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>16.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H8">
-        <v>33.8</v>
+        <v>51.5</v>
       </c>
       <c r="I8">
-        <v>25.4</v>
+        <v>28.9</v>
       </c>
       <c r="J8">
-        <v>17.5</v>
+        <v>9.9</v>
       </c>
       <c r="K8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>23.1</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2076,33 +2085,33 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0.1</v>
       </c>
-      <c r="F9">
-        <v>2.4</v>
-      </c>
-      <c r="G9">
-        <v>11.2</v>
-      </c>
-      <c r="H9">
-        <v>23.3</v>
-      </c>
-      <c r="I9">
-        <v>29.8</v>
-      </c>
       <c r="J9">
-        <v>31.7</v>
+        <v>3.4</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>96.5</v>
       </c>
       <c r="L9">
-        <v>13.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2117,30 +2126,30 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>15.7</v>
+        <v>24.3</v>
       </c>
       <c r="I10">
-        <v>32</v>
+        <v>41.3</v>
       </c>
       <c r="J10">
-        <v>44.4</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="L10">
-        <v>4.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2161,16 +2170,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1</v>
+        <v>14.5</v>
       </c>
       <c r="I11">
-        <v>0.7</v>
+        <v>29.7</v>
       </c>
       <c r="J11">
-        <v>4.2</v>
+        <v>52.7</v>
       </c>
       <c r="K11">
-        <v>95</v>
+        <v>3.1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2183,457 +2192,490 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>76.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C2">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D2">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E2">
-        <v>99.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="G2">
-        <v>99.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="H2">
-        <v>99.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="I2">
-        <v>99.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="J2">
-        <v>98.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="K2">
-        <v>99.5</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>69.3</v>
+      </c>
+      <c r="C3">
+        <v>39.2</v>
+      </c>
+      <c r="D3">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="E3">
+        <v>84.8</v>
+      </c>
+      <c r="F3">
+        <v>88.8</v>
+      </c>
+      <c r="G3">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="H3">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="I3">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="J3">
+        <v>94.8</v>
+      </c>
+      <c r="K3">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="L3">
+        <v>96.8</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C4">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>98.3</v>
+      </c>
+      <c r="E4">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="F4">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="G4">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="H4">
+        <v>96</v>
+      </c>
+      <c r="I4">
+        <v>97.2</v>
+      </c>
+      <c r="J4">
+        <v>99.2</v>
+      </c>
+      <c r="K4">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="L4">
+        <v>98.7</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>76.7</v>
+      </c>
+      <c r="C5">
+        <v>99.3</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>99.7</v>
+      </c>
+      <c r="F5">
         <v>98.8</v>
       </c>
-      <c r="C3">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="D3">
-        <v>98.7</v>
-      </c>
-      <c r="E3">
-        <v>88.8</v>
-      </c>
-      <c r="F3">
-        <v>91.3</v>
-      </c>
-      <c r="G3">
-        <v>99</v>
-      </c>
-      <c r="H3">
-        <v>97</v>
-      </c>
-      <c r="I3">
-        <v>96.5</v>
-      </c>
-      <c r="J3">
-        <v>98.7</v>
-      </c>
-      <c r="K3">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="L3">
-        <v>98.5</v>
-      </c>
-      <c r="M3">
-        <v>99.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="C4">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E4">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F4">
-        <v>83.7</v>
-      </c>
-      <c r="G4">
-        <v>80.60000000000001</v>
-      </c>
-      <c r="H4">
-        <v>95</v>
-      </c>
-      <c r="I4">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="J4">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="K4">
-        <v>85.39999999999999</v>
-      </c>
-      <c r="L4">
-        <v>96.8</v>
-      </c>
-      <c r="M4">
-        <v>98.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="C5">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E5">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="F5">
-        <v>88.2</v>
-      </c>
       <c r="G5">
-        <v>79.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H5">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>86.8</v>
+        <v>99.2</v>
       </c>
       <c r="J5">
-        <v>93.7</v>
+        <v>98</v>
       </c>
       <c r="K5">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="L5">
-        <v>96.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>98.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C6">
-        <v>85.39999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="D6">
-        <v>85.8</v>
+        <v>84.2</v>
       </c>
       <c r="E6">
-        <v>89.8</v>
+        <v>90.8</v>
       </c>
       <c r="F6">
-        <v>77.3</v>
+        <v>75.8</v>
       </c>
       <c r="G6">
-        <v>88.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="H6">
-        <v>79.60000000000001</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="I6">
-        <v>87.40000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="J6">
-        <v>79.5</v>
+        <v>78</v>
       </c>
       <c r="K6">
-        <v>87.5</v>
+        <v>89.2</v>
       </c>
       <c r="L6">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="M6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>93.2</v>
+      </c>
+      <c r="N6">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>73.7</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>52.1</v>
       </c>
       <c r="D7">
-        <v>13.3</v>
+        <v>14.7</v>
       </c>
       <c r="E7">
-        <v>44.8</v>
+        <v>45.9</v>
       </c>
       <c r="F7">
-        <v>65.7</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G7">
-        <v>58.5</v>
+        <v>59.5</v>
       </c>
       <c r="H7">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J7">
-        <v>29.5</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>48.4</v>
+        <v>52.2</v>
       </c>
       <c r="L7">
-        <v>65.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="M7">
-        <v>70.19999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>92.60000000000001</v>
+      </c>
+      <c r="N7">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.5</v>
+        <v>39.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>7.3</v>
+        <v>9.4</v>
       </c>
       <c r="F8">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>23.9</v>
+        <v>22.7</v>
       </c>
       <c r="H8">
-        <v>12.2</v>
+        <v>14.5</v>
       </c>
       <c r="I8">
-        <v>24</v>
+        <v>25.8</v>
       </c>
       <c r="J8">
-        <v>49.1</v>
+        <v>46.7</v>
       </c>
       <c r="K8">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="L8">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="M8">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10.5</v>
+      </c>
+      <c r="N8">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>21.9</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>93.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D9">
-        <v>93.2</v>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>62.7</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F9">
-        <v>47.9</v>
+        <v>49.7</v>
       </c>
       <c r="G9">
-        <v>41.6</v>
+        <v>44.2</v>
       </c>
       <c r="H9">
-        <v>57.09999999999999</v>
+        <v>55.2</v>
       </c>
       <c r="I9">
-        <v>59.8</v>
+        <v>59.7</v>
       </c>
       <c r="J9">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="K9">
-        <v>38.4</v>
+        <v>35.5</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="M9">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.1</v>
+      </c>
+      <c r="N9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>7.5</v>
+      </c>
+      <c r="C10">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="D10">
+        <v>3.1</v>
+      </c>
+      <c r="E10">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>3.9</v>
+      </c>
+      <c r="H10">
+        <v>12.6</v>
+      </c>
+      <c r="I10">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="J10">
+        <v>1.7</v>
+      </c>
+      <c r="K10">
+        <v>0.3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>23.4</v>
-      </c>
-      <c r="C10">
-        <v>46.2</v>
-      </c>
-      <c r="D10">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>21.2</v>
-      </c>
-      <c r="F10">
-        <v>41.8</v>
-      </c>
-      <c r="G10">
-        <v>24.3</v>
-      </c>
-      <c r="H10">
-        <v>16.8</v>
-      </c>
-      <c r="I10">
-        <v>3.2</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>20.7</v>
-      </c>
-      <c r="L10">
-        <v>10.9</v>
-      </c>
-      <c r="M10">
-        <v>4.399999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B11">
-        <v>6.4</v>
+        <v>22.7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="D11">
-        <v>2.9</v>
+        <v>33.1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>17.6</v>
       </c>
       <c r="F11">
-        <v>0.8999999999999999</v>
+        <v>40.9</v>
       </c>
       <c r="G11">
-        <v>3.8</v>
+        <v>25.5</v>
       </c>
       <c r="H11">
-        <v>10.6</v>
+        <v>13.7</v>
       </c>
       <c r="I11">
-        <v>6.600000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="J11">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>19.8</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M11">
+        <v>0.6</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
     </row>
@@ -2652,28 +2694,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2684,25 +2726,25 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>99.63</v>
+        <v>98.88</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>116.26</v>
+        <v>116.75</v>
       </c>
       <c r="G2">
-        <v>0.636</v>
+        <v>0.625</v>
       </c>
       <c r="H2">
-        <v>19.7</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2710,28 +2752,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>90.64</v>
+        <v>98.64</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>112.56</v>
+        <v>113.68</v>
       </c>
       <c r="G3">
-        <v>0.545</v>
+        <v>0.583</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2739,28 +2781,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>100.02</v>
+        <v>100.44</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>110.88</v>
+        <v>116.16</v>
       </c>
       <c r="G4">
-        <v>0.515</v>
+        <v>0.625</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2768,28 +2810,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>118.29</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>102.97</v>
+        <v>106.79</v>
       </c>
       <c r="G5">
-        <v>0.394</v>
+        <v>0.375</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2797,28 +2839,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>102.17</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>108.66</v>
+        <v>107.17</v>
       </c>
       <c r="G6">
-        <v>0.576</v>
+        <v>0.542</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>-1.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2826,28 +2868,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>97.81</v>
+        <v>108.39</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>105.53</v>
+        <v>106.49</v>
       </c>
       <c r="G7">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="H7">
-        <v>1.7</v>
+        <v>-8.5</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2855,28 +2897,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>118.65</v>
+        <v>112.54</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>105.98</v>
+        <v>103.51</v>
       </c>
       <c r="G8">
-        <v>0.576</v>
+        <v>0.625</v>
       </c>
       <c r="H8">
-        <v>-1.7</v>
+        <v>-11</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2884,28 +2926,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>114.81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>98.76000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>-13.5</v>
+      </c>
+      <c r="I9">
         <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9">
-        <v>111.84</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>101.34</v>
-      </c>
-      <c r="G9">
-        <v>0.545</v>
-      </c>
-      <c r="H9">
-        <v>-12.3</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2913,28 +2955,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>104.37</v>
+        <v>118.69</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>103.94</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="G10">
-        <v>0.455</v>
+        <v>0.292</v>
       </c>
       <c r="H10">
-        <v>-13.7</v>
+        <v>-15</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2945,25 +2987,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>121.59</v>
+        <v>123.93</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11">
-        <v>96.87</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="G11">
-        <v>0.303</v>
+        <v>0.333</v>
       </c>
       <c r="H11">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2981,48 +3023,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>118.2872727272727</v>
+        <v>108.3883333333333</v>
       </c>
       <c r="E2">
-        <v>1301.16</v>
+        <v>1300.66</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3031,65 +3073,65 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D3">
-        <v>111.8418181818182</v>
+        <v>123.9333333333333</v>
       </c>
       <c r="E3">
-        <v>1230.26</v>
+        <v>1487.2</v>
       </c>
       <c r="F3">
-        <v>98.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
       </c>
       <c r="C4">
-        <v>0.5454545454545454</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>121.5890909090909</v>
+        <v>112.5433333333333</v>
       </c>
       <c r="E4">
-        <v>1337.48</v>
+        <v>1350.52</v>
       </c>
       <c r="F4">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
         <v>90</v>
@@ -3097,89 +3139,89 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>0.6363636363636364</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>104.3727272727273</v>
+        <v>118.6933333333333</v>
       </c>
       <c r="E5">
-        <v>1148.1</v>
+        <v>1424.32</v>
       </c>
       <c r="F5">
-        <v>97.7</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D6">
-        <v>118.6454545454546</v>
+        <v>98.63999999999999</v>
       </c>
       <c r="E6">
-        <v>1305.1</v>
+        <v>1183.68</v>
       </c>
       <c r="F6">
-        <v>95.59999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>100.0181818181818</v>
+        <v>114.81</v>
       </c>
       <c r="E7">
-        <v>1100.2</v>
+        <v>1377.72</v>
       </c>
       <c r="F7">
-        <v>68.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3187,115 +3229,115 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D8">
-        <v>99.62909090909092</v>
+        <v>98.88166666666667</v>
       </c>
       <c r="E8">
-        <v>1095.92</v>
+        <v>1186.58</v>
       </c>
       <c r="F8">
-        <v>23.1</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9">
-        <v>0.3636363636363636</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D9">
-        <v>102.1654545454545</v>
+        <v>89.64666666666666</v>
       </c>
       <c r="E9">
-        <v>1123.82</v>
+        <v>1075.76</v>
       </c>
       <c r="F9">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1.5</v>
+        <v>96.5</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C10">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>97.81454545454545</v>
+        <v>100.4383333333333</v>
       </c>
       <c r="E10">
-        <v>1075.96</v>
+        <v>1205.26</v>
       </c>
       <c r="F10">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>0.1818181818181818</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>90.63636363636363</v>
+        <v>95.64833333333333</v>
       </c>
       <c r="E11">
-        <v>996.9999999999999</v>
+        <v>1147.78</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>95</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3313,19 +3355,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3336,16 +3378,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3356,16 +3398,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3376,16 +3418,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3396,16 +3438,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3416,16 +3458,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3433,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>-13</v>
@@ -3445,7 +3487,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3456,16 +3498,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3473,19 +3515,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3496,16 +3538,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3519,13 +3561,13 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3535,51 +3577,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>119</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3616,11 +3661,14 @@
       <c r="L2">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3657,11 +3705,14 @@
       <c r="L3">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3698,11 +3749,14 @@
       <c r="L4">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3739,11 +3793,14 @@
       <c r="L5">
         <v>-4</v>
       </c>
-      <c r="M5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3780,52 +3837,58 @@
       <c r="L6">
         <v>-10</v>
       </c>
-      <c r="M6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>-8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>-11</v>
+      </c>
+      <c r="G7">
+        <v>-7</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>-6</v>
       </c>
-      <c r="F7">
-        <v>-4</v>
-      </c>
-      <c r="G7">
-        <v>-5</v>
-      </c>
-      <c r="H7">
-        <v>-7</v>
-      </c>
-      <c r="I7">
-        <v>-5</v>
-      </c>
-      <c r="J7">
-        <v>-6</v>
-      </c>
-      <c r="K7">
-        <v>-2</v>
-      </c>
       <c r="L7">
+        <v>-14</v>
+      </c>
+      <c r="M7">
         <v>-13</v>
       </c>
-      <c r="M7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3862,52 +3925,58 @@
       <c r="L8">
         <v>-13</v>
       </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>-14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>-6</v>
       </c>
-      <c r="C9">
+      <c r="F9">
+        <v>-4</v>
+      </c>
+      <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9">
+        <v>-7</v>
+      </c>
+      <c r="I9">
+        <v>-5</v>
+      </c>
+      <c r="J9">
         <v>-6</v>
       </c>
-      <c r="D9">
-        <v>-7</v>
-      </c>
-      <c r="E9">
-        <v>-4</v>
-      </c>
-      <c r="F9">
-        <v>-11</v>
-      </c>
-      <c r="G9">
-        <v>-7</v>
-      </c>
-      <c r="H9">
-        <v>-6</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="L9">
-        <v>-14</v>
-      </c>
-      <c r="M9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>-13</v>
+      </c>
+      <c r="M9">
+        <v>-17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3944,11 +4013,14 @@
       <c r="L10">
         <v>-17</v>
       </c>
-      <c r="M10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3985,8 +4057,11 @@
       <c r="L11">
         <v>-24</v>
       </c>
-      <c r="M11" t="s">
-        <v>105</v>
+      <c r="M11">
+        <v>-25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="130">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -55,31 +55,34 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -172,6 +175,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -193,36 +199,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Julie Williston</t>
+  </si>
+  <si>
+    <t>Ava Patterson</t>
+  </si>
+  <si>
     <t xml:space="preserve">Katie  Kush </t>
   </si>
   <si>
-    <t>Ava Patterson</t>
-  </si>
-  <si>
-    <t>Julie Williston</t>
+    <t>Morgan Herber</t>
+  </si>
+  <si>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
+    <t>Jessica McNally</t>
   </si>
   <si>
     <t>Casey Reid</t>
   </si>
   <si>
+    <t>Lauren  Ettlinger</t>
+  </si>
+  <si>
+    <t>Rachel Hall</t>
+  </si>
+  <si>
     <t>Carly Foster</t>
   </si>
   <si>
-    <t>Morgan Herber</t>
-  </si>
-  <si>
-    <t>Haley Toadvine</t>
-  </si>
-  <si>
-    <t>Rachel Hall</t>
-  </si>
-  <si>
-    <t>Jessica McNally</t>
-  </si>
-  <si>
-    <t>Lauren  Ettlinger</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -247,60 +253,60 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>9.1-4.9</t>
-  </si>
-  <si>
-    <t>8.3-5.6</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>10.4-3.6</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>7.2-6.7</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>2.7-11.3</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>9.5-4.5</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>10.7-3.3</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>2.4-11.6</t>
+  </si>
+  <si>
+    <t>4.3-9.7</t>
+  </si>
+  <si>
+    <t>4.6-9.4</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>11-3</t>
   </si>
   <si>
@@ -310,7 +316,10 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>3-11</t>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>5-9</t>
@@ -325,27 +334,24 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>↓4</t>
   </si>
   <si>
@@ -383,6 +389,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -807,25 +816,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -848,10 +857,10 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -877,16 +886,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -895,13 +904,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -924,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -950,28 +959,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -991,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -1014,34 +1023,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1049,31 +1058,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -1084,34 +1093,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1122,25 +1131,25 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -1156,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1164,25 +1173,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1190,25 +1199,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>-17</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>-14</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1216,25 +1225,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>-17</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1245,22 +1254,22 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1268,25 +1277,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="G5">
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1294,25 +1303,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>-10</v>
+      </c>
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>-4</v>
-      </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1320,25 +1329,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
         <v>-4</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
       </c>
       <c r="G7">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1346,25 +1355,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1372,24 +1381,50 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-6</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-20</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1408,13 +1443,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1422,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1436,13 +1471,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1453,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1464,13 +1499,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1478,13 +1513,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1492,13 +1527,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1506,13 +1541,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1523,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1534,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1548,10 +1583,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1572,16 +1607,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1592,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="D2">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1609,10 +1644,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D3">
-        <v>-0.5999999999999996</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1626,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1643,10 +1678,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1660,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="D6">
         <v>-1.9</v>
@@ -1674,16 +1709,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D7">
-        <v>-1.9</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1691,16 +1726,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="D8">
-        <v>1.1</v>
+        <v>-1.6</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1708,16 +1743,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D9">
-        <v>-0.2000000000000002</v>
+        <v>1.1</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1728,13 +1763,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1745,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D11">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1769,40 +1804,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1810,22 +1845,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>49.4</v>
       </c>
       <c r="D2">
-        <v>27.2</v>
+        <v>17.9</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>31.7</v>
       </c>
       <c r="F2">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1848,22 +1883,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>36.6</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E3">
-        <v>32.8</v>
+        <v>35.4</v>
       </c>
       <c r="F3">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1886,19 +1921,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>45.8</v>
+        <v>49.6</v>
       </c>
       <c r="D4">
-        <v>25.9</v>
+        <v>17.5</v>
       </c>
       <c r="E4">
-        <v>12.9</v>
+        <v>32.9</v>
       </c>
       <c r="F4">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1924,16 +1959,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>90.5</v>
+        <v>99</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1959,7 +1994,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1968,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>31.7</v>
+        <v>59.9</v>
       </c>
       <c r="G6">
-        <v>48.2</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>4.8</v>
+        <v>14.1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1992,12 +2027,12 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>95.2</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2006,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>38.1</v>
+        <v>40.1</v>
       </c>
       <c r="G7">
-        <v>40.2</v>
+        <v>41.9</v>
       </c>
       <c r="H7">
-        <v>4.9</v>
+        <v>18</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2030,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>95.09999999999999</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2053,22 +2088,22 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>9.699999999999999</v>
+        <v>32.1</v>
       </c>
       <c r="H8">
-        <v>51.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I8">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.699999999999999</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2097,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>96.5</v>
+        <v>100</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2132,16 +2167,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>41.3</v>
+        <v>53</v>
       </c>
       <c r="J10">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2170,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>29.7</v>
+        <v>47</v>
       </c>
       <c r="J11">
-        <v>52.7</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2192,89 +2227,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>90.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="C2">
         <v>99.8</v>
       </c>
       <c r="D2">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E2">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F2">
         <v>84.5</v>
       </c>
       <c r="G2">
-        <v>75.8</v>
+        <v>76.7</v>
       </c>
       <c r="H2">
-        <v>95</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I2">
-        <v>84.5</v>
+        <v>87.5</v>
       </c>
       <c r="J2">
-        <v>91.40000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="K2">
-        <v>84.39999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="L2">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2282,43 +2320,46 @@
       <c r="N2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C3">
-        <v>39.2</v>
+        <v>38.5</v>
       </c>
       <c r="D3">
-        <v>71.89999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="E3">
-        <v>84.8</v>
+        <v>87</v>
       </c>
       <c r="F3">
-        <v>88.8</v>
+        <v>90</v>
       </c>
       <c r="G3">
-        <v>81.39999999999999</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="H3">
-        <v>94.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="I3">
-        <v>85.59999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="J3">
-        <v>94.8</v>
+        <v>95.3</v>
       </c>
       <c r="K3">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="L3">
-        <v>96.8</v>
+        <v>96</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2326,84 +2367,90 @@
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>88.3</v>
       </c>
       <c r="D4">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E4">
-        <v>87.90000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="F4">
-        <v>92.10000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G4">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="I4">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="J4">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="K4">
         <v>99.2</v>
       </c>
-      <c r="K4">
-        <v>98.59999999999999</v>
-      </c>
       <c r="L4">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>76.7</v>
+        <v>77.5</v>
       </c>
       <c r="C5">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="E5">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F5">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G5">
-        <v>99.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J5">
-        <v>98</v>
+        <v>98.7</v>
       </c>
       <c r="K5">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -2414,268 +2461,289 @@
       <c r="N5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>80.2</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="D6">
-        <v>84.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="E6">
-        <v>90.8</v>
+        <v>88.8</v>
       </c>
       <c r="F6">
-        <v>75.8</v>
+        <v>75.2</v>
       </c>
       <c r="G6">
-        <v>89.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="H6">
         <v>80.80000000000001</v>
       </c>
       <c r="I6">
-        <v>87.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="J6">
-        <v>78</v>
+        <v>77.3</v>
       </c>
       <c r="K6">
-        <v>89.2</v>
+        <v>87</v>
       </c>
       <c r="L6">
-        <v>93.8</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="M6">
-        <v>93.2</v>
+        <v>92.2</v>
       </c>
       <c r="N6">
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>83</v>
+      </c>
+      <c r="O6">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>68.60000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="C7">
-        <v>52.1</v>
+        <v>51.6</v>
       </c>
       <c r="D7">
-        <v>14.7</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>45.9</v>
+        <v>43.1</v>
       </c>
       <c r="F7">
-        <v>65.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G7">
-        <v>59.5</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="H7">
-        <v>38.1</v>
+        <v>37.5</v>
       </c>
       <c r="I7">
-        <v>51</v>
+        <v>48.2</v>
       </c>
       <c r="J7">
-        <v>33</v>
+        <v>32.4</v>
       </c>
       <c r="K7">
-        <v>52.2</v>
+        <v>49.8</v>
       </c>
       <c r="L7">
-        <v>66.5</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="M7">
-        <v>92.60000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="N7">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>80.80000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>39.5</v>
+        <v>35.4</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E8">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G8">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="H8">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="I8">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="J8">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="K8">
-        <v>22.1</v>
+        <v>25.3</v>
       </c>
       <c r="L8">
         <v>24.7</v>
       </c>
       <c r="M8">
-        <v>10.5</v>
+        <v>11.8</v>
       </c>
       <c r="N8">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>37</v>
+      </c>
+      <c r="O8">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>5.5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1.9</v>
+      </c>
+      <c r="E9">
+        <v>1.3</v>
+      </c>
+      <c r="F9">
+        <v>0.6</v>
+      </c>
+      <c r="G9">
+        <v>4.5</v>
+      </c>
+      <c r="H9">
+        <v>10.9</v>
+      </c>
+      <c r="I9">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="J9">
+        <v>1.1</v>
+      </c>
+      <c r="K9">
+        <v>0.2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="D9">
-        <v>94</v>
-      </c>
-      <c r="E9">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="F9">
-        <v>49.7</v>
-      </c>
-      <c r="G9">
-        <v>44.2</v>
-      </c>
-      <c r="H9">
-        <v>55.2</v>
-      </c>
-      <c r="I9">
-        <v>59.7</v>
-      </c>
-      <c r="J9">
-        <v>48.7</v>
-      </c>
-      <c r="K9">
-        <v>35.5</v>
-      </c>
-      <c r="L9">
-        <v>14.9</v>
-      </c>
-      <c r="M9">
-        <v>3.1</v>
-      </c>
-      <c r="N9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B10">
-        <v>7.5</v>
+        <v>24.4</v>
       </c>
       <c r="C10">
-        <v>0.8999999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="D10">
-        <v>3.1</v>
+        <v>93.7</v>
       </c>
       <c r="E10">
-        <v>0.7000000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>43.6</v>
       </c>
       <c r="G10">
-        <v>3.9</v>
+        <v>43</v>
       </c>
       <c r="H10">
-        <v>12.6</v>
+        <v>54.3</v>
       </c>
       <c r="I10">
-        <v>5.600000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="J10">
-        <v>1.7</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.3</v>
+        <v>34.7</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>22.7</v>
+        <v>19.7</v>
       </c>
       <c r="C11">
-        <v>47.09999999999999</v>
+        <v>47.4</v>
       </c>
       <c r="D11">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="E11">
-        <v>17.6</v>
+        <v>19.6</v>
       </c>
       <c r="F11">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="G11">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
       <c r="H11">
-        <v>13.7</v>
+        <v>17.9</v>
       </c>
       <c r="I11">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="J11">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="K11">
-        <v>19.8</v>
+        <v>21.1</v>
       </c>
       <c r="L11">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="M11">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
     </row>
@@ -2694,28 +2762,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2723,28 +2791,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>98.88</v>
+        <v>98.39</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>116.75</v>
+        <v>123.72</v>
       </c>
       <c r="G2">
-        <v>0.625</v>
+        <v>0.615</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2755,25 +2823,25 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>98.64</v>
+        <v>98.98</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>113.68</v>
+        <v>111.7</v>
       </c>
       <c r="G3">
-        <v>0.583</v>
+        <v>0.462</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2781,28 +2849,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>100.44</v>
+        <v>100.08</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>116.16</v>
+        <v>119.55</v>
       </c>
       <c r="G4">
-        <v>0.625</v>
+        <v>0.769</v>
       </c>
       <c r="H4">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2810,28 +2878,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>95.65000000000001</v>
+        <v>111.5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>106.79</v>
+        <v>111.88</v>
       </c>
       <c r="G5">
-        <v>0.375</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2839,28 +2907,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>89.65000000000001</v>
+        <v>111.88</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>107.17</v>
+        <v>111.5</v>
       </c>
       <c r="G6">
-        <v>0.542</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H6">
-        <v>-1.5</v>
+        <v>-7</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2868,28 +2936,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>108.39</v>
+        <v>119.55</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>106.49</v>
+        <v>100.08</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H7">
-        <v>-8.5</v>
+        <v>-14</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2897,28 +2965,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>112.54</v>
+        <v>96.52</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>103.51</v>
+        <v>88.53</v>
       </c>
       <c r="G8">
-        <v>0.625</v>
+        <v>0.154</v>
       </c>
       <c r="H8">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2926,28 +2994,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>114.81</v>
+        <v>123.72</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>98.76000000000001</v>
+        <v>98.39</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0.308</v>
       </c>
       <c r="H9">
-        <v>-13.5</v>
+        <v>-18</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2955,28 +3023,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>118.69</v>
+        <v>111.7</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>94.26000000000001</v>
+        <v>98.98</v>
       </c>
       <c r="G10">
-        <v>0.292</v>
+        <v>0.538</v>
       </c>
       <c r="H10">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2984,28 +3052,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>88.53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>96.52</v>
+      </c>
+      <c r="G11">
+        <v>0.308</v>
+      </c>
+      <c r="H11">
+        <v>-23</v>
+      </c>
+      <c r="I11">
         <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11">
-        <v>123.93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>98.04000000000001</v>
-      </c>
-      <c r="G11">
-        <v>0.333</v>
-      </c>
-      <c r="H11">
-        <v>-21</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3023,31 +3091,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3055,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D2">
-        <v>108.3883333333333</v>
+        <v>111.5046153846154</v>
       </c>
       <c r="E2">
-        <v>1300.66</v>
+        <v>1449.56</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3073,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3084,16 +3152,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D3">
-        <v>123.9333333333333</v>
+        <v>123.7246153846154</v>
       </c>
       <c r="E3">
-        <v>1487.2</v>
+        <v>1608.42</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3102,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3113,16 +3181,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D4">
-        <v>112.5433333333333</v>
+        <v>111.8830769230769</v>
       </c>
       <c r="E4">
-        <v>1350.52</v>
+        <v>1454.48</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3134,7 +3202,7 @@
         <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3142,16 +3210,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D5">
-        <v>118.6933333333333</v>
+        <v>119.5538461538461</v>
       </c>
       <c r="E5">
-        <v>1424.32</v>
+        <v>1554.2</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3160,68 +3228,68 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>0.5833333333333334</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D6">
-        <v>98.63999999999999</v>
+        <v>111.7030769230769</v>
       </c>
       <c r="E6">
-        <v>1183.68</v>
+        <v>1452.14</v>
       </c>
       <c r="F6">
-        <v>95.19999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D7">
-        <v>114.81</v>
+        <v>98.97846153846152</v>
       </c>
       <c r="E7">
-        <v>1377.72</v>
+        <v>1286.72</v>
       </c>
       <c r="F7">
-        <v>95.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3229,28 +3297,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>98.88166666666667</v>
+        <v>100.0784615384616</v>
       </c>
       <c r="E8">
-        <v>1186.58</v>
+        <v>1301.02</v>
       </c>
       <c r="F8">
-        <v>9.700000000000001</v>
+        <v>32.1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3258,28 +3326,28 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D9">
-        <v>89.64666666666666</v>
+        <v>88.52769230769231</v>
       </c>
       <c r="E9">
-        <v>1075.76</v>
+        <v>1150.86</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>96.5</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3287,28 +3355,28 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D10">
-        <v>100.4383333333333</v>
+        <v>98.38615384615385</v>
       </c>
       <c r="E10">
-        <v>1205.26</v>
+        <v>1279.02</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3316,28 +3384,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D11">
-        <v>95.64833333333333</v>
+        <v>96.51692307692308</v>
       </c>
       <c r="E11">
-        <v>1147.78</v>
+        <v>1254.72</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3355,19 +3423,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3375,19 +3443,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3395,19 +3463,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3418,16 +3486,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3441,13 +3509,13 @@
         <v>62</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3461,13 +3529,13 @@
         <v>61</v>
       </c>
       <c r="D6">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3478,16 +3546,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3495,19 +3563,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3515,19 +3583,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3535,19 +3603,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3558,16 +3626,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3577,142 +3645,151 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>122</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>13</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>24</v>
       </c>
       <c r="J2">
+        <v>26</v>
+      </c>
+      <c r="K2">
         <v>28</v>
       </c>
-      <c r="K2">
-        <v>34</v>
-      </c>
       <c r="L2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M2">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>35</v>
+      </c>
+      <c r="N2">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
       <c r="E3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>13</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>24</v>
       </c>
       <c r="J3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M3">
+        <v>38</v>
+      </c>
+      <c r="N3">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3752,11 +3829,14 @@
       <c r="M4">
         <v>22</v>
       </c>
-      <c r="N4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3796,11 +3876,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>-1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3840,11 +3923,14 @@
       <c r="M6">
         <v>-8</v>
       </c>
-      <c r="N6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>-7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3884,143 +3970,155 @@
       <c r="M7">
         <v>-13</v>
       </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>-14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="D8">
         <v>-10</v>
       </c>
       <c r="E8">
+        <v>-10</v>
+      </c>
+      <c r="F8">
+        <v>-11</v>
+      </c>
+      <c r="G8">
+        <v>-10</v>
+      </c>
+      <c r="H8">
+        <v>-10</v>
+      </c>
+      <c r="I8">
+        <v>-6</v>
+      </c>
+      <c r="J8">
+        <v>-10</v>
+      </c>
+      <c r="K8">
+        <v>-16</v>
+      </c>
+      <c r="L8">
+        <v>-17</v>
+      </c>
+      <c r="M8">
+        <v>-17</v>
+      </c>
+      <c r="N8">
+        <v>-17</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-10</v>
+      </c>
+      <c r="E9">
         <v>-12</v>
-      </c>
-      <c r="F8">
-        <v>-4</v>
-      </c>
-      <c r="G8">
-        <v>-2</v>
-      </c>
-      <c r="H8">
-        <v>-6</v>
-      </c>
-      <c r="I8">
-        <v>-8</v>
-      </c>
-      <c r="J8">
-        <v>-8</v>
-      </c>
-      <c r="K8">
-        <v>-12</v>
-      </c>
-      <c r="L8">
-        <v>-13</v>
-      </c>
-      <c r="M8">
-        <v>-14</v>
-      </c>
-      <c r="N8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>-6</v>
       </c>
       <c r="F9">
         <v>-4</v>
       </c>
       <c r="G9">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="H9">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="I9">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="J9">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="K9">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="L9">
         <v>-13</v>
       </c>
       <c r="M9">
-        <v>-17</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>-14</v>
+      </c>
+      <c r="N9">
+        <v>-18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
+        <v>-4</v>
+      </c>
+      <c r="G10">
+        <v>-5</v>
+      </c>
+      <c r="H10">
         <v>-7</v>
       </c>
-      <c r="C10">
-        <v>-7</v>
-      </c>
-      <c r="D10">
-        <v>-10</v>
-      </c>
-      <c r="E10">
-        <v>-10</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10">
-        <v>-10</v>
-      </c>
-      <c r="H10">
-        <v>-10</v>
-      </c>
       <c r="I10">
+        <v>-5</v>
+      </c>
+      <c r="J10">
         <v>-6</v>
       </c>
-      <c r="J10">
-        <v>-10</v>
-      </c>
       <c r="K10">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="L10">
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="M10">
         <v>-17</v>
       </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4060,8 +4158,11 @@
       <c r="M11">
         <v>-25</v>
       </c>
-      <c r="N11" t="s">
-        <v>106</v>
+      <c r="N11">
+        <v>-23</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="128">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -55,34 +55,37 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -178,6 +181,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -199,36 +205,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Morgan Herber</t>
+  </si>
+  <si>
+    <t>Lauren  Ettlinger</t>
+  </si>
+  <si>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
+    <t>Carly Foster</t>
+  </si>
+  <si>
     <t>Julie Williston</t>
   </si>
   <si>
+    <t>Jessica McNally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie  Kush </t>
+  </si>
+  <si>
+    <t>Casey Reid</t>
+  </si>
+  <si>
     <t>Ava Patterson</t>
   </si>
   <si>
-    <t xml:space="preserve">Katie  Kush </t>
-  </si>
-  <si>
-    <t>Morgan Herber</t>
-  </si>
-  <si>
-    <t>Haley Toadvine</t>
-  </si>
-  <si>
-    <t>Jessica McNally</t>
-  </si>
-  <si>
-    <t>Casey Reid</t>
-  </si>
-  <si>
-    <t>Lauren  Ettlinger</t>
-  </si>
-  <si>
     <t>Rachel Hall</t>
   </si>
   <si>
-    <t>Carly Foster</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -253,54 +259,6 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>2-11</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>9.5-4.5</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>10.7-3.3</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>2.4-11.6</t>
-  </si>
-  <si>
-    <t>4.3-9.7</t>
-  </si>
-  <si>
-    <t>4.6-9.4</t>
-  </si>
-  <si>
     <t>10-4</t>
   </si>
   <si>
@@ -310,7 +268,7 @@
     <t>11-3</t>
   </si>
   <si>
-    <t>7-7</t>
+    <t>8-6</t>
   </si>
   <si>
     <t>6-8</t>
@@ -325,6 +283,30 @@
     <t>5-9</t>
   </si>
   <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>11.0-3.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>2.0-12.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -334,25 +316,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -392,6 +383,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -816,31 +810,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -851,25 +845,25 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -883,34 +877,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -918,34 +912,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -953,34 +947,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -988,10 +982,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1000,19 +994,19 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -1023,16 +1017,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1041,16 +1035,16 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1058,34 +1052,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1093,34 +1087,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1131,31 +1125,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1173,25 +1167,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1199,25 +1193,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>35</v>
+        <v>-12</v>
       </c>
       <c r="F2">
-        <v>-14</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1225,25 +1219,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>-17</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>-14</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1251,25 +1245,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>-17</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1280,22 +1274,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1303,25 +1297,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="G6">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1329,25 +1323,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>-10</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>-4</v>
-      </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1355,25 +1349,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
         <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1381,25 +1375,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="F9">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1407,25 +1401,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>-20</v>
+        <v>38</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1443,13 +1437,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1457,13 +1451,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1471,13 +1465,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1485,13 +1479,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1499,13 +1493,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1513,10 +1507,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1527,13 +1521,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1544,10 +1538,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1558,10 +1552,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1572,10 +1566,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1586,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1607,16 +1601,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1624,16 +1618,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="D2">
-        <v>1.4</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1641,16 +1635,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>9.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="D3">
-        <v>-0.6999999999999993</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1661,13 +1655,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="D4">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1678,13 +1672,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="D5">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1695,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="D6">
-        <v>-1.9</v>
+        <v>-2.4</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1709,16 +1703,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>-1.8</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1726,16 +1720,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1752,7 +1746,7 @@
         <v>1.1</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1763,13 +1757,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1780,13 +1774,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1804,40 +1798,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1845,16 +1839,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>49.4</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>31.7</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1889,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>64.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1924,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>49.6</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>32.9</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1959,10 +1953,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1994,7 +1988,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2009,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>59.9</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2027,12 +2021,12 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>85.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2047,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>41.9</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2065,12 +2059,12 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2088,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>32.1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>67.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2100,15 +2094,15 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8">
-        <v>32.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2135,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2146,7 +2140,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2167,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2208,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2227,92 +2221,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>92.2</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="C2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D2">
         <v>99.8</v>
       </c>
-      <c r="D2">
-        <v>99.59999999999999</v>
-      </c>
       <c r="E2">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F2">
-        <v>84.5</v>
+        <v>87</v>
       </c>
       <c r="G2">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H2">
-        <v>94.89999999999999</v>
+        <v>95</v>
       </c>
       <c r="I2">
-        <v>87.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="J2">
-        <v>93.60000000000001</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="K2">
-        <v>85.39999999999999</v>
+        <v>86</v>
       </c>
       <c r="L2">
-        <v>96.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2323,43 +2320,46 @@
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>73.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="C3">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>73.3</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>87</v>
+        <v>84.5</v>
       </c>
       <c r="F3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3">
-        <v>81.69999999999999</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="H3">
-        <v>93.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I3">
-        <v>86.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="J3">
-        <v>95.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="K3">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="L3">
-        <v>96</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2370,46 +2370,49 @@
       <c r="O3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>98.7</v>
+      </c>
+      <c r="C4">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="D4">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E4">
+        <v>90.5</v>
+      </c>
+      <c r="F4">
+        <v>90.2</v>
+      </c>
+      <c r="G4">
+        <v>99</v>
+      </c>
+      <c r="H4">
+        <v>97.2</v>
+      </c>
+      <c r="I4">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="J4">
+        <v>99.2</v>
+      </c>
+      <c r="K4">
         <v>98.5</v>
       </c>
-      <c r="C4">
-        <v>88.3</v>
-      </c>
-      <c r="D4">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E4">
-        <v>90.10000000000001</v>
-      </c>
-      <c r="F4">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="G4">
-        <v>98</v>
-      </c>
-      <c r="H4">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="I4">
-        <v>97.5</v>
-      </c>
-      <c r="J4">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="K4">
-        <v>99.2</v>
-      </c>
       <c r="L4">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="M4">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2417,41 +2420,44 @@
       <c r="O4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>77.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C5">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E5">
+        <v>99.7</v>
+      </c>
+      <c r="F5">
         <v>99</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>99.7</v>
       </c>
-      <c r="E5">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>99.2</v>
+      </c>
+      <c r="J5">
         <v>99.09999999999999</v>
       </c>
-      <c r="G5">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
+      <c r="K5">
         <v>99.40000000000001</v>
       </c>
-      <c r="J5">
-        <v>98.7</v>
-      </c>
-      <c r="K5">
-        <v>99.7</v>
-      </c>
       <c r="L5">
         <v>100</v>
       </c>
@@ -2464,278 +2470,296 @@
       <c r="O5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="C6">
+        <v>50.2</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>43.9</v>
+      </c>
+      <c r="F6">
+        <v>65.10000000000001</v>
+      </c>
+      <c r="G6">
+        <v>59</v>
+      </c>
+      <c r="H6">
+        <v>36.3</v>
+      </c>
+      <c r="I6">
+        <v>49.6</v>
+      </c>
+      <c r="J6">
+        <v>28.5</v>
+      </c>
+      <c r="K6">
+        <v>50.8</v>
+      </c>
+      <c r="L6">
+        <v>65.8</v>
+      </c>
+      <c r="M6">
+        <v>89.8</v>
+      </c>
+      <c r="N6">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>84.5</v>
+      </c>
+      <c r="D7">
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <v>88.8</v>
+      </c>
+      <c r="F7">
+        <v>75.7</v>
+      </c>
+      <c r="G7">
+        <v>89</v>
+      </c>
+      <c r="H7">
         <v>82.19999999999999</v>
       </c>
-      <c r="D6">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="E6">
-        <v>88.8</v>
-      </c>
-      <c r="F6">
-        <v>75.2</v>
-      </c>
-      <c r="G6">
+      <c r="I7">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="J7">
+        <v>82.3</v>
+      </c>
+      <c r="K7">
+        <v>90.60000000000001</v>
+      </c>
+      <c r="L7">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>80.30000000000001</v>
+      </c>
+      <c r="O7">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1.1</v>
+      </c>
+      <c r="D8">
+        <v>2.8</v>
+      </c>
+      <c r="E8">
+        <v>1.3</v>
+      </c>
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>9.4</v>
+      </c>
+      <c r="I8">
+        <v>4.7</v>
+      </c>
+      <c r="J8">
+        <v>1.9</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>21.8</v>
+      </c>
+      <c r="C9">
         <v>90.40000000000001</v>
       </c>
-      <c r="H6">
-        <v>80.80000000000001</v>
-      </c>
-      <c r="I6">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J6">
-        <v>77.3</v>
-      </c>
-      <c r="K6">
-        <v>87</v>
-      </c>
-      <c r="L6">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="M6">
-        <v>92.2</v>
-      </c>
-      <c r="N6">
-        <v>83</v>
-      </c>
-      <c r="O6">
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>73.2</v>
-      </c>
-      <c r="C7">
-        <v>51.6</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>43.1</v>
-      </c>
-      <c r="F7">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="G7">
-        <v>57.59999999999999</v>
-      </c>
-      <c r="H7">
-        <v>37.5</v>
-      </c>
-      <c r="I7">
-        <v>48.2</v>
-      </c>
-      <c r="J7">
-        <v>32.4</v>
-      </c>
-      <c r="K7">
-        <v>49.8</v>
-      </c>
-      <c r="L7">
-        <v>66.60000000000001</v>
-      </c>
-      <c r="M7">
-        <v>91.2</v>
-      </c>
-      <c r="N7">
-        <v>80</v>
-      </c>
-      <c r="O7">
-        <v>80.80000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
+      <c r="D9">
+        <v>93.7</v>
+      </c>
+      <c r="E9">
+        <v>60.2</v>
+      </c>
+      <c r="F9">
+        <v>47.9</v>
+      </c>
+      <c r="G9">
+        <v>42.6</v>
+      </c>
+      <c r="H9">
+        <v>53.8</v>
+      </c>
+      <c r="I9">
+        <v>56.59999999999999</v>
+      </c>
+      <c r="J9">
+        <v>47.7</v>
+      </c>
+      <c r="K9">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="L9">
+        <v>13.7</v>
+      </c>
+      <c r="M9">
+        <v>3.8</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>35.4</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="E8">
-        <v>9.1</v>
-      </c>
-      <c r="F8">
-        <v>2.5</v>
-      </c>
-      <c r="G8">
-        <v>23.6</v>
-      </c>
-      <c r="H8">
-        <v>13.6</v>
-      </c>
-      <c r="I8">
-        <v>26.6</v>
-      </c>
-      <c r="J8">
-        <v>46.6</v>
-      </c>
-      <c r="K8">
+      <c r="B10">
+        <v>37.3</v>
+      </c>
+      <c r="C10">
+        <v>2.4</v>
+      </c>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F10">
+        <v>2.4</v>
+      </c>
+      <c r="G10">
+        <v>24.1</v>
+      </c>
+      <c r="H10">
+        <v>14.8</v>
+      </c>
+      <c r="I10">
         <v>25.3</v>
       </c>
-      <c r="L8">
-        <v>24.7</v>
-      </c>
-      <c r="M8">
-        <v>11.8</v>
-      </c>
-      <c r="N8">
-        <v>37</v>
-      </c>
-      <c r="O8">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>5.5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1.9</v>
-      </c>
-      <c r="E9">
-        <v>1.3</v>
-      </c>
-      <c r="F9">
-        <v>0.6</v>
-      </c>
-      <c r="G9">
-        <v>4.5</v>
-      </c>
-      <c r="H9">
-        <v>10.9</v>
-      </c>
-      <c r="I9">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="J9">
-        <v>1.1</v>
-      </c>
-      <c r="K9">
-        <v>0.2</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>24.4</v>
-      </c>
-      <c r="C10">
-        <v>90.2</v>
-      </c>
-      <c r="D10">
-        <v>93.7</v>
-      </c>
-      <c r="E10">
-        <v>62.2</v>
-      </c>
-      <c r="F10">
-        <v>43.6</v>
-      </c>
-      <c r="G10">
-        <v>43</v>
-      </c>
-      <c r="H10">
-        <v>54.3</v>
-      </c>
-      <c r="I10">
-        <v>60.4</v>
-      </c>
       <c r="J10">
-        <v>47</v>
+        <v>45.4</v>
       </c>
       <c r="K10">
-        <v>34.7</v>
+        <v>22.2</v>
       </c>
       <c r="L10">
-        <v>15.8</v>
+        <v>23.8</v>
       </c>
       <c r="M10">
-        <v>3.7</v>
+        <v>10.2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>39.8</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.6</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>19.7</v>
+        <v>21.6</v>
       </c>
       <c r="C11">
-        <v>47.4</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>33.2</v>
+        <v>30.3</v>
       </c>
       <c r="E11">
+        <v>22.3</v>
+      </c>
+      <c r="F11">
+        <v>42.9</v>
+      </c>
+      <c r="G11">
+        <v>27.1</v>
+      </c>
+      <c r="H11">
+        <v>18.9</v>
+      </c>
+      <c r="I11">
+        <v>3.2</v>
+      </c>
+      <c r="J11">
+        <v>10.2</v>
+      </c>
+      <c r="K11">
         <v>19.6</v>
       </c>
-      <c r="F11">
-        <v>41</v>
-      </c>
-      <c r="G11">
-        <v>24.9</v>
-      </c>
-      <c r="H11">
-        <v>17.9</v>
-      </c>
-      <c r="I11">
-        <v>2.6</v>
-      </c>
-      <c r="J11">
-        <v>9.4</v>
-      </c>
-      <c r="K11">
-        <v>21.1</v>
-      </c>
       <c r="L11">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="M11">
         <v>1.2</v>
@@ -2744,6 +2768,9 @@
         <v>0</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -2762,28 +2789,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2791,28 +2818,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>98.39</v>
+        <v>110.87</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>123.72</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2820,28 +2847,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>98.98</v>
+        <v>123.8</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>111.7</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2849,28 +2876,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>100.08</v>
+        <v>110.48</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>119.55</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2878,28 +2905,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>111.5</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>111.88</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2907,28 +2934,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>111.88</v>
+        <v>95.86</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>111.5</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2939,25 +2966,25 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>119.55</v>
+        <v>119.95</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>100.08</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2965,28 +2992,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>96.52</v>
+        <v>101.18</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>88.53</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2994,28 +3021,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>123.72</v>
+        <v>96.06</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>98.39</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3023,28 +3050,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>111.7</v>
+        <v>100.76</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>98.98</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3052,28 +3079,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>88.53</v>
+        <v>112.39</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>96.52</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3091,31 +3118,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3123,16 +3150,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2">
-        <v>111.5046153846154</v>
+        <v>110.8714285714286</v>
       </c>
       <c r="E2">
-        <v>1449.56</v>
+        <v>1552.2</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3141,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3152,16 +3179,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D3">
-        <v>123.7246153846154</v>
+        <v>123.8042857142857</v>
       </c>
       <c r="E3">
-        <v>1608.42</v>
+        <v>1733.26</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3170,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3181,16 +3208,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>0.6923076923076923</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D4">
-        <v>111.8830769230769</v>
+        <v>110.48</v>
       </c>
       <c r="E4">
-        <v>1454.48</v>
+        <v>1546.72</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3199,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3210,16 +3237,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>0.7692307692307693</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D5">
-        <v>119.5538461538461</v>
+        <v>119.95</v>
       </c>
       <c r="E5">
-        <v>1554.2</v>
+        <v>1679.3</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3228,143 +3255,143 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6">
-        <v>0.4615384615384616</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>111.7030769230769</v>
+        <v>100.7585714285714</v>
       </c>
       <c r="E6">
-        <v>1452.14</v>
+        <v>1410.62</v>
       </c>
       <c r="F6">
-        <v>85.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7">
-        <v>0.5384615384615384</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D7">
-        <v>98.97846153846152</v>
+        <v>112.3914285714286</v>
       </c>
       <c r="E7">
-        <v>1286.72</v>
+        <v>1573.48</v>
       </c>
       <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
         <v>82</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C8">
-        <v>0.4615384615384616</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D8">
-        <v>100.0784615384616</v>
+        <v>87.15428571428571</v>
       </c>
       <c r="E8">
-        <v>1301.02</v>
+        <v>1220.16</v>
       </c>
       <c r="F8">
-        <v>32.1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9">
-        <v>0.1538461538461539</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D9">
-        <v>88.52769230769231</v>
+        <v>95.86428571428571</v>
       </c>
       <c r="E9">
-        <v>1150.86</v>
+        <v>1342.1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
       </c>
       <c r="C10">
-        <v>0.3076923076923077</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>98.38615384615385</v>
+        <v>101.1771428571429</v>
       </c>
       <c r="E10">
-        <v>1279.02</v>
+        <v>1416.48</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3376,7 +3403,7 @@
         <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3384,16 +3411,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C11">
-        <v>0.3076923076923077</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D11">
-        <v>96.51692307692308</v>
+        <v>96.06285714285715</v>
       </c>
       <c r="E11">
-        <v>1254.72</v>
+        <v>1344.88</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3402,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3423,19 +3450,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3446,16 +3473,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3466,16 +3493,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3486,16 +3513,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3509,13 +3536,13 @@
         <v>62</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3526,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3546,16 +3573,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3563,19 +3590,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3583,19 +3610,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3603,19 +3630,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>-18</v>
+        <v>-25</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3626,16 +3653,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>-23</v>
+        <v>-29</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3645,57 +3672,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3738,11 +3768,14 @@
       <c r="N2">
         <v>40</v>
       </c>
-      <c r="O2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3785,11 +3818,14 @@
       <c r="N3">
         <v>35</v>
       </c>
-      <c r="O3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3832,11 +3868,14 @@
       <c r="N4">
         <v>24</v>
       </c>
-      <c r="O4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3879,11 +3918,14 @@
       <c r="N5">
         <v>-1</v>
       </c>
-      <c r="O5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>-5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3926,11 +3968,14 @@
       <c r="N6">
         <v>-7</v>
       </c>
-      <c r="O6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>-8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3973,152 +4018,164 @@
       <c r="N7">
         <v>-14</v>
       </c>
-      <c r="O7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>-10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="C8">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="D8">
         <v>-10</v>
       </c>
       <c r="E8">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="F8">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="G8">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="H8">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="I8">
+        <v>-8</v>
+      </c>
+      <c r="J8">
+        <v>-8</v>
+      </c>
+      <c r="K8">
+        <v>-12</v>
+      </c>
+      <c r="L8">
+        <v>-13</v>
+      </c>
+      <c r="M8">
+        <v>-14</v>
+      </c>
+      <c r="N8">
+        <v>-18</v>
+      </c>
+      <c r="O8">
+        <v>-12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>-6</v>
-      </c>
-      <c r="J8">
-        <v>-10</v>
-      </c>
-      <c r="K8">
-        <v>-16</v>
-      </c>
-      <c r="L8">
-        <v>-17</v>
-      </c>
-      <c r="M8">
-        <v>-17</v>
-      </c>
-      <c r="N8">
-        <v>-17</v>
-      </c>
-      <c r="O8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-10</v>
-      </c>
-      <c r="E9">
-        <v>-12</v>
       </c>
       <c r="F9">
         <v>-4</v>
       </c>
       <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9">
+        <v>-7</v>
+      </c>
+      <c r="I9">
+        <v>-5</v>
+      </c>
+      <c r="J9">
+        <v>-6</v>
+      </c>
+      <c r="K9">
         <v>-2</v>
-      </c>
-      <c r="H9">
-        <v>-6</v>
-      </c>
-      <c r="I9">
-        <v>-8</v>
-      </c>
-      <c r="J9">
-        <v>-8</v>
-      </c>
-      <c r="K9">
-        <v>-12</v>
       </c>
       <c r="L9">
         <v>-13</v>
       </c>
       <c r="M9">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="N9">
         <v>-18</v>
       </c>
-      <c r="O9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
+        <v>-10</v>
+      </c>
+      <c r="H10">
+        <v>-10</v>
+      </c>
+      <c r="I10">
         <v>-6</v>
       </c>
-      <c r="F10">
-        <v>-4</v>
-      </c>
-      <c r="G10">
-        <v>-5</v>
-      </c>
-      <c r="H10">
-        <v>-7</v>
-      </c>
-      <c r="I10">
-        <v>-5</v>
-      </c>
       <c r="J10">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="K10">
-        <v>-2</v>
+        <v>-16</v>
       </c>
       <c r="L10">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="M10">
         <v>-17</v>
       </c>
       <c r="N10">
-        <v>-18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>-17</v>
+      </c>
+      <c r="O10">
+        <v>-25</v>
+      </c>
+      <c r="P10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4161,8 +4218,11 @@
       <c r="N11">
         <v>-23</v>
       </c>
-      <c r="O11" t="s">
-        <v>105</v>
+      <c r="O11">
+        <v>-29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="137">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -55,186 +55,219 @@
     <t>Hall Pass</t>
   </si>
   <si>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>11-3-1</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Morgan Herber</t>
+  </si>
+  <si>
+    <t>Lauren  Ettlinger</t>
+  </si>
+  <si>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
+    <t>Carly Foster</t>
+  </si>
+  <si>
+    <t>Julie Williston</t>
+  </si>
+  <si>
+    <t>Jessica McNally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie  Kush </t>
+  </si>
+  <si>
+    <t>Casey Reid</t>
+  </si>
+  <si>
+    <t>Ava Patterson</t>
+  </si>
+  <si>
+    <t>Rachel Hall</t>
+  </si>
+  <si>
     <t>10-4-0</t>
   </si>
   <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
     <t>9-5-0</t>
   </si>
   <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
     <t>4-10-0</t>
   </si>
   <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
     <t>6-8-0</t>
   </si>
   <si>
-    <t>7-7-0</t>
+    <t>5-9-0</t>
   </si>
   <si>
     <t>8-6-0</t>
   </si>
   <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Morgan Herber</t>
-  </si>
-  <si>
-    <t>Lauren  Ettlinger</t>
-  </si>
-  <si>
-    <t>Haley Toadvine</t>
-  </si>
-  <si>
-    <t>Carly Foster</t>
-  </si>
-  <si>
-    <t>Julie Williston</t>
-  </si>
-  <si>
-    <t>Jessica McNally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katie  Kush </t>
-  </si>
-  <si>
-    <t>Casey Reid</t>
-  </si>
-  <si>
-    <t>Ava Patterson</t>
-  </si>
-  <si>
-    <t>Rachel Hall</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -316,10 +349,16 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↑7</t>
@@ -328,22 +367,7 @@
     <t>↓4</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↑5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -386,6 +410,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -810,31 +837,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -848,13 +875,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -863,13 +890,13 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -880,16 +907,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -898,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -915,31 +942,31 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -953,28 +980,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -982,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1017,34 +1044,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1052,13 +1079,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1067,19 +1094,19 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1087,31 +1114,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -1125,25 +1152,25 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1159,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1167,25 +1194,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1420,6 +1447,32 @@
       </c>
       <c r="H10" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>-16</v>
+      </c>
+      <c r="F11">
+        <v>-32</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1437,13 +1490,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1451,13 +1504,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1465,13 +1518,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1482,10 +1535,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1496,10 +1549,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1510,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1521,13 +1574,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1538,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1549,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1563,13 +1616,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1577,13 +1630,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1601,16 +1654,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1621,13 +1674,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="D2">
-        <v>-0.6999999999999993</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1638,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="D3">
-        <v>1.300000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1655,10 +1708,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="D4">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1669,16 +1722,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D5">
-        <v>-1.2</v>
+        <v>-1.699999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1686,16 +1739,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>-2.4</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1706,13 +1759,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="D7">
-        <v>-1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1729,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1740,13 +1793,13 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1757,13 +1810,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="D10">
-        <v>-0.2000000000000002</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1774,13 +1827,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1798,40 +1851,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2229,49 +2282,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2279,37 +2332,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>92.10000000000001</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>99.90000000000001</v>
       </c>
       <c r="D2">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E2">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="F2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>76.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="H2">
-        <v>95</v>
+        <v>95.7</v>
       </c>
       <c r="I2">
-        <v>87.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="J2">
-        <v>92.80000000000001</v>
+        <v>93</v>
       </c>
       <c r="K2">
-        <v>86</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="L2">
-        <v>97.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2329,37 +2382,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>73.7</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>38.3</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="E3">
-        <v>84.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="F3">
-        <v>89</v>
+        <v>87.5</v>
       </c>
       <c r="G3">
-        <v>79.10000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H3">
-        <v>92.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="I3">
-        <v>86</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="J3">
-        <v>92.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="K3">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="L3">
-        <v>96.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2379,37 +2432,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>98.7</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="C4">
-        <v>86.90000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="D4">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E4">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="F4">
+        <v>92.5</v>
+      </c>
+      <c r="G4">
+        <v>98</v>
+      </c>
+      <c r="H4">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="I4">
+        <v>96.7</v>
+      </c>
+      <c r="J4">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K4">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="L4">
         <v>98.09999999999999</v>
-      </c>
-      <c r="E4">
-        <v>90.5</v>
-      </c>
-      <c r="F4">
-        <v>90.2</v>
-      </c>
-      <c r="G4">
-        <v>99</v>
-      </c>
-      <c r="H4">
-        <v>97.2</v>
-      </c>
-      <c r="I4">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="J4">
-        <v>99.2</v>
-      </c>
-      <c r="K4">
-        <v>98.5</v>
-      </c>
-      <c r="L4">
-        <v>98.3</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -2429,34 +2482,34 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>76.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C5">
+        <v>99.3</v>
+      </c>
+      <c r="D5">
         <v>99.59999999999999</v>
-      </c>
-      <c r="D5">
-        <v>99.90000000000001</v>
       </c>
       <c r="E5">
         <v>99.7</v>
       </c>
       <c r="F5">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="G5">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J5">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="K5">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -2479,43 +2532,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>73.40000000000001</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="C6">
         <v>50.2</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="E6">
-        <v>43.9</v>
+        <v>43.1</v>
       </c>
       <c r="F6">
-        <v>65.10000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="G6">
-        <v>59</v>
+        <v>61.8</v>
       </c>
       <c r="H6">
-        <v>36.3</v>
+        <v>37.1</v>
       </c>
       <c r="I6">
-        <v>49.6</v>
+        <v>51.9</v>
       </c>
       <c r="J6">
-        <v>28.5</v>
+        <v>33.3</v>
       </c>
       <c r="K6">
-        <v>50.8</v>
+        <v>54.1</v>
       </c>
       <c r="L6">
-        <v>65.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="M6">
-        <v>89.8</v>
+        <v>91</v>
       </c>
       <c r="N6">
-        <v>79.90000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2529,46 +2582,46 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C7">
-        <v>84.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="D7">
-        <v>83</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="E7">
-        <v>88.8</v>
+        <v>88.5</v>
       </c>
       <c r="F7">
-        <v>75.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G7">
-        <v>89</v>
+        <v>87.8</v>
       </c>
       <c r="H7">
-        <v>82.19999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="I7">
-        <v>90.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="J7">
-        <v>82.3</v>
+        <v>79</v>
       </c>
       <c r="K7">
-        <v>90.60000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="L7">
-        <v>94.39999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>93.5</v>
       </c>
       <c r="N7">
-        <v>80.30000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="O7">
-        <v>85.39999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2579,10 +2632,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="C8">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
         <v>2.8</v>
@@ -2591,22 +2644,22 @@
         <v>1.3</v>
       </c>
       <c r="F8">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H8">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="I8">
-        <v>4.7</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="J8">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="K8">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2629,40 +2682,40 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="C9">
-        <v>90.40000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="D9">
-        <v>93.7</v>
+        <v>93</v>
       </c>
       <c r="E9">
-        <v>60.2</v>
+        <v>63.9</v>
       </c>
       <c r="F9">
-        <v>47.9</v>
+        <v>48.4</v>
       </c>
       <c r="G9">
-        <v>42.6</v>
+        <v>44.4</v>
       </c>
       <c r="H9">
-        <v>53.8</v>
+        <v>53.2</v>
       </c>
       <c r="I9">
-        <v>56.59999999999999</v>
+        <v>59.3</v>
       </c>
       <c r="J9">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="K9">
-        <v>34.59999999999999</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="L9">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2679,46 +2732,46 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>37.3</v>
+        <v>33.5</v>
       </c>
       <c r="C10">
         <v>2.4</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E10">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F10">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>24.1</v>
+        <v>21.9</v>
       </c>
       <c r="H10">
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="I10">
-        <v>25.3</v>
+        <v>26.6</v>
       </c>
       <c r="J10">
-        <v>45.4</v>
+        <v>44.7</v>
       </c>
       <c r="K10">
-        <v>22.2</v>
+        <v>20.8</v>
       </c>
       <c r="L10">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="M10">
-        <v>10.2</v>
+        <v>12</v>
       </c>
       <c r="N10">
-        <v>39.8</v>
+        <v>42.4</v>
       </c>
       <c r="O10">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2729,40 +2782,40 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>21.6</v>
+        <v>23.2</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>45.9</v>
       </c>
       <c r="D11">
-        <v>30.3</v>
+        <v>32.7</v>
       </c>
       <c r="E11">
-        <v>22.3</v>
+        <v>20.3</v>
       </c>
       <c r="F11">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="G11">
-        <v>27.1</v>
+        <v>24.7</v>
       </c>
       <c r="H11">
-        <v>18.9</v>
+        <v>16.7</v>
       </c>
       <c r="I11">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="J11">
-        <v>10.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K11">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="L11">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M11">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2789,28 +2842,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2821,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>110.87</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2850,13 +2903,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>123.8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2879,13 +2932,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>110.48</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2908,13 +2961,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>87.15000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2937,13 +2990,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>95.86</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2966,13 +3019,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>119.95</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2995,13 +3048,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>101.18</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3024,13 +3077,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>96.06</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3053,13 +3106,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>100.76</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3082,13 +3135,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>112.39</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3118,31 +3171,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3150,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>0.7142857142857143</v>
@@ -3168,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3179,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>0.6428571428571429</v>
@@ -3197,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3208,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>0.6428571428571429</v>
@@ -3226,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3237,7 +3290,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>0.7857142857142857</v>
@@ -3255,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3266,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3284,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3295,7 +3348,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
@@ -3313,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3324,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>0.1428571428571428</v>
@@ -3342,10 +3395,10 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3353,7 +3406,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>0.2857142857142857</v>
@@ -3371,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3382,7 +3435,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3400,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3411,7 +3464,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>0.3571428571428572</v>
@@ -3429,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3450,19 +3503,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3470,19 +3523,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3493,16 +3546,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3510,19 +3563,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3530,19 +3583,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3550,19 +3603,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3570,19 +3623,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3590,19 +3643,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3610,19 +3663,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3633,16 +3686,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3653,16 +3706,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3672,110 +3725,116 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <v>31</v>
+      </c>
+      <c r="P2">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2">
-        <v>28</v>
-      </c>
-      <c r="L2">
-        <v>32</v>
-      </c>
-      <c r="M2">
-        <v>35</v>
-      </c>
-      <c r="N2">
-        <v>40</v>
-      </c>
-      <c r="O2">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3821,311 +3880,332 @@
       <c r="O3">
         <v>38</v>
       </c>
-      <c r="P3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>32</v>
+      </c>
+      <c r="M4">
+        <v>35</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>40</v>
+      </c>
+      <c r="P4">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-5</v>
+      </c>
+      <c r="G5">
+        <v>-6</v>
+      </c>
+      <c r="H5">
+        <v>-2</v>
+      </c>
+      <c r="I5">
+        <v>-7</v>
+      </c>
+      <c r="J5">
+        <v>-10</v>
+      </c>
+      <c r="K5">
+        <v>-11</v>
+      </c>
+      <c r="L5">
+        <v>-10</v>
+      </c>
+      <c r="M5">
+        <v>-8</v>
+      </c>
+      <c r="N5">
+        <v>-7</v>
+      </c>
+      <c r="O5">
+        <v>-8</v>
+      </c>
+      <c r="P5">
+        <v>-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-4</v>
+      </c>
+      <c r="H6">
+        <v>-6</v>
+      </c>
+      <c r="I6">
+        <v>-13</v>
+      </c>
+      <c r="J6">
+        <v>-12</v>
+      </c>
+      <c r="K6">
+        <v>-8</v>
+      </c>
+      <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>-5</v>
+      </c>
+      <c r="P6">
+        <v>-11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
+        <v>-4</v>
+      </c>
+      <c r="G7">
+        <v>-5</v>
+      </c>
+      <c r="H7">
+        <v>-7</v>
+      </c>
+      <c r="I7">
+        <v>-5</v>
+      </c>
+      <c r="J7">
+        <v>-6</v>
+      </c>
+      <c r="K7">
+        <v>-2</v>
+      </c>
+      <c r="L7">
+        <v>-13</v>
+      </c>
+      <c r="M7">
+        <v>-17</v>
+      </c>
+      <c r="N7">
+        <v>-18</v>
+      </c>
+      <c r="O7">
+        <v>-20</v>
+      </c>
+      <c r="P7">
+        <v>-13</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>22</v>
-      </c>
-      <c r="M4">
-        <v>22</v>
-      </c>
-      <c r="N4">
-        <v>24</v>
-      </c>
-      <c r="O4">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>-2</v>
-      </c>
-      <c r="F5">
+      <c r="B8">
         <v>-6</v>
       </c>
-      <c r="G5">
+      <c r="C8">
+        <v>-6</v>
+      </c>
+      <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8">
         <v>-4</v>
       </c>
-      <c r="H5">
-        <v>-6</v>
-      </c>
-      <c r="I5">
-        <v>-13</v>
-      </c>
-      <c r="J5">
-        <v>-12</v>
-      </c>
-      <c r="K5">
-        <v>-8</v>
-      </c>
-      <c r="L5">
-        <v>-4</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>-1</v>
-      </c>
-      <c r="O5">
-        <v>-5</v>
-      </c>
-      <c r="P5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>-5</v>
-      </c>
-      <c r="G6">
-        <v>-6</v>
-      </c>
-      <c r="H6">
-        <v>-2</v>
-      </c>
-      <c r="I6">
+      <c r="F8">
+        <v>-11</v>
+      </c>
+      <c r="G8">
         <v>-7</v>
-      </c>
-      <c r="J6">
-        <v>-10</v>
-      </c>
-      <c r="K6">
-        <v>-11</v>
-      </c>
-      <c r="L6">
-        <v>-10</v>
-      </c>
-      <c r="M6">
-        <v>-8</v>
-      </c>
-      <c r="N6">
-        <v>-7</v>
-      </c>
-      <c r="O6">
-        <v>-8</v>
-      </c>
-      <c r="P6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
-      <c r="C7">
-        <v>-6</v>
-      </c>
-      <c r="D7">
-        <v>-7</v>
-      </c>
-      <c r="E7">
-        <v>-4</v>
-      </c>
-      <c r="F7">
-        <v>-11</v>
-      </c>
-      <c r="G7">
-        <v>-7</v>
-      </c>
-      <c r="H7">
-        <v>-6</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>-6</v>
-      </c>
-      <c r="L7">
-        <v>-14</v>
-      </c>
-      <c r="M7">
-        <v>-13</v>
-      </c>
-      <c r="N7">
-        <v>-14</v>
-      </c>
-      <c r="O7">
-        <v>-10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-5</v>
-      </c>
-      <c r="C8">
-        <v>-4</v>
-      </c>
-      <c r="D8">
-        <v>-10</v>
-      </c>
-      <c r="E8">
-        <v>-12</v>
-      </c>
-      <c r="F8">
-        <v>-4</v>
-      </c>
-      <c r="G8">
-        <v>-2</v>
       </c>
       <c r="H8">
         <v>-6</v>
       </c>
       <c r="I8">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="K8">
+        <v>-6</v>
+      </c>
+      <c r="L8">
+        <v>-14</v>
+      </c>
+      <c r="M8">
+        <v>-13</v>
+      </c>
+      <c r="N8">
+        <v>-14</v>
+      </c>
+      <c r="O8">
+        <v>-10</v>
+      </c>
+      <c r="P8">
+        <v>-16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-10</v>
+      </c>
+      <c r="E9">
         <v>-12</v>
-      </c>
-      <c r="L8">
-        <v>-13</v>
-      </c>
-      <c r="M8">
-        <v>-14</v>
-      </c>
-      <c r="N8">
-        <v>-18</v>
-      </c>
-      <c r="O8">
-        <v>-12</v>
-      </c>
-      <c r="P8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>-6</v>
       </c>
       <c r="F9">
         <v>-4</v>
       </c>
       <c r="G9">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="H9">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="I9">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="J9">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="K9">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="L9">
         <v>-13</v>
       </c>
       <c r="M9">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="N9">
         <v>-18</v>
       </c>
       <c r="O9">
-        <v>-20</v>
-      </c>
-      <c r="P9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>-12</v>
+      </c>
+      <c r="P9">
+        <v>-16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4171,11 +4251,14 @@
       <c r="O10">
         <v>-25</v>
       </c>
-      <c r="P10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4221,8 +4304,11 @@
       <c r="O11">
         <v>-29</v>
       </c>
-      <c r="P11" t="s">
-        <v>106</v>
+      <c r="P11">
+        <v>-32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="140">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -55,46 +55,46 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>10-4-1</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>11-3-1</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
+    <t>11-4-1</t>
+  </si>
+  <si>
+    <t>13-3-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>14-2-0</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>12-3-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -349,25 +349,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -413,6 +419,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -837,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -852,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -872,31 +881,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -913,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -922,7 +931,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -963,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -977,31 +986,31 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1012,22 +1021,22 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -1036,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1047,31 +1056,31 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1082,31 +1091,31 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1117,10 +1126,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1129,19 +1138,19 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1149,34 +1158,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1194,25 +1203,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1298,25 +1307,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1324,25 +1333,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="F6">
-        <v>-5</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1350,25 +1359,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1376,25 +1385,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>13</v>
       </c>
       <c r="F8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1402,25 +1411,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1428,25 +1437,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>38</v>
+        <v>-4</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1454,25 +1463,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="F11">
-        <v>-32</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1504,13 +1513,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1518,13 +1527,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1532,13 +1541,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1546,13 +1555,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1560,13 +1569,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1577,10 +1586,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1591,10 +1600,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1605,10 +1614,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1616,13 +1625,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1630,13 +1639,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1674,13 +1683,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="D2">
-        <v>0.1999999999999993</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1691,13 +1700,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="D3">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1705,16 +1714,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="D4">
-        <v>1.9</v>
+        <v>-1.9</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1722,16 +1731,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="D5">
-        <v>-1.699999999999999</v>
+        <v>-1.1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1739,16 +1748,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1759,13 +1768,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>-2.4</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1773,16 +1782,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1790,16 +1799,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1810,13 +1819,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="D10">
-        <v>-0.5999999999999996</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1827,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="D11">
         <v>2.1</v>
@@ -2332,37 +2341,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>92</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="C2">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D2">
         <v>99.7</v>
       </c>
       <c r="E2">
-        <v>98.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F2">
+        <v>84.7</v>
+      </c>
+      <c r="G2">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="H2">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="I2">
         <v>83</v>
       </c>
-      <c r="G2">
-        <v>78.8</v>
-      </c>
-      <c r="H2">
-        <v>95.7</v>
-      </c>
-      <c r="I2">
-        <v>85.3</v>
-      </c>
       <c r="J2">
-        <v>93</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="K2">
-        <v>84.89999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="L2">
-        <v>96.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2382,37 +2391,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>70.5</v>
       </c>
       <c r="C3">
-        <v>38.3</v>
+        <v>39.2</v>
       </c>
       <c r="D3">
-        <v>70.89999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="E3">
-        <v>86.09999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="F3">
-        <v>87.5</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="G3">
-        <v>80.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="H3">
-        <v>94</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="I3">
-        <v>86.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="J3">
-        <v>94.8</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="K3">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="L3">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2432,37 +2441,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>97.89999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C4">
         <v>85.2</v>
       </c>
       <c r="D4">
-        <v>98.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E4">
-        <v>89.90000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="F4">
-        <v>92.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G4">
-        <v>98</v>
+        <v>98.7</v>
       </c>
       <c r="H4">
-        <v>97.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I4">
-        <v>96.7</v>
+        <v>97.2</v>
       </c>
       <c r="J4">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K4">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="L4">
-        <v>98.09999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -2482,34 +2491,34 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>77.3</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="C5">
         <v>99.3</v>
       </c>
       <c r="D5">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E5">
         <v>99.7</v>
       </c>
       <c r="F5">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="G5">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I5">
-        <v>99.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J5">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="K5">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -2532,43 +2541,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>72.39999999999999</v>
+        <v>71</v>
       </c>
       <c r="C6">
-        <v>50.2</v>
+        <v>50.9</v>
       </c>
       <c r="D6">
-        <v>17.4</v>
+        <v>15.7</v>
       </c>
       <c r="E6">
-        <v>43.1</v>
+        <v>43.6</v>
       </c>
       <c r="F6">
-        <v>66.8</v>
+        <v>64.5</v>
       </c>
       <c r="G6">
-        <v>61.8</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="H6">
-        <v>37.1</v>
+        <v>38</v>
       </c>
       <c r="I6">
-        <v>51.9</v>
+        <v>49.6</v>
       </c>
       <c r="J6">
-        <v>33.3</v>
+        <v>30.3</v>
       </c>
       <c r="K6">
-        <v>54.1</v>
+        <v>51.1</v>
       </c>
       <c r="L6">
-        <v>65.40000000000001</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="M6">
         <v>91</v>
       </c>
       <c r="N6">
-        <v>78.3</v>
+        <v>80</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2582,46 +2591,46 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>85.59999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D7">
-        <v>84.39999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="E7">
-        <v>88.5</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="F7">
-        <v>76.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="G7">
-        <v>87.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H7">
-        <v>79.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="I7">
-        <v>87</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="J7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>87.40000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="L7">
-        <v>94.3</v>
+        <v>93.8</v>
       </c>
       <c r="M7">
-        <v>93.5</v>
+        <v>92.2</v>
       </c>
       <c r="N7">
-        <v>79.3</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="O7">
-        <v>85.7</v>
+        <v>87.5</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2632,34 +2641,34 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
         <v>2.8</v>
       </c>
       <c r="E8">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F8">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G8">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I8">
-        <v>4.100000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="J8">
         <v>1.1</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2682,40 +2691,40 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="C9">
-        <v>91.8</v>
+        <v>92.2</v>
       </c>
       <c r="D9">
-        <v>93</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="E9">
-        <v>63.9</v>
+        <v>63.4</v>
       </c>
       <c r="F9">
-        <v>48.4</v>
+        <v>46.7</v>
       </c>
       <c r="G9">
-        <v>44.4</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>53.2</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="I9">
-        <v>59.3</v>
+        <v>60.6</v>
       </c>
       <c r="J9">
-        <v>47.2</v>
+        <v>44.9</v>
       </c>
       <c r="K9">
-        <v>35.09999999999999</v>
+        <v>34.3</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="M9">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2732,46 +2741,46 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>33.5</v>
+        <v>36.8</v>
       </c>
       <c r="C10">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D10">
-        <v>0.8999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>8.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G10">
-        <v>21.9</v>
+        <v>22.6</v>
       </c>
       <c r="H10">
-        <v>15.8</v>
+        <v>12.6</v>
       </c>
       <c r="I10">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="J10">
-        <v>44.7</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>20.8</v>
+        <v>24</v>
       </c>
       <c r="L10">
-        <v>25.8</v>
+        <v>27.1</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>13.1</v>
       </c>
       <c r="N10">
-        <v>42.4</v>
+        <v>38.1</v>
       </c>
       <c r="O10">
-        <v>14.3</v>
+        <v>12.5</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2782,40 +2791,40 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>23.2</v>
+        <v>21.2</v>
       </c>
       <c r="C11">
-        <v>45.9</v>
+        <v>44.7</v>
       </c>
       <c r="D11">
-        <v>32.7</v>
+        <v>32.1</v>
       </c>
       <c r="E11">
-        <v>20.3</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>43.2</v>
+        <v>42.1</v>
       </c>
       <c r="G11">
-        <v>24.7</v>
+        <v>27.4</v>
       </c>
       <c r="H11">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="I11">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="J11">
-        <v>9.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="K11">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="L11">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="M11">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3529,10 +3538,10 @@
         <v>68</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>108</v>
@@ -3543,16 +3552,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>109</v>
@@ -3563,16 +3572,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>110</v>
@@ -3589,7 +3598,7 @@
         <v>63</v>
       </c>
       <c r="D5">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -3609,13 +3618,13 @@
         <v>65</v>
       </c>
       <c r="D6">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3623,19 +3632,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>-13</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3643,19 +3652,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>-16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3663,19 +3672,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>-16</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3683,19 +3692,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3709,13 +3718,13 @@
         <v>70</v>
       </c>
       <c r="D11">
-        <v>-32</v>
+        <v>-41</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3725,63 +3734,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3830,117 +3842,126 @@
       <c r="P2">
         <v>42</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>13</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>24</v>
       </c>
       <c r="J3">
+        <v>26</v>
+      </c>
+      <c r="K3">
         <v>28</v>
       </c>
-      <c r="K3">
+      <c r="L3">
+        <v>32</v>
+      </c>
+      <c r="M3">
+        <v>35</v>
+      </c>
+      <c r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>40</v>
+      </c>
+      <c r="P3">
         <v>34</v>
       </c>
-      <c r="L3">
-        <v>41</v>
-      </c>
-      <c r="M3">
-        <v>38</v>
-      </c>
-      <c r="N3">
-        <v>35</v>
-      </c>
-      <c r="O3">
-        <v>38</v>
-      </c>
-      <c r="P3">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="Q3">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>-5</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
       <c r="E4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>13</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>24</v>
       </c>
       <c r="J4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M4">
+        <v>38</v>
+      </c>
+      <c r="N4">
         <v>35</v>
       </c>
-      <c r="N4">
-        <v>40</v>
-      </c>
       <c r="O4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P4">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3989,11 +4010,14 @@
       <c r="P5">
         <v>-2</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <v>-4</v>
+      </c>
+      <c r="R5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4042,223 +4066,238 @@
       <c r="P6">
         <v>-11</v>
       </c>
-      <c r="Q6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6">
+        <v>-5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>-11</v>
+      </c>
+      <c r="G7">
+        <v>-7</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>-6</v>
       </c>
-      <c r="F7">
+      <c r="L7">
+        <v>-14</v>
+      </c>
+      <c r="M7">
+        <v>-13</v>
+      </c>
+      <c r="N7">
+        <v>-14</v>
+      </c>
+      <c r="O7">
+        <v>-10</v>
+      </c>
+      <c r="P7">
+        <v>-16</v>
+      </c>
+      <c r="Q7">
+        <v>-13</v>
+      </c>
+      <c r="R7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>-5</v>
+      </c>
+      <c r="C8">
         <v>-4</v>
       </c>
-      <c r="G7">
-        <v>-5</v>
-      </c>
-      <c r="H7">
-        <v>-7</v>
-      </c>
-      <c r="I7">
-        <v>-5</v>
-      </c>
-      <c r="J7">
-        <v>-6</v>
-      </c>
-      <c r="K7">
+      <c r="D8">
+        <v>-10</v>
+      </c>
+      <c r="E8">
+        <v>-12</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
         <v>-2</v>
-      </c>
-      <c r="L7">
-        <v>-13</v>
-      </c>
-      <c r="M7">
-        <v>-17</v>
-      </c>
-      <c r="N7">
-        <v>-18</v>
-      </c>
-      <c r="O7">
-        <v>-20</v>
-      </c>
-      <c r="P7">
-        <v>-13</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
-        <v>-6</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>-11</v>
-      </c>
-      <c r="G8">
-        <v>-7</v>
       </c>
       <c r="H8">
         <v>-6</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="K8">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="L8">
+        <v>-13</v>
+      </c>
+      <c r="M8">
         <v>-14</v>
       </c>
-      <c r="M8">
-        <v>-13</v>
-      </c>
       <c r="N8">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="O8">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="P8">
         <v>-16</v>
       </c>
-      <c r="Q8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>-16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="D9">
         <v>-10</v>
       </c>
       <c r="E9">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="F9">
+        <v>-11</v>
+      </c>
+      <c r="G9">
+        <v>-10</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9">
+        <v>-6</v>
+      </c>
+      <c r="J9">
+        <v>-10</v>
+      </c>
+      <c r="K9">
+        <v>-16</v>
+      </c>
+      <c r="L9">
+        <v>-17</v>
+      </c>
+      <c r="M9">
+        <v>-17</v>
+      </c>
+      <c r="N9">
+        <v>-17</v>
+      </c>
+      <c r="O9">
+        <v>-25</v>
+      </c>
+      <c r="P9">
+        <v>-20</v>
+      </c>
+      <c r="Q9">
+        <v>-16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
         <v>-4</v>
       </c>
-      <c r="G9">
+      <c r="G10">
+        <v>-5</v>
+      </c>
+      <c r="H10">
+        <v>-7</v>
+      </c>
+      <c r="I10">
+        <v>-5</v>
+      </c>
+      <c r="J10">
+        <v>-6</v>
+      </c>
+      <c r="K10">
         <v>-2</v>
       </c>
-      <c r="H9">
-        <v>-6</v>
-      </c>
-      <c r="I9">
-        <v>-8</v>
-      </c>
-      <c r="J9">
-        <v>-8</v>
-      </c>
-      <c r="K9">
-        <v>-12</v>
-      </c>
-      <c r="L9">
+      <c r="L10">
         <v>-13</v>
-      </c>
-      <c r="M9">
-        <v>-14</v>
-      </c>
-      <c r="N9">
-        <v>-18</v>
-      </c>
-      <c r="O9">
-        <v>-12</v>
-      </c>
-      <c r="P9">
-        <v>-16</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-7</v>
-      </c>
-      <c r="C10">
-        <v>-7</v>
-      </c>
-      <c r="D10">
-        <v>-10</v>
-      </c>
-      <c r="E10">
-        <v>-10</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10">
-        <v>-10</v>
-      </c>
-      <c r="H10">
-        <v>-10</v>
-      </c>
-      <c r="I10">
-        <v>-6</v>
-      </c>
-      <c r="J10">
-        <v>-10</v>
-      </c>
-      <c r="K10">
-        <v>-16</v>
-      </c>
-      <c r="L10">
-        <v>-17</v>
       </c>
       <c r="M10">
         <v>-17</v>
       </c>
       <c r="N10">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="O10">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="P10">
-        <v>-20</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>-13</v>
+      </c>
+      <c r="Q10">
+        <v>-19</v>
+      </c>
+      <c r="R10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4307,8 +4346,11 @@
       <c r="P11">
         <v>-32</v>
       </c>
-      <c r="Q11" t="s">
-        <v>109</v>
+      <c r="Q11">
+        <v>-41</v>
+      </c>
+      <c r="R11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -2341,37 +2341,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>93.89999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D2">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E2">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F2">
-        <v>84.7</v>
+        <v>85</v>
       </c>
       <c r="G2">
-        <v>77.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="H2">
-        <v>95.39999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I2">
-        <v>83</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="J2">
-        <v>94.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="K2">
-        <v>87.8</v>
+        <v>86</v>
       </c>
       <c r="L2">
-        <v>96.2</v>
+        <v>97.3</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2391,40 +2391,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70.5</v>
+        <v>72.5</v>
       </c>
       <c r="C3">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="D3">
-        <v>74.2</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>85.7</v>
+        <v>85</v>
       </c>
       <c r="F3">
-        <v>90.10000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="G3">
-        <v>78.90000000000001</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="H3">
-        <v>94.69999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I3">
-        <v>87.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="J3">
-        <v>95.19999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="K3">
-        <v>98.3</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="L3">
-        <v>97.5</v>
+        <v>96.5</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2441,37 +2441,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C4">
-        <v>85.2</v>
+        <v>89.3</v>
       </c>
       <c r="D4">
-        <v>98.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="E4">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F4">
-        <v>91.90000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="G4">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="H4">
+        <v>96.8</v>
+      </c>
+      <c r="I4">
         <v>96.09999999999999</v>
       </c>
-      <c r="I4">
-        <v>97.2</v>
-      </c>
       <c r="J4">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K4">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="L4">
-        <v>97.89999999999999</v>
+        <v>97</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -2491,19 +2491,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>80.10000000000001</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="C5">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D5">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E5">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F5">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="G5">
         <v>99.59999999999999</v>
@@ -2512,13 +2512,13 @@
         <v>99.90000000000001</v>
       </c>
       <c r="I5">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="J5">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -2541,40 +2541,40 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>72.3</v>
       </c>
       <c r="C6">
-        <v>50.9</v>
+        <v>49.1</v>
       </c>
       <c r="D6">
-        <v>15.7</v>
+        <v>14.8</v>
       </c>
       <c r="E6">
-        <v>43.6</v>
+        <v>45.9</v>
       </c>
       <c r="F6">
-        <v>64.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G6">
-        <v>57.99999999999999</v>
+        <v>59.59999999999999</v>
       </c>
       <c r="H6">
-        <v>38</v>
+        <v>37.2</v>
       </c>
       <c r="I6">
-        <v>49.6</v>
+        <v>48.6</v>
       </c>
       <c r="J6">
-        <v>30.3</v>
+        <v>32.5</v>
       </c>
       <c r="K6">
-        <v>51.1</v>
+        <v>50.8</v>
       </c>
       <c r="L6">
         <v>65.60000000000001</v>
       </c>
       <c r="M6">
-        <v>91</v>
+        <v>91.3</v>
       </c>
       <c r="N6">
         <v>80</v>
@@ -2594,43 +2594,43 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>86.09999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D7">
-        <v>83.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="E7">
-        <v>89.60000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="F7">
-        <v>77.2</v>
+        <v>74</v>
       </c>
       <c r="G7">
-        <v>88.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H7">
-        <v>82</v>
+        <v>78.8</v>
       </c>
       <c r="I7">
-        <v>89.60000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K7">
-        <v>86.09999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="L7">
-        <v>93.8</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="M7">
-        <v>92.2</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="N7">
-        <v>81.89999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="O7">
-        <v>87.5</v>
+        <v>88</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2641,31 +2641,31 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>5.5</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="D8">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="E8">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="F8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H8">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I8">
         <v>5.3</v>
       </c>
       <c r="J8">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K8">
         <v>0.2</v>
@@ -2691,40 +2691,40 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>92.2</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="D9">
-        <v>93.60000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="E9">
-        <v>63.4</v>
+        <v>61.8</v>
       </c>
       <c r="F9">
-        <v>46.7</v>
+        <v>47.7</v>
       </c>
       <c r="G9">
-        <v>45</v>
+        <v>44.2</v>
       </c>
       <c r="H9">
-        <v>55.00000000000001</v>
+        <v>58.4</v>
       </c>
       <c r="I9">
-        <v>60.6</v>
+        <v>58.9</v>
       </c>
       <c r="J9">
-        <v>44.9</v>
+        <v>46.6</v>
       </c>
       <c r="K9">
-        <v>34.3</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="L9">
-        <v>13.8</v>
+        <v>16.1</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2741,46 +2741,46 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>36.8</v>
+        <v>35.2</v>
       </c>
       <c r="C10">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="E10">
-        <v>11.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F10">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>22.6</v>
+        <v>21.4</v>
       </c>
       <c r="H10">
-        <v>12.6</v>
+        <v>13.9</v>
       </c>
       <c r="I10">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="J10">
-        <v>47</v>
+        <v>46.3</v>
       </c>
       <c r="K10">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="L10">
-        <v>27.1</v>
+        <v>25.7</v>
       </c>
       <c r="M10">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="N10">
-        <v>38.1</v>
+        <v>38.7</v>
       </c>
       <c r="O10">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2791,40 +2791,40 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="C11">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="D11">
-        <v>32.1</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>19.6</v>
       </c>
       <c r="F11">
-        <v>42.1</v>
+        <v>42.4</v>
       </c>
       <c r="G11">
-        <v>27.4</v>
+        <v>25.2</v>
       </c>
       <c r="H11">
-        <v>17.1</v>
+        <v>15.6</v>
       </c>
       <c r="I11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="K11">
-        <v>19.3</v>
+        <v>22.1</v>
       </c>
       <c r="L11">
-        <v>8.1</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="M11">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="N11">
         <v>0</v>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="140">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -55,46 +55,49 @@
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>11-4-1</t>
-  </si>
-  <si>
-    <t>13-3-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>14-2-0</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>12-3-1</t>
+    <t>11-5-1</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>15-2-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>13-3-1</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -340,88 +343,85 @@
     <t>5.0-9.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week</t>
@@ -855,13 +855,13 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -870,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -884,25 +884,25 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -916,31 +916,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -954,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -966,16 +966,16 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -989,28 +989,28 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1021,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1039,10 +1039,10 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -1071,10 +1071,10 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1141,10 +1141,10 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -1158,13 +1158,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1173,19 +1173,19 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1333,25 +1333,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-4</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1359,25 +1359,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>-4</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1388,22 +1388,22 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1411,77 +1411,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>-4</v>
-      </c>
-      <c r="G10">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-4</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1499,13 +1447,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1513,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1527,13 +1475,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1541,13 +1489,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1555,13 +1503,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1569,13 +1517,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1586,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1600,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1611,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1628,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1639,13 +1587,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1663,16 +1611,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1683,10 +1631,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="D2">
-        <v>-0.09999999999999964</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1700,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="D3">
-        <v>1.9</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1714,16 +1662,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="D4">
-        <v>-1.9</v>
+        <v>-1.1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1731,16 +1679,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D5">
-        <v>-1.1</v>
+        <v>-1.300000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1751,13 +1699,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D6">
-        <v>1.9</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1768,10 +1716,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1785,13 +1733,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="D8">
-        <v>0.2999999999999998</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1802,13 +1750,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D9">
-        <v>0.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1816,16 +1764,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D10">
-        <v>-0.5</v>
+        <v>2.6</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1833,16 +1781,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
-        <v>2.1</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1860,40 +1808,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2291,49 +2239,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2341,37 +2289,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>92.40000000000001</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="C2">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D2">
         <v>99.40000000000001</v>
       </c>
       <c r="E2">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="F2">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G2">
-        <v>76.8</v>
+        <v>79.5</v>
       </c>
       <c r="H2">
-        <v>94.89999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I2">
-        <v>86.90000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="J2">
-        <v>93.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="K2">
-        <v>86</v>
+        <v>88.2</v>
       </c>
       <c r="L2">
-        <v>97.3</v>
+        <v>96.8</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2391,40 +2339,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>72.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C3">
-        <v>40.1</v>
+        <v>38.9</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>71.7</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="F3">
-        <v>90.2</v>
+        <v>89.8</v>
       </c>
       <c r="G3">
-        <v>81.89999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="H3">
-        <v>94.89999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I3">
-        <v>86.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="J3">
-        <v>95.7</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="K3">
-        <v>97.89999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="L3">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="M3">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2441,37 +2389,37 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>99.2</v>
+      </c>
+      <c r="C4">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="D4">
         <v>98.2</v>
       </c>
-      <c r="C4">
-        <v>89.3</v>
-      </c>
-      <c r="D4">
-        <v>98.8</v>
-      </c>
       <c r="E4">
-        <v>88.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="F4">
-        <v>91.10000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="G4">
-        <v>98.2</v>
+        <v>99.2</v>
       </c>
       <c r="H4">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="I4">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="J4">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="K4">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="L4">
-        <v>97</v>
+        <v>97.7</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -2491,10 +2439,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>80.30000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C5">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="D5">
         <v>99.59999999999999</v>
@@ -2503,22 +2451,22 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F5">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="G5">
+        <v>99.5</v>
+      </c>
+      <c r="H5">
+        <v>99.8</v>
+      </c>
+      <c r="I5">
         <v>99.59999999999999</v>
       </c>
-      <c r="H5">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I5">
-        <v>99.2</v>
-      </c>
       <c r="J5">
-        <v>98.3</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="K5">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -2541,43 +2489,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>72.3</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="C6">
-        <v>49.1</v>
+        <v>49.6</v>
       </c>
       <c r="D6">
-        <v>14.8</v>
+        <v>16.2</v>
       </c>
       <c r="E6">
-        <v>45.9</v>
+        <v>44.5</v>
       </c>
       <c r="F6">
-        <v>66.40000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="G6">
-        <v>59.59999999999999</v>
+        <v>59.5</v>
       </c>
       <c r="H6">
-        <v>37.2</v>
+        <v>37.9</v>
       </c>
       <c r="I6">
-        <v>48.6</v>
+        <v>49.2</v>
       </c>
       <c r="J6">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>50.8</v>
+        <v>51.8</v>
       </c>
       <c r="L6">
-        <v>65.60000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="M6">
-        <v>91.3</v>
+        <v>91</v>
       </c>
       <c r="N6">
-        <v>80</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2591,46 +2539,46 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C7">
-        <v>82.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="D7">
-        <v>84.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="E7">
-        <v>91.10000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F7">
-        <v>74</v>
+        <v>74.2</v>
       </c>
       <c r="G7">
-        <v>89.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="H7">
-        <v>78.8</v>
+        <v>78.5</v>
       </c>
       <c r="I7">
-        <v>90.10000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="J7">
-        <v>77.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K7">
-        <v>87.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="L7">
-        <v>94.39999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="M7">
-        <v>92.80000000000001</v>
+        <v>94</v>
       </c>
       <c r="N7">
-        <v>81.3</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="O7">
-        <v>88</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="P7">
         <v>100</v>
@@ -2641,34 +2589,34 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>5.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="D8">
         <v>2.1</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>1.4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <v>3.9</v>
+      </c>
+      <c r="H8">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>3.2</v>
-      </c>
-      <c r="H8">
-        <v>9.6</v>
-      </c>
-      <c r="I8">
-        <v>5.3</v>
-      </c>
-      <c r="J8">
-        <v>1.3</v>
-      </c>
       <c r="K8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2691,40 +2639,40 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>24.3</v>
       </c>
       <c r="C9">
-        <v>92.10000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="D9">
-        <v>93.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E9">
-        <v>61.8</v>
+        <v>60.7</v>
       </c>
       <c r="F9">
-        <v>47.7</v>
+        <v>47.4</v>
       </c>
       <c r="G9">
-        <v>44.2</v>
+        <v>42.9</v>
       </c>
       <c r="H9">
-        <v>58.4</v>
+        <v>59.8</v>
       </c>
       <c r="I9">
-        <v>58.9</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="J9">
-        <v>46.6</v>
+        <v>48.2</v>
       </c>
       <c r="K9">
-        <v>33.90000000000001</v>
+        <v>35.6</v>
       </c>
       <c r="L9">
-        <v>16.1</v>
+        <v>14.2</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2741,46 +2689,46 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>35.2</v>
+        <v>34.4</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>8.300000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="G10">
-        <v>21.4</v>
+        <v>23.3</v>
       </c>
       <c r="H10">
-        <v>13.9</v>
+        <v>15.2</v>
       </c>
       <c r="I10">
-        <v>24.7</v>
+        <v>26.3</v>
       </c>
       <c r="J10">
-        <v>46.3</v>
+        <v>44.6</v>
       </c>
       <c r="K10">
-        <v>23.1</v>
+        <v>21.8</v>
       </c>
       <c r="L10">
-        <v>25.7</v>
+        <v>28.7</v>
       </c>
       <c r="M10">
-        <v>12.3</v>
+        <v>11.1</v>
       </c>
       <c r="N10">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="O10">
-        <v>12</v>
+        <v>14.6</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2791,40 +2739,40 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="C11">
-        <v>44.9</v>
+        <v>46.6</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="E11">
-        <v>19.6</v>
+        <v>21.1</v>
       </c>
       <c r="F11">
-        <v>42.4</v>
+        <v>41.8</v>
       </c>
       <c r="G11">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="H11">
         <v>15.6</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="J11">
         <v>9.1</v>
       </c>
       <c r="K11">
-        <v>22.1</v>
+        <v>18.9</v>
       </c>
       <c r="L11">
-        <v>7.399999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="M11">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2851,28 +2799,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2883,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>110.87</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2912,13 +2860,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>123.8</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2941,13 +2889,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>110.48</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2970,13 +2918,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>87.15000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2999,13 +2947,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>95.86</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3028,13 +2976,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>119.95</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3057,13 +3005,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>101.18</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3086,13 +3034,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>96.06</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3115,13 +3063,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>100.76</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3144,13 +3092,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11">
         <v>112.39</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3180,31 +3128,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3212,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>0.7142857142857143</v>
@@ -3230,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3241,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>0.6428571428571429</v>
@@ -3259,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3270,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>0.6428571428571429</v>
@@ -3288,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3299,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>0.7857142857142857</v>
@@ -3317,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3328,7 +3276,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3346,10 +3294,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3357,7 +3305,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
@@ -3375,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3386,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>0.1428571428571428</v>
@@ -3404,10 +3352,10 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3415,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>0.2857142857142857</v>
@@ -3433,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3444,7 +3392,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3462,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3473,7 +3421,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>0.3571428571428572</v>
@@ -3491,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3503,236 +3451,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5">
-        <v>-4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6">
-        <v>-5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7">
-        <v>-13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8">
-        <v>-16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9">
-        <v>-16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10">
-        <v>-19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11">
-        <v>-41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -3742,55 +3460,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3845,8 +3563,8 @@
       <c r="Q2">
         <v>44</v>
       </c>
-      <c r="R2" t="s">
-        <v>108</v>
+      <c r="R2">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3901,8 +3619,8 @@
       <c r="Q3">
         <v>37</v>
       </c>
-      <c r="R3" t="s">
-        <v>109</v>
+      <c r="R3">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3957,8 +3675,8 @@
       <c r="Q4">
         <v>31</v>
       </c>
-      <c r="R4" t="s">
-        <v>110</v>
+      <c r="R4">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4013,8 +3731,8 @@
       <c r="Q5">
         <v>-4</v>
       </c>
-      <c r="R5" t="s">
-        <v>111</v>
+      <c r="R5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4069,232 +3787,232 @@
       <c r="Q6">
         <v>-5</v>
       </c>
-      <c r="R6" t="s">
-        <v>112</v>
+      <c r="R6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D7">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="F7">
         <v>-11</v>
       </c>
       <c r="G7">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="H7">
+        <v>-10</v>
+      </c>
+      <c r="I7">
         <v>-6</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="K7">
-        <v>-6</v>
+        <v>-16</v>
       </c>
       <c r="L7">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="M7">
+        <v>-17</v>
+      </c>
+      <c r="N7">
+        <v>-17</v>
+      </c>
+      <c r="O7">
+        <v>-25</v>
+      </c>
+      <c r="P7">
+        <v>-20</v>
+      </c>
+      <c r="Q7">
+        <v>-16</v>
+      </c>
+      <c r="R7">
         <v>-13</v>
-      </c>
-      <c r="N7">
-        <v>-14</v>
-      </c>
-      <c r="O7">
-        <v>-10</v>
-      </c>
-      <c r="P7">
-        <v>-16</v>
-      </c>
-      <c r="Q7">
-        <v>-13</v>
-      </c>
-      <c r="R7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="F8">
         <v>-4</v>
       </c>
       <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="H8">
+        <v>-7</v>
+      </c>
+      <c r="I8">
+        <v>-5</v>
+      </c>
+      <c r="J8">
+        <v>-6</v>
+      </c>
+      <c r="K8">
         <v>-2</v>
-      </c>
-      <c r="H8">
-        <v>-6</v>
-      </c>
-      <c r="I8">
-        <v>-8</v>
-      </c>
-      <c r="J8">
-        <v>-8</v>
-      </c>
-      <c r="K8">
-        <v>-12</v>
       </c>
       <c r="L8">
         <v>-13</v>
       </c>
       <c r="M8">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="N8">
         <v>-18</v>
       </c>
       <c r="O8">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="P8">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="Q8">
-        <v>-16</v>
-      </c>
-      <c r="R8" t="s">
-        <v>113</v>
+        <v>-19</v>
+      </c>
+      <c r="R8">
+        <v>-14</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
         <v>-7</v>
       </c>
-      <c r="C9">
-        <v>-7</v>
-      </c>
-      <c r="D9">
-        <v>-10</v>
-      </c>
       <c r="E9">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="F9">
         <v>-11</v>
       </c>
       <c r="G9">
+        <v>-7</v>
+      </c>
+      <c r="H9">
+        <v>-6</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-6</v>
+      </c>
+      <c r="L9">
+        <v>-14</v>
+      </c>
+      <c r="M9">
+        <v>-13</v>
+      </c>
+      <c r="N9">
+        <v>-14</v>
+      </c>
+      <c r="O9">
         <v>-10</v>
       </c>
-      <c r="H9">
-        <v>-10</v>
-      </c>
-      <c r="I9">
-        <v>-6</v>
-      </c>
-      <c r="J9">
-        <v>-10</v>
-      </c>
-      <c r="K9">
+      <c r="P9">
         <v>-16</v>
       </c>
-      <c r="L9">
-        <v>-17</v>
-      </c>
-      <c r="M9">
-        <v>-17</v>
-      </c>
-      <c r="N9">
-        <v>-17</v>
-      </c>
-      <c r="O9">
-        <v>-25</v>
-      </c>
-      <c r="P9">
-        <v>-20</v>
-      </c>
       <c r="Q9">
-        <v>-16</v>
-      </c>
-      <c r="R9" t="s">
-        <v>114</v>
+        <v>-13</v>
+      </c>
+      <c r="R9">
+        <v>-22</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="F10">
         <v>-4</v>
       </c>
       <c r="G10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="H10">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="I10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="J10">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="K10">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="L10">
         <v>-13</v>
       </c>
       <c r="M10">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="N10">
         <v>-18</v>
       </c>
       <c r="O10">
-        <v>-20</v>
+        <v>-12</v>
       </c>
       <c r="P10">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="Q10">
-        <v>-19</v>
-      </c>
-      <c r="R10" t="s">
-        <v>115</v>
+        <v>-16</v>
+      </c>
+      <c r="R10">
+        <v>-22</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4349,8 +4067,667 @@
       <c r="Q11">
         <v>-41</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11">
+        <v>-52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <v>31</v>
+      </c>
+      <c r="P2">
+        <v>42</v>
+      </c>
+      <c r="Q2">
+        <v>44</v>
+      </c>
+      <c r="R2">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>32</v>
+      </c>
+      <c r="M3">
+        <v>35</v>
+      </c>
+      <c r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>40</v>
+      </c>
+      <c r="P3">
+        <v>34</v>
+      </c>
+      <c r="Q3">
+        <v>37</v>
+      </c>
+      <c r="R3">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>-5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>34</v>
+      </c>
+      <c r="L4">
+        <v>41</v>
+      </c>
+      <c r="M4">
+        <v>38</v>
+      </c>
+      <c r="N4">
+        <v>35</v>
+      </c>
+      <c r="O4">
+        <v>38</v>
+      </c>
+      <c r="P4">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>31</v>
+      </c>
+      <c r="R4">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-5</v>
+      </c>
+      <c r="G5">
+        <v>-6</v>
+      </c>
+      <c r="H5">
+        <v>-2</v>
+      </c>
+      <c r="I5">
+        <v>-7</v>
+      </c>
+      <c r="J5">
+        <v>-10</v>
+      </c>
+      <c r="K5">
+        <v>-11</v>
+      </c>
+      <c r="L5">
+        <v>-10</v>
+      </c>
+      <c r="M5">
+        <v>-8</v>
+      </c>
+      <c r="N5">
+        <v>-7</v>
+      </c>
+      <c r="O5">
+        <v>-8</v>
+      </c>
+      <c r="P5">
+        <v>-2</v>
+      </c>
+      <c r="Q5">
+        <v>-4</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-4</v>
+      </c>
+      <c r="H6">
+        <v>-6</v>
+      </c>
+      <c r="I6">
+        <v>-13</v>
+      </c>
+      <c r="J6">
+        <v>-12</v>
+      </c>
+      <c r="K6">
+        <v>-8</v>
+      </c>
+      <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>-5</v>
+      </c>
+      <c r="P6">
+        <v>-11</v>
+      </c>
+      <c r="Q6">
+        <v>-5</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>-7</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>-10</v>
+      </c>
+      <c r="E7">
+        <v>-10</v>
+      </c>
+      <c r="F7">
+        <v>-11</v>
+      </c>
+      <c r="G7">
+        <v>-10</v>
+      </c>
+      <c r="H7">
+        <v>-10</v>
+      </c>
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7">
+        <v>-10</v>
+      </c>
+      <c r="K7">
+        <v>-16</v>
+      </c>
+      <c r="L7">
+        <v>-17</v>
+      </c>
+      <c r="M7">
+        <v>-17</v>
+      </c>
+      <c r="N7">
+        <v>-17</v>
+      </c>
+      <c r="O7">
+        <v>-25</v>
+      </c>
+      <c r="P7">
+        <v>-20</v>
+      </c>
+      <c r="Q7">
+        <v>-16</v>
+      </c>
+      <c r="R7">
+        <v>-13</v>
+      </c>
+      <c r="S7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="H8">
+        <v>-7</v>
+      </c>
+      <c r="I8">
+        <v>-5</v>
+      </c>
+      <c r="J8">
+        <v>-6</v>
+      </c>
+      <c r="K8">
+        <v>-2</v>
+      </c>
+      <c r="L8">
+        <v>-13</v>
+      </c>
+      <c r="M8">
+        <v>-17</v>
+      </c>
+      <c r="N8">
+        <v>-18</v>
+      </c>
+      <c r="O8">
+        <v>-20</v>
+      </c>
+      <c r="P8">
+        <v>-13</v>
+      </c>
+      <c r="Q8">
+        <v>-19</v>
+      </c>
+      <c r="R8">
+        <v>-14</v>
+      </c>
+      <c r="S8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
+        <v>-11</v>
+      </c>
+      <c r="G9">
+        <v>-7</v>
+      </c>
+      <c r="H9">
+        <v>-6</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-6</v>
+      </c>
+      <c r="L9">
+        <v>-14</v>
+      </c>
+      <c r="M9">
+        <v>-13</v>
+      </c>
+      <c r="N9">
+        <v>-14</v>
+      </c>
+      <c r="O9">
+        <v>-10</v>
+      </c>
+      <c r="P9">
+        <v>-16</v>
+      </c>
+      <c r="Q9">
+        <v>-13</v>
+      </c>
+      <c r="R9">
+        <v>-22</v>
+      </c>
+      <c r="S9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="E10">
+        <v>-12</v>
+      </c>
+      <c r="F10">
+        <v>-4</v>
+      </c>
+      <c r="G10">
+        <v>-2</v>
+      </c>
+      <c r="H10">
+        <v>-6</v>
+      </c>
+      <c r="I10">
+        <v>-8</v>
+      </c>
+      <c r="J10">
+        <v>-8</v>
+      </c>
+      <c r="K10">
+        <v>-12</v>
+      </c>
+      <c r="L10">
+        <v>-13</v>
+      </c>
+      <c r="M10">
+        <v>-14</v>
+      </c>
+      <c r="N10">
+        <v>-18</v>
+      </c>
+      <c r="O10">
+        <v>-12</v>
+      </c>
+      <c r="P10">
+        <v>-16</v>
+      </c>
+      <c r="Q10">
+        <v>-16</v>
+      </c>
+      <c r="R10">
+        <v>-22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <v>-7</v>
+      </c>
+      <c r="E11">
+        <v>-5</v>
+      </c>
+      <c r="F11">
+        <v>-4</v>
+      </c>
+      <c r="G11">
+        <v>-8</v>
+      </c>
+      <c r="H11">
+        <v>-13</v>
+      </c>
+      <c r="I11">
+        <v>-23</v>
+      </c>
+      <c r="J11">
+        <v>-17</v>
+      </c>
+      <c r="K11">
+        <v>-20</v>
+      </c>
+      <c r="L11">
+        <v>-24</v>
+      </c>
+      <c r="M11">
+        <v>-25</v>
+      </c>
+      <c r="N11">
+        <v>-23</v>
+      </c>
+      <c r="O11">
+        <v>-29</v>
+      </c>
+      <c r="P11">
+        <v>-32</v>
+      </c>
+      <c r="Q11">
+        <v>-41</v>
+      </c>
+      <c r="R11">
+        <v>-52</v>
+      </c>
+      <c r="S11" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Operators Football League 2025.xlsx
+++ b/leagues/Operators Football League 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="142">
   <si>
     <t>Mhoney Hurts So Good</t>
   </si>
@@ -114,6 +118,231 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Morgan Herber</t>
+  </si>
+  <si>
+    <t>Lauren  Ettlinger</t>
+  </si>
+  <si>
+    <t>Haley Toadvine</t>
+  </si>
+  <si>
+    <t>Carly Foster</t>
+  </si>
+  <si>
+    <t>Julie Williston</t>
+  </si>
+  <si>
+    <t>Jessica McNally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katie  Kush </t>
+  </si>
+  <si>
+    <t>Casey Reid</t>
+  </si>
+  <si>
+    <t>Ava Patterson</t>
+  </si>
+  <si>
+    <t>Rachel Hall</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>11.0-3.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>2.0-12.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -121,36 +350,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Jessica McNally</t>
-  </si>
-  <si>
-    <t>Lauren  Ettlinger</t>
-  </si>
-  <si>
-    <t>Rachel Hall</t>
-  </si>
-  <si>
-    <t>Morgan Herber</t>
-  </si>
-  <si>
-    <t>Haley Toadvine</t>
-  </si>
-  <si>
-    <t>Carly Foster</t>
-  </si>
-  <si>
-    <t>Julie Williston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katie  Kush </t>
-  </si>
-  <si>
-    <t>Ava Patterson</t>
-  </si>
-  <si>
-    <t>Casey Reid</t>
   </si>
   <si>
     <t>↑8</t>
@@ -1000,6 +1199,250 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>-12</v>
+      </c>
+      <c r="F2">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>-14</v>
+      </c>
+      <c r="G3">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>-17</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>-5</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>-5</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1363,6 +1806,1658 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>92.60000000000001</v>
+      </c>
+      <c r="C2">
+        <v>99.8</v>
+      </c>
+      <c r="D2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F2">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>77.10000000000001</v>
+      </c>
+      <c r="H2">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="I2">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="J2">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="K2">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="L2">
+        <v>96.2</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>39.6</v>
+      </c>
+      <c r="D3">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="E3">
+        <v>87</v>
+      </c>
+      <c r="F3">
+        <v>87.3</v>
+      </c>
+      <c r="G3">
+        <v>80.2</v>
+      </c>
+      <c r="H3">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="I3">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="J3">
+        <v>95.3</v>
+      </c>
+      <c r="K3">
+        <v>98.7</v>
+      </c>
+      <c r="L3">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="M3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="C4">
+        <v>86.3</v>
+      </c>
+      <c r="D4">
+        <v>98.7</v>
+      </c>
+      <c r="E4">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="F4">
+        <v>90.8</v>
+      </c>
+      <c r="G4">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H4">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="I4">
+        <v>97.2</v>
+      </c>
+      <c r="J4">
+        <v>99.2</v>
+      </c>
+      <c r="K4">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L4">
+        <v>97.7</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>76.7</v>
+      </c>
+      <c r="C5">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D5">
+        <v>99.5</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>99.3</v>
+      </c>
+      <c r="G5">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="H5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I5">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J5">
+        <v>99</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>15.9</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>68.2</v>
+      </c>
+      <c r="G6">
+        <v>57.4</v>
+      </c>
+      <c r="H6">
+        <v>38.5</v>
+      </c>
+      <c r="I6">
+        <v>47.2</v>
+      </c>
+      <c r="J6">
+        <v>31.3</v>
+      </c>
+      <c r="K6">
+        <v>50.9</v>
+      </c>
+      <c r="L6">
+        <v>65.7</v>
+      </c>
+      <c r="M6">
+        <v>91.60000000000001</v>
+      </c>
+      <c r="N6">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="D7">
+        <v>83.5</v>
+      </c>
+      <c r="E7">
+        <v>88.2</v>
+      </c>
+      <c r="F7">
+        <v>77.7</v>
+      </c>
+      <c r="G7">
+        <v>89.7</v>
+      </c>
+      <c r="H7">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="I7">
+        <v>90.60000000000001</v>
+      </c>
+      <c r="J7">
+        <v>77.7</v>
+      </c>
+      <c r="K7">
+        <v>88.7</v>
+      </c>
+      <c r="L7">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="M7">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="N7">
+        <v>79.5</v>
+      </c>
+      <c r="O7">
+        <v>84.7</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
+      <c r="D8">
+        <v>1.7</v>
+      </c>
+      <c r="E8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="G8">
+        <v>2.9</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>5.3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>23.6</v>
+      </c>
+      <c r="C9">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="D9">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="E9">
+        <v>63.9</v>
+      </c>
+      <c r="F9">
+        <v>48.3</v>
+      </c>
+      <c r="G9">
+        <v>44.5</v>
+      </c>
+      <c r="H9">
+        <v>52.2</v>
+      </c>
+      <c r="I9">
+        <v>57.4</v>
+      </c>
+      <c r="J9">
+        <v>46.2</v>
+      </c>
+      <c r="K9">
+        <v>35.2</v>
+      </c>
+      <c r="L9">
+        <v>16.5</v>
+      </c>
+      <c r="M9">
+        <v>3.3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="C10">
+        <v>2.4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>10.2</v>
+      </c>
+      <c r="F10">
+        <v>3.1</v>
+      </c>
+      <c r="G10">
+        <v>24.9</v>
+      </c>
+      <c r="H10">
+        <v>13.9</v>
+      </c>
+      <c r="I10">
+        <v>25.6</v>
+      </c>
+      <c r="J10">
+        <v>46.3</v>
+      </c>
+      <c r="K10">
+        <v>24.1</v>
+      </c>
+      <c r="L10">
+        <v>23.9</v>
+      </c>
+      <c r="M10">
+        <v>11.5</v>
+      </c>
+      <c r="N10">
+        <v>38.4</v>
+      </c>
+      <c r="O10">
+        <v>15.3</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>22.5</v>
+      </c>
+      <c r="C11">
+        <v>50.1</v>
+      </c>
+      <c r="D11">
+        <v>33.1</v>
+      </c>
+      <c r="E11">
+        <v>18.8</v>
+      </c>
+      <c r="F11">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="G11">
+        <v>24.8</v>
+      </c>
+      <c r="H11">
+        <v>16.8</v>
+      </c>
+      <c r="I11">
+        <v>3.6</v>
+      </c>
+      <c r="J11">
+        <v>10.7</v>
+      </c>
+      <c r="K11">
+        <v>19.8</v>
+      </c>
+      <c r="L11">
+        <v>8.5</v>
+      </c>
+      <c r="M11">
+        <v>0.4</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>110.87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>123.8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>110.48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>87.15000000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>95.86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>119.95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>101.18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9">
+        <v>96.06</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>100.76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>112.39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D2">
+        <v>110.8714285714286</v>
+      </c>
+      <c r="E2">
+        <v>1552.2</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D3">
+        <v>123.8042857142857</v>
+      </c>
+      <c r="E3">
+        <v>1733.26</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D4">
+        <v>110.48</v>
+      </c>
+      <c r="E4">
+        <v>1546.72</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D5">
+        <v>119.95</v>
+      </c>
+      <c r="E5">
+        <v>1679.3</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>100.7585714285714</v>
+      </c>
+      <c r="E6">
+        <v>1410.62</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D7">
+        <v>112.3914285714286</v>
+      </c>
+      <c r="E7">
+        <v>1573.48</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D8">
+        <v>87.15428571428571</v>
+      </c>
+      <c r="E8">
+        <v>1220.16</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D9">
+        <v>95.86428571428571</v>
+      </c>
+      <c r="E9">
+        <v>1342.1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D10">
+        <v>101.1771428571429</v>
+      </c>
+      <c r="E10">
+        <v>1416.48</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D11">
+        <v>96.06285714285715</v>
+      </c>
+      <c r="E11">
+        <v>1344.88</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1374,16 +3469,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1394,7 +3489,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>52</v>
@@ -1403,7 +3498,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1414,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>41</v>
@@ -1423,7 +3518,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1434,7 +3529,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>28</v>
@@ -1443,7 +3538,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1454,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1463,7 +3558,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1474,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1483,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1494,7 +3589,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>-13</v>
@@ -1503,7 +3598,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1514,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>-14</v>
@@ -1523,7 +3618,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1534,7 +3629,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>-22</v>
@@ -1543,7 +3638,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1554,7 +3649,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>-22</v>
@@ -1563,7 +3658,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1574,7 +3669,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>-52</v>
@@ -1583,7 +3678,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +3686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -1601,58 +3696,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1711,7 +3806,7 @@
         <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1770,7 +3865,7 @@
         <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1829,7 +3924,7 @@
         <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1888,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1947,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2006,7 +4101,7 @@
         <v>-13</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2065,7 +4160,7 @@
         <v>-14</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2124,7 +4219,7 @@
         <v>-22</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2183,7 +4278,7 @@
         <v>-22</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2242,251 +4337,7 @@
         <v>-52</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>-12</v>
-      </c>
-      <c r="F2">
-        <v>38</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>-14</v>
-      </c>
-      <c r="G3">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>-17</v>
-      </c>
-      <c r="F4">
-        <v>28</v>
-      </c>
-      <c r="G4">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>37</v>
-      </c>
-      <c r="F5">
-        <v>-5</v>
-      </c>
-      <c r="G5">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>41</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>-4</v>
-      </c>
-      <c r="F7">
-        <v>31</v>
-      </c>
-      <c r="G7">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>-5</v>
-      </c>
-      <c r="G9">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
